--- a/data.xlsx
+++ b/data.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="204" uniqueCount="3">
   <si>
     <t>hello</t>
   </si>
@@ -366,7 +366,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C61"/>
+  <dimension ref="A1:C68"/>
   <sheetViews>
     <sheetView workbookViewId="0" zoomScale="100" zoomScaleNormal="100"/>
   </sheetViews>
@@ -1040,6 +1040,83 @@
         <v>1</v>
       </c>
       <c r="C61" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>0</v>
+      </c>
+      <c r="B62" t="s">
+        <v>1</v>
+      </c>
+      <c r="C62" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>0</v>
+      </c>
+      <c r="B63" t="s">
+        <v>1</v>
+      </c>
+      <c r="C63" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>0</v>
+      </c>
+      <c r="B64" t="s">
+        <v>1</v>
+      </c>
+      <c r="C64" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>0</v>
+      </c>
+      <c r="B65" t="s">
+        <v>1</v>
+      </c>
+      <c r="C65" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
+        <v>0</v>
+      </c>
+      <c r="B66" t="s">
+        <v>1</v>
+      </c>
+      <c r="C66" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
+        <v>0</v>
+      </c>
+      <c r="B67" t="s">
+        <v>1</v>
+      </c>
+      <c r="C67" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
+        <v>0</v>
+      </c>
+      <c r="B68" t="s">
+        <v>1</v>
+      </c>
+      <c r="C68" t="s">
         <v>2</v>
       </c>
     </row>

--- a/data.xlsx
+++ b/data.xlsx
@@ -3,20 +3,15 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="164011" filterPrivacy="1"/>
-  <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
-  </bookViews>
   <sheets>
-    <sheet sheetId="1" name="Лист1" state="visible" r:id="rId4"/>
-    <sheet sheetId="2" name="Лист2" state="visible" r:id="rId5"/>
-    <sheet sheetId="3" name="Лист3" state="visible" r:id="rId6"/>
+    <sheet sheetId="1" name="Data" state="visible" r:id="rId4"/>
   </sheets>
   <calcPr calcId="171027"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="20">
   <si>
     <t>label</t>
   </si>
@@ -27,6 +22,12 @@
     <t>data</t>
   </si>
   <si>
+    <t>Об`єм (маса) каналу витрати 1</t>
+  </si>
+  <si>
+    <t>10:10:2020:0</t>
+  </si>
+  <si>
     <t/>
   </si>
   <si>
@@ -45,9 +46,6 @@
     <t>Значення температури ТСП 1 * 100</t>
   </si>
   <si>
-    <t>10:10:2020:0</t>
-  </si>
-  <si>
     <t>Значення температури ТСП 2 * 100</t>
   </si>
   <si>
@@ -69,7 +67,7 @@
     <t>Температура всередині корпусу</t>
   </si>
   <si>
-    <t>Об`єм (маса) каналу витрати 1</t>
+    <t/>
   </si>
   <si>
     <t/>
@@ -276,20 +274,16 @@
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:shade val="51000"/>
-                <a:satMod val="130000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="80000">
-              <a:schemeClr val="phClr">
-                <a:shade val="93000"/>
+                <a:tint val="100000"/>
+                <a:shade val="100000"/>
                 <a:satMod val="130000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:shade val="94000"/>
-                <a:satMod val="135000"/>
+                <a:tint val="50000"/>
+                <a:shade val="100000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
@@ -411,18 +405,54 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
-  <a:objectDefaults/>
+  <a:objectDefaults>
+    <a:spDef>
+      <a:spPr/>
+      <a:bodyPr/>
+      <a:lstStyle/>
+      <a:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="3">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </a:style>
+    </a:spDef>
+    <a:lnDef>
+      <a:spPr/>
+      <a:bodyPr/>
+      <a:lstStyle/>
+      <a:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </a:style>
+    </a:lnDef>
+  </a:objectDefaults>
   <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C81"/>
-  <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="100" zoomScaleNormal="100"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="0"/>
+  <dimension ref="A1:C61"/>
+  <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <cols>
     <col min="1" max="1" width="64" style="1" customWidth="1"/>
     <col min="2" max="2" width="32" customWidth="1"/>
@@ -445,18 +475,18 @@
         <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>3</v>
-      </c>
-      <c r="C3" t="s">
-        <v>3</v>
+        <v>4</v>
+      </c>
+      <c r="C3">
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B4" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -464,10 +494,10 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -475,10 +505,10 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C6">
         <v>0</v>
@@ -486,10 +516,10 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C7">
         <v>0</v>
@@ -497,10 +527,10 @@
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B9" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C9">
         <v>22.72</v>
@@ -508,10 +538,10 @@
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B10" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C10">
         <v>22.1</v>
@@ -519,10 +549,10 @@
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B11" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C11">
         <v>21.85</v>
@@ -530,10 +560,10 @@
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B12" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C12">
         <v>21.68</v>
@@ -541,10 +571,10 @@
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B13" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C13">
         <v>21.73</v>
@@ -552,10 +582,10 @@
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B15" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C15">
         <v>22.73</v>
@@ -563,10 +593,10 @@
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B16" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C16">
         <v>22.13</v>
@@ -574,10 +604,10 @@
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B17" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C17">
         <v>21.84</v>
@@ -585,10 +615,10 @@
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B18" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C18">
         <v>21.73</v>
@@ -596,10 +626,10 @@
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B19" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C19">
         <v>21.77</v>
@@ -607,10 +637,10 @@
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B21" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C21">
         <v>0</v>
@@ -618,10 +648,10 @@
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B22" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C22">
         <v>0</v>
@@ -629,10 +659,10 @@
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B23" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C23">
         <v>0</v>
@@ -640,10 +670,10 @@
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B24" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C24">
         <v>0</v>
@@ -651,10 +681,10 @@
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B25" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C25">
         <v>0</v>
@@ -662,10 +692,10 @@
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B27" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C27">
         <v>9.13861111111111</v>
@@ -673,10 +703,10 @@
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B28" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C28">
         <v>9.13861111111111</v>
@@ -684,10 +714,10 @@
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B29" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C29">
         <v>9.13861111111111</v>
@@ -695,10 +725,10 @@
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B30" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C30">
         <v>9.13861111111111</v>
@@ -706,10 +736,10 @@
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B31" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C31">
         <v>9.13861111111111</v>
@@ -717,10 +747,10 @@
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B33" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C33">
         <v>9.13861111111111</v>
@@ -728,10 +758,10 @@
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B34" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C34">
         <v>9.13861111111111</v>
@@ -739,10 +769,10 @@
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B35" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C35">
         <v>9.13861111111111</v>
@@ -750,10 +780,10 @@
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B36" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C36">
         <v>9.13861111111111</v>
@@ -761,10 +791,10 @@
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B37" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C37">
         <v>9.0675</v>
@@ -772,10 +802,10 @@
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B39" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C39">
         <v>0.5</v>
@@ -783,10 +813,10 @@
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B40" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C40">
         <v>0.5</v>
@@ -794,10 +824,10 @@
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B41" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C41">
         <v>0.5</v>
@@ -805,10 +835,10 @@
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B42" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C42">
         <v>0.5</v>
@@ -816,10 +846,10 @@
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B43" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C43">
         <v>0.5</v>
@@ -827,10 +857,10 @@
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B45" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C45">
         <v>0.4</v>
@@ -838,10 +868,10 @@
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B46" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C46">
         <v>0.4</v>
@@ -849,10 +879,10 @@
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B47" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C47">
         <v>0.4</v>
@@ -860,10 +890,10 @@
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B48" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C48">
         <v>0.4</v>
@@ -871,10 +901,10 @@
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B49" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C49">
         <v>0.4</v>
@@ -882,10 +912,10 @@
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B51" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C51">
         <v>8833</v>
@@ -893,10 +923,10 @@
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B52" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C52">
         <v>8833</v>
@@ -904,10 +934,10 @@
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B53" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C53">
         <v>8833</v>
@@ -915,10 +945,10 @@
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A54" s="1" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B54" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C54">
         <v>8577</v>
@@ -926,10 +956,10 @@
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A55" s="1" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B55" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C55">
         <v>1921</v>
@@ -937,194 +967,61 @@
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A57" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B57" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C57" t="s">
-        <v>3</v>
+        <v>18</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A58" s="1" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B58" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C58" t="s">
-        <v>3</v>
+        <v>19</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A59" s="1" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B59" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C59" t="s">
-        <v>3</v>
+        <v>19</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A60" s="1" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B60" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C60" t="s">
-        <v>3</v>
+        <v>19</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A61" s="1" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B61" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C61" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A63" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B63" t="s">
-        <v>9</v>
-      </c>
-      <c r="C63">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A65" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B65" t="s">
-        <v>9</v>
-      </c>
-      <c r="C65">
-        <v>22.72</v>
-      </c>
-    </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A67" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B67" t="s">
-        <v>9</v>
-      </c>
-      <c r="C67">
-        <v>22.73</v>
-      </c>
-    </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A69" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B69" t="s">
-        <v>9</v>
-      </c>
-      <c r="C69">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A71" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B71" t="s">
-        <v>9</v>
-      </c>
-      <c r="C71">
-        <v>9.13861111111111</v>
-      </c>
-    </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A73" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B73" t="s">
-        <v>9</v>
-      </c>
-      <c r="C73">
-        <v>9.13861111111111</v>
-      </c>
-    </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A75" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B75" t="s">
-        <v>9</v>
-      </c>
-      <c r="C75">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A77" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B77" t="s">
-        <v>9</v>
-      </c>
-      <c r="C77">
-        <v>0.4</v>
-      </c>
-    </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A79" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B79" t="s">
-        <v>9</v>
-      </c>
-      <c r="C79">
-        <v>8833</v>
-      </c>
-    </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A81" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B81" t="s">
-        <v>9</v>
-      </c>
-      <c r="C81" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="100" zoomScaleNormal="100"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="0"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0" zoomScale="100" zoomScaleNormal="100"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="0"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1"/>
 </worksheet>
 </file>
--- a/data.xlsx
+++ b/data.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="507" uniqueCount="40">
   <si>
     <t>label</t>
   </si>
@@ -25,22 +25,79 @@
     <t>Об`єм (маса) каналу витрати 1</t>
   </si>
   <si>
-    <t>10:10:2020:0</t>
+    <t>12:10:2020:1</t>
   </si>
   <si>
     <t/>
   </si>
   <si>
-    <t>11:10:2020:0</t>
-  </si>
-  <si>
-    <t>12:10:2020:0</t>
-  </si>
-  <si>
-    <t>13:10:2020:0</t>
-  </si>
-  <si>
-    <t>14:10:2020:0</t>
+    <t>13:10:2020:1</t>
+  </si>
+  <si>
+    <t>14:10:2020:1</t>
+  </si>
+  <si>
+    <t>15:10:2020:1</t>
+  </si>
+  <si>
+    <t>16:10:2020:1</t>
+  </si>
+  <si>
+    <t>17:10:2020:1</t>
+  </si>
+  <si>
+    <t>18:10:2020:1</t>
+  </si>
+  <si>
+    <t>19:10:2020:1</t>
+  </si>
+  <si>
+    <t>20:10:2020:1</t>
+  </si>
+  <si>
+    <t>21:10:2020:1</t>
+  </si>
+  <si>
+    <t>22:10:2020:1</t>
+  </si>
+  <si>
+    <t>23:10:2020:1</t>
+  </si>
+  <si>
+    <t>24:10:2020:1</t>
+  </si>
+  <si>
+    <t>25:10:2020:1</t>
+  </si>
+  <si>
+    <t>26:10:2020:1</t>
+  </si>
+  <si>
+    <t>27:10:2020:1</t>
+  </si>
+  <si>
+    <t>28:10:2020:1</t>
+  </si>
+  <si>
+    <t>29:10:2020:1</t>
+  </si>
+  <si>
+    <t>30:10:2020:1</t>
+  </si>
+  <si>
+    <t>1:11:2020:1</t>
+  </si>
+  <si>
+    <t>2:11:2020:1</t>
+  </si>
+  <si>
+    <t>3:11:2020:1</t>
+  </si>
+  <si>
+    <t>4:11:2020:1</t>
+  </si>
+  <si>
+    <t>5:11:2020:1</t>
   </si>
   <si>
     <t>Значення температури ТСП 1 * 100</t>
@@ -65,6 +122,9 @@
   </si>
   <si>
     <t>Температура всередині корпусу</t>
+  </si>
+  <si>
+    <t/>
   </si>
   <si>
     <t/>
@@ -451,7 +511,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C61"/>
+  <dimension ref="A1:C251"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <cols>
     <col min="1" max="1" width="64" style="1" customWidth="1"/>
@@ -525,15 +585,26 @@
         <v>0</v>
       </c>
     </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B8" t="s">
+        <v>10</v>
+      </c>
+      <c r="C8">
+        <v>0</v>
+      </c>
+    </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="B9" t="s">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="C9">
-        <v>22.72</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
@@ -541,10 +612,10 @@
         <v>5</v>
       </c>
       <c r="B10" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="C10">
-        <v>22.1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
@@ -552,10 +623,10 @@
         <v>5</v>
       </c>
       <c r="B11" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="C11">
-        <v>21.85</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
@@ -563,10 +634,10 @@
         <v>5</v>
       </c>
       <c r="B12" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="C12">
-        <v>21.68</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
@@ -574,21 +645,32 @@
         <v>5</v>
       </c>
       <c r="B13" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="C13">
-        <v>21.73</v>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B14" t="s">
+        <v>16</v>
+      </c>
+      <c r="C14">
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="B15" t="s">
-        <v>4</v>
+        <v>17</v>
       </c>
       <c r="C15">
-        <v>22.73</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
@@ -596,10 +678,10 @@
         <v>5</v>
       </c>
       <c r="B16" t="s">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="C16">
-        <v>22.13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
@@ -607,10 +689,10 @@
         <v>5</v>
       </c>
       <c r="B17" t="s">
-        <v>7</v>
+        <v>19</v>
       </c>
       <c r="C17">
-        <v>21.84</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
@@ -618,10 +700,10 @@
         <v>5</v>
       </c>
       <c r="B18" t="s">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="C18">
-        <v>21.73</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
@@ -629,18 +711,29 @@
         <v>5</v>
       </c>
       <c r="B19" t="s">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="C19">
-        <v>21.77</v>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B20" t="s">
+        <v>22</v>
+      </c>
+      <c r="C20">
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="B21" t="s">
-        <v>4</v>
+        <v>23</v>
       </c>
       <c r="C21">
         <v>0</v>
@@ -651,7 +744,7 @@
         <v>5</v>
       </c>
       <c r="B22" t="s">
-        <v>6</v>
+        <v>24</v>
       </c>
       <c r="C22">
         <v>0</v>
@@ -662,7 +755,7 @@
         <v>5</v>
       </c>
       <c r="B23" t="s">
-        <v>7</v>
+        <v>25</v>
       </c>
       <c r="C23">
         <v>0</v>
@@ -673,7 +766,7 @@
         <v>5</v>
       </c>
       <c r="B24" t="s">
-        <v>8</v>
+        <v>26</v>
       </c>
       <c r="C24">
         <v>0</v>
@@ -684,32 +777,32 @@
         <v>5</v>
       </c>
       <c r="B25" t="s">
-        <v>9</v>
+        <v>27</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A27" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B27" t="s">
-        <v>4</v>
-      </c>
-      <c r="C27">
-        <v>9.13861111111111</v>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A26" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B26" t="s">
+        <v>28</v>
+      </c>
+      <c r="C26">
+        <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
-        <v>5</v>
+        <v>29</v>
       </c>
       <c r="B28" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C28">
-        <v>9.13861111111111</v>
+        <v>21.85</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
@@ -717,10 +810,10 @@
         <v>5</v>
       </c>
       <c r="B29" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C29">
-        <v>9.13861111111111</v>
+        <v>21.68</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
@@ -728,10 +821,10 @@
         <v>5</v>
       </c>
       <c r="B30" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C30">
-        <v>9.13861111111111</v>
+        <v>21.73</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
@@ -739,21 +832,32 @@
         <v>5</v>
       </c>
       <c r="B31" t="s">
+        <v>8</v>
+      </c>
+      <c r="C31">
+        <v>21.74</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A32" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B32" t="s">
         <v>9</v>
       </c>
-      <c r="C31">
-        <v>9.13861111111111</v>
+      <c r="C32">
+        <v>21.4</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="B33" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="C33">
-        <v>9.13861111111111</v>
+        <v>20.85</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
@@ -761,10 +865,10 @@
         <v>5</v>
       </c>
       <c r="B34" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="C34">
-        <v>9.13861111111111</v>
+        <v>20.84</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
@@ -772,10 +876,10 @@
         <v>5</v>
       </c>
       <c r="B35" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="C35">
-        <v>9.13861111111111</v>
+        <v>20.81</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
@@ -783,10 +887,10 @@
         <v>5</v>
       </c>
       <c r="B36" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="C36">
-        <v>9.13861111111111</v>
+        <v>20.74</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
@@ -794,21 +898,32 @@
         <v>5</v>
       </c>
       <c r="B37" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="C37">
-        <v>9.0675</v>
+        <v>20.79</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A38" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B38" t="s">
+        <v>15</v>
+      </c>
+      <c r="C38">
+        <v>20.67</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="B39" t="s">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="C39">
-        <v>0.5</v>
+        <v>20.81</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
@@ -816,10 +931,10 @@
         <v>5</v>
       </c>
       <c r="B40" t="s">
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="C40">
-        <v>0.5</v>
+        <v>21.03</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
@@ -827,10 +942,10 @@
         <v>5</v>
       </c>
       <c r="B41" t="s">
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="C41">
-        <v>0.5</v>
+        <v>21.35</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">
@@ -838,10 +953,10 @@
         <v>5</v>
       </c>
       <c r="B42" t="s">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="C42">
-        <v>0.5</v>
+        <v>21.66</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.25">
@@ -849,21 +964,32 @@
         <v>5</v>
       </c>
       <c r="B43" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="C43">
-        <v>0.5</v>
+        <v>21.63</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A44" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B44" t="s">
+        <v>21</v>
+      </c>
+      <c r="C44">
+        <v>21.57</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="B45" t="s">
-        <v>4</v>
+        <v>22</v>
       </c>
       <c r="C45">
-        <v>0.4</v>
+        <v>21.27</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.25">
@@ -871,10 +997,10 @@
         <v>5</v>
       </c>
       <c r="B46" t="s">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="C46">
-        <v>0.4</v>
+        <v>21.13</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.25">
@@ -882,10 +1008,10 @@
         <v>5</v>
       </c>
       <c r="B47" t="s">
-        <v>7</v>
+        <v>24</v>
       </c>
       <c r="C47">
-        <v>0.4</v>
+        <v>20.99</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.25">
@@ -893,10 +1019,10 @@
         <v>5</v>
       </c>
       <c r="B48" t="s">
-        <v>8</v>
+        <v>25</v>
       </c>
       <c r="C48">
-        <v>0.4</v>
+        <v>20.92</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.25">
@@ -904,43 +1030,43 @@
         <v>5</v>
       </c>
       <c r="B49" t="s">
-        <v>9</v>
+        <v>26</v>
       </c>
       <c r="C49">
-        <v>0.4</v>
+        <v>20.77</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A50" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B50" t="s">
+        <v>27</v>
+      </c>
+      <c r="C50">
+        <v>20.26</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
-        <v>16</v>
+        <v>5</v>
       </c>
       <c r="B51" t="s">
-        <v>4</v>
+        <v>28</v>
       </c>
       <c r="C51">
-        <v>8833</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A52" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B52" t="s">
-        <v>6</v>
-      </c>
-      <c r="C52">
-        <v>8833</v>
+        <v>19.79</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
-        <v>5</v>
+        <v>30</v>
       </c>
       <c r="B53" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C53">
-        <v>8833</v>
+        <v>21.84</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.25">
@@ -948,10 +1074,10 @@
         <v>5</v>
       </c>
       <c r="B54" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C54">
-        <v>8577</v>
+        <v>21.73</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.25">
@@ -959,21 +1085,32 @@
         <v>5</v>
       </c>
       <c r="B55" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C55">
-        <v>1921</v>
+        <v>21.77</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A56" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B56" t="s">
+        <v>8</v>
+      </c>
+      <c r="C56">
+        <v>21.78</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A57" s="1" t="s">
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="B57" t="s">
-        <v>4</v>
-      </c>
-      <c r="C57" t="s">
-        <v>18</v>
+        <v>9</v>
+      </c>
+      <c r="C57">
+        <v>21.42</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.25">
@@ -981,10 +1118,10 @@
         <v>5</v>
       </c>
       <c r="B58" t="s">
-        <v>6</v>
-      </c>
-      <c r="C58" t="s">
-        <v>19</v>
+        <v>10</v>
+      </c>
+      <c r="C58">
+        <v>20.88</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.25">
@@ -992,10 +1129,10 @@
         <v>5</v>
       </c>
       <c r="B59" t="s">
-        <v>7</v>
-      </c>
-      <c r="C59" t="s">
-        <v>19</v>
+        <v>11</v>
+      </c>
+      <c r="C59">
+        <v>20.87</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.25">
@@ -1003,10 +1140,10 @@
         <v>5</v>
       </c>
       <c r="B60" t="s">
-        <v>8</v>
-      </c>
-      <c r="C60" t="s">
-        <v>19</v>
+        <v>12</v>
+      </c>
+      <c r="C60">
+        <v>20.81</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.25">
@@ -1014,10 +1151,2023 @@
         <v>5</v>
       </c>
       <c r="B61" t="s">
+        <v>13</v>
+      </c>
+      <c r="C61">
+        <v>20.77</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A62" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B62" t="s">
+        <v>14</v>
+      </c>
+      <c r="C62">
+        <v>20.82</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A63" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B63" t="s">
+        <v>15</v>
+      </c>
+      <c r="C63">
+        <v>20.68</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A64" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B64" t="s">
+        <v>16</v>
+      </c>
+      <c r="C64">
+        <v>20.83</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A65" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B65" t="s">
+        <v>17</v>
+      </c>
+      <c r="C65">
+        <v>21.05</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A66" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B66" t="s">
+        <v>18</v>
+      </c>
+      <c r="C66">
+        <v>21.39</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A67" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B67" t="s">
+        <v>19</v>
+      </c>
+      <c r="C67">
+        <v>21.68</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A68" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B68" t="s">
+        <v>20</v>
+      </c>
+      <c r="C68">
+        <v>21.66</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A69" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B69" t="s">
+        <v>21</v>
+      </c>
+      <c r="C69">
+        <v>21.6</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A70" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B70" t="s">
+        <v>22</v>
+      </c>
+      <c r="C70">
+        <v>21.3</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A71" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B71" t="s">
+        <v>23</v>
+      </c>
+      <c r="C71">
+        <v>21.15</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A72" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B72" t="s">
+        <v>24</v>
+      </c>
+      <c r="C72">
+        <v>21.01</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A73" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B73" t="s">
+        <v>25</v>
+      </c>
+      <c r="C73">
+        <v>20.95</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A74" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B74" t="s">
+        <v>26</v>
+      </c>
+      <c r="C74">
+        <v>20.79</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A75" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B75" t="s">
+        <v>27</v>
+      </c>
+      <c r="C75">
+        <v>20.27</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A76" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B76" t="s">
+        <v>28</v>
+      </c>
+      <c r="C76">
+        <v>19.82</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A78" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B78" t="s">
+        <v>4</v>
+      </c>
+      <c r="C78">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A79" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B79" t="s">
+        <v>6</v>
+      </c>
+      <c r="C79">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A80" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B80" t="s">
+        <v>7</v>
+      </c>
+      <c r="C80">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A81" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B81" t="s">
+        <v>8</v>
+      </c>
+      <c r="C81">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A82" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B82" t="s">
         <v>9</v>
       </c>
-      <c r="C61" t="s">
+      <c r="C82">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A83" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B83" t="s">
+        <v>10</v>
+      </c>
+      <c r="C83">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A84" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B84" t="s">
+        <v>11</v>
+      </c>
+      <c r="C84">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A85" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B85" t="s">
+        <v>12</v>
+      </c>
+      <c r="C85">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A86" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B86" t="s">
+        <v>13</v>
+      </c>
+      <c r="C86">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A87" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B87" t="s">
+        <v>14</v>
+      </c>
+      <c r="C87">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A88" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B88" t="s">
+        <v>15</v>
+      </c>
+      <c r="C88">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A89" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B89" t="s">
+        <v>16</v>
+      </c>
+      <c r="C89">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A90" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B90" t="s">
+        <v>17</v>
+      </c>
+      <c r="C90">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A91" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B91" t="s">
+        <v>18</v>
+      </c>
+      <c r="C91">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A92" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B92" t="s">
         <v>19</v>
+      </c>
+      <c r="C92">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A93" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B93" t="s">
+        <v>20</v>
+      </c>
+      <c r="C93">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A94" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B94" t="s">
+        <v>21</v>
+      </c>
+      <c r="C94">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A95" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B95" t="s">
+        <v>22</v>
+      </c>
+      <c r="C95">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A96" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B96" t="s">
+        <v>23</v>
+      </c>
+      <c r="C96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A97" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B97" t="s">
+        <v>24</v>
+      </c>
+      <c r="C97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A98" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B98" t="s">
+        <v>25</v>
+      </c>
+      <c r="C98">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A99" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B99" t="s">
+        <v>26</v>
+      </c>
+      <c r="C99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A100" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B100" t="s">
+        <v>27</v>
+      </c>
+      <c r="C100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A101" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B101" t="s">
+        <v>28</v>
+      </c>
+      <c r="C101">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A103" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B103" t="s">
+        <v>4</v>
+      </c>
+      <c r="C103">
+        <v>9.13861111111111</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A104" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B104" t="s">
+        <v>6</v>
+      </c>
+      <c r="C104">
+        <v>9.13861111111111</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A105" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B105" t="s">
+        <v>7</v>
+      </c>
+      <c r="C105">
+        <v>9.13861111111111</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A106" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B106" t="s">
+        <v>8</v>
+      </c>
+      <c r="C106">
+        <v>9.13861111111111</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A107" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B107" t="s">
+        <v>9</v>
+      </c>
+      <c r="C107">
+        <v>9.13861111111111</v>
+      </c>
+    </row>
+    <row r="108" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A108" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B108" t="s">
+        <v>10</v>
+      </c>
+      <c r="C108">
+        <v>9.13861111111111</v>
+      </c>
+    </row>
+    <row r="109" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A109" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B109" t="s">
+        <v>11</v>
+      </c>
+      <c r="C109">
+        <v>9.13861111111111</v>
+      </c>
+    </row>
+    <row r="110" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A110" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B110" t="s">
+        <v>12</v>
+      </c>
+      <c r="C110">
+        <v>9.13861111111111</v>
+      </c>
+    </row>
+    <row r="111" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A111" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B111" t="s">
+        <v>13</v>
+      </c>
+      <c r="C111">
+        <v>9.13861111111111</v>
+      </c>
+    </row>
+    <row r="112" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A112" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B112" t="s">
+        <v>14</v>
+      </c>
+      <c r="C112">
+        <v>9.13861111111111</v>
+      </c>
+    </row>
+    <row r="113" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A113" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B113" t="s">
+        <v>15</v>
+      </c>
+      <c r="C113">
+        <v>9.13861111111111</v>
+      </c>
+    </row>
+    <row r="114" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A114" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B114" t="s">
+        <v>16</v>
+      </c>
+      <c r="C114">
+        <v>9.13861111111111</v>
+      </c>
+    </row>
+    <row r="115" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A115" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B115" t="s">
+        <v>17</v>
+      </c>
+      <c r="C115">
+        <v>9.13861111111111</v>
+      </c>
+    </row>
+    <row r="116" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A116" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B116" t="s">
+        <v>18</v>
+      </c>
+      <c r="C116">
+        <v>9.13861111111111</v>
+      </c>
+    </row>
+    <row r="117" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A117" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B117" t="s">
+        <v>19</v>
+      </c>
+      <c r="C117">
+        <v>9.13861111111111</v>
+      </c>
+    </row>
+    <row r="118" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A118" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B118" t="s">
+        <v>20</v>
+      </c>
+      <c r="C118">
+        <v>9.13861111111111</v>
+      </c>
+    </row>
+    <row r="119" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A119" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B119" t="s">
+        <v>21</v>
+      </c>
+      <c r="C119">
+        <v>9.13861111111111</v>
+      </c>
+    </row>
+    <row r="120" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A120" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B120" t="s">
+        <v>22</v>
+      </c>
+      <c r="C120">
+        <v>9.13861111111111</v>
+      </c>
+    </row>
+    <row r="121" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A121" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B121" t="s">
+        <v>23</v>
+      </c>
+      <c r="C121">
+        <v>9.13861111111111</v>
+      </c>
+    </row>
+    <row r="122" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A122" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B122" t="s">
+        <v>24</v>
+      </c>
+      <c r="C122">
+        <v>9.13861111111111</v>
+      </c>
+    </row>
+    <row r="123" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A123" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B123" t="s">
+        <v>25</v>
+      </c>
+      <c r="C123">
+        <v>9.13861111111111</v>
+      </c>
+    </row>
+    <row r="124" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A124" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B124" t="s">
+        <v>26</v>
+      </c>
+      <c r="C124">
+        <v>9.13861111111111</v>
+      </c>
+    </row>
+    <row r="125" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A125" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B125" t="s">
+        <v>27</v>
+      </c>
+      <c r="C125">
+        <v>9.13861111111111</v>
+      </c>
+    </row>
+    <row r="126" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A126" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B126" t="s">
+        <v>28</v>
+      </c>
+      <c r="C126">
+        <v>9.13861111111111</v>
+      </c>
+    </row>
+    <row r="128" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A128" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B128" t="s">
+        <v>4</v>
+      </c>
+      <c r="C128">
+        <v>9.13861111111111</v>
+      </c>
+    </row>
+    <row r="129" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A129" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B129" t="s">
+        <v>6</v>
+      </c>
+      <c r="C129">
+        <v>9.13861111111111</v>
+      </c>
+    </row>
+    <row r="130" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A130" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B130" t="s">
+        <v>7</v>
+      </c>
+      <c r="C130">
+        <v>9.0675</v>
+      </c>
+    </row>
+    <row r="131" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A131" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B131" t="s">
+        <v>8</v>
+      </c>
+      <c r="C131">
+        <v>9.13861111111111</v>
+      </c>
+    </row>
+    <row r="132" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A132" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B132" t="s">
+        <v>9</v>
+      </c>
+      <c r="C132">
+        <v>9.13861111111111</v>
+      </c>
+    </row>
+    <row r="133" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A133" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B133" t="s">
+        <v>10</v>
+      </c>
+      <c r="C133">
+        <v>9.13861111111111</v>
+      </c>
+    </row>
+    <row r="134" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A134" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B134" t="s">
+        <v>11</v>
+      </c>
+      <c r="C134">
+        <v>9.13861111111111</v>
+      </c>
+    </row>
+    <row r="135" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A135" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B135" t="s">
+        <v>12</v>
+      </c>
+      <c r="C135">
+        <v>9.13861111111111</v>
+      </c>
+    </row>
+    <row r="136" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A136" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B136" t="s">
+        <v>13</v>
+      </c>
+      <c r="C136">
+        <v>9.13861111111111</v>
+      </c>
+    </row>
+    <row r="137" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A137" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B137" t="s">
+        <v>14</v>
+      </c>
+      <c r="C137">
+        <v>9.13861111111111</v>
+      </c>
+    </row>
+    <row r="138" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A138" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B138" t="s">
+        <v>15</v>
+      </c>
+      <c r="C138">
+        <v>9.13861111111111</v>
+      </c>
+    </row>
+    <row r="139" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A139" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B139" t="s">
+        <v>16</v>
+      </c>
+      <c r="C139">
+        <v>9.13861111111111</v>
+      </c>
+    </row>
+    <row r="140" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A140" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B140" t="s">
+        <v>17</v>
+      </c>
+      <c r="C140">
+        <v>9.13861111111111</v>
+      </c>
+    </row>
+    <row r="141" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A141" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B141" t="s">
+        <v>18</v>
+      </c>
+      <c r="C141">
+        <v>9.13861111111111</v>
+      </c>
+    </row>
+    <row r="142" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A142" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B142" t="s">
+        <v>19</v>
+      </c>
+      <c r="C142">
+        <v>9.13861111111111</v>
+      </c>
+    </row>
+    <row r="143" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A143" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B143" t="s">
+        <v>20</v>
+      </c>
+      <c r="C143">
+        <v>9.13861111111111</v>
+      </c>
+    </row>
+    <row r="144" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A144" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B144" t="s">
+        <v>21</v>
+      </c>
+      <c r="C144">
+        <v>9.13861111111111</v>
+      </c>
+    </row>
+    <row r="145" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A145" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B145" t="s">
+        <v>22</v>
+      </c>
+      <c r="C145">
+        <v>9.13861111111111</v>
+      </c>
+    </row>
+    <row r="146" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A146" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B146" t="s">
+        <v>23</v>
+      </c>
+      <c r="C146">
+        <v>9.13861111111111</v>
+      </c>
+    </row>
+    <row r="147" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A147" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B147" t="s">
+        <v>24</v>
+      </c>
+      <c r="C147">
+        <v>9.13861111111111</v>
+      </c>
+    </row>
+    <row r="148" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A148" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B148" t="s">
+        <v>25</v>
+      </c>
+      <c r="C148">
+        <v>9.13861111111111</v>
+      </c>
+    </row>
+    <row r="149" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A149" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B149" t="s">
+        <v>26</v>
+      </c>
+      <c r="C149">
+        <v>9.0675</v>
+      </c>
+    </row>
+    <row r="150" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A150" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B150" t="s">
+        <v>27</v>
+      </c>
+      <c r="C150">
+        <v>9.13861111111111</v>
+      </c>
+    </row>
+    <row r="151" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A151" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B151" t="s">
+        <v>28</v>
+      </c>
+      <c r="C151">
+        <v>9.13861111111111</v>
+      </c>
+    </row>
+    <row r="153" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A153" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B153" t="s">
+        <v>4</v>
+      </c>
+      <c r="C153">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="154" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A154" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B154" t="s">
+        <v>6</v>
+      </c>
+      <c r="C154">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="155" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A155" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B155" t="s">
+        <v>7</v>
+      </c>
+      <c r="C155">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="156" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A156" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B156" t="s">
+        <v>8</v>
+      </c>
+      <c r="C156">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="157" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A157" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B157" t="s">
+        <v>9</v>
+      </c>
+      <c r="C157">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="158" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A158" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B158" t="s">
+        <v>10</v>
+      </c>
+      <c r="C158">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="159" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A159" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B159" t="s">
+        <v>11</v>
+      </c>
+      <c r="C159">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="160" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A160" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B160" t="s">
+        <v>12</v>
+      </c>
+      <c r="C160">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="161" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A161" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B161" t="s">
+        <v>13</v>
+      </c>
+      <c r="C161">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="162" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A162" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B162" t="s">
+        <v>14</v>
+      </c>
+      <c r="C162">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="163" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A163" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B163" t="s">
+        <v>15</v>
+      </c>
+      <c r="C163">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="164" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A164" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B164" t="s">
+        <v>16</v>
+      </c>
+      <c r="C164">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="165" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A165" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B165" t="s">
+        <v>17</v>
+      </c>
+      <c r="C165">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="166" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A166" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B166" t="s">
+        <v>18</v>
+      </c>
+      <c r="C166">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="167" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A167" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B167" t="s">
+        <v>19</v>
+      </c>
+      <c r="C167">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="168" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A168" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B168" t="s">
+        <v>20</v>
+      </c>
+      <c r="C168">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="169" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A169" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B169" t="s">
+        <v>21</v>
+      </c>
+      <c r="C169">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="170" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A170" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B170" t="s">
+        <v>22</v>
+      </c>
+      <c r="C170">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="171" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A171" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B171" t="s">
+        <v>23</v>
+      </c>
+      <c r="C171">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="172" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A172" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B172" t="s">
+        <v>24</v>
+      </c>
+      <c r="C172">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="173" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A173" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B173" t="s">
+        <v>25</v>
+      </c>
+      <c r="C173">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="174" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A174" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B174" t="s">
+        <v>26</v>
+      </c>
+      <c r="C174">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="175" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A175" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B175" t="s">
+        <v>27</v>
+      </c>
+      <c r="C175">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="176" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A176" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B176" t="s">
+        <v>28</v>
+      </c>
+      <c r="C176">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="178" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A178" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B178" t="s">
+        <v>4</v>
+      </c>
+      <c r="C178">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="179" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A179" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B179" t="s">
+        <v>6</v>
+      </c>
+      <c r="C179">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="180" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A180" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B180" t="s">
+        <v>7</v>
+      </c>
+      <c r="C180">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="181" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A181" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B181" t="s">
+        <v>8</v>
+      </c>
+      <c r="C181">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="182" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A182" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B182" t="s">
+        <v>9</v>
+      </c>
+      <c r="C182">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="183" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A183" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B183" t="s">
+        <v>10</v>
+      </c>
+      <c r="C183">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="184" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A184" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B184" t="s">
+        <v>11</v>
+      </c>
+      <c r="C184">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="185" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A185" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B185" t="s">
+        <v>12</v>
+      </c>
+      <c r="C185">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="186" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A186" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B186" t="s">
+        <v>13</v>
+      </c>
+      <c r="C186">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="187" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A187" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B187" t="s">
+        <v>14</v>
+      </c>
+      <c r="C187">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="188" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A188" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B188" t="s">
+        <v>15</v>
+      </c>
+      <c r="C188">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="189" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A189" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B189" t="s">
+        <v>16</v>
+      </c>
+      <c r="C189">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="190" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A190" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B190" t="s">
+        <v>17</v>
+      </c>
+      <c r="C190">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="191" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A191" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B191" t="s">
+        <v>18</v>
+      </c>
+      <c r="C191">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="192" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A192" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B192" t="s">
+        <v>19</v>
+      </c>
+      <c r="C192">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="193" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A193" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B193" t="s">
+        <v>20</v>
+      </c>
+      <c r="C193">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="194" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A194" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B194" t="s">
+        <v>21</v>
+      </c>
+      <c r="C194">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="195" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A195" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B195" t="s">
+        <v>22</v>
+      </c>
+      <c r="C195">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="196" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A196" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B196" t="s">
+        <v>23</v>
+      </c>
+      <c r="C196">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="197" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A197" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B197" t="s">
+        <v>24</v>
+      </c>
+      <c r="C197">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="198" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A198" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B198" t="s">
+        <v>25</v>
+      </c>
+      <c r="C198">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="199" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A199" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B199" t="s">
+        <v>26</v>
+      </c>
+      <c r="C199">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="200" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A200" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B200" t="s">
+        <v>27</v>
+      </c>
+      <c r="C200">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="201" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A201" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B201" t="s">
+        <v>28</v>
+      </c>
+      <c r="C201">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="203" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A203" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B203" t="s">
+        <v>4</v>
+      </c>
+      <c r="C203">
+        <v>8833</v>
+      </c>
+    </row>
+    <row r="204" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A204" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B204" t="s">
+        <v>6</v>
+      </c>
+      <c r="C204">
+        <v>8577</v>
+      </c>
+    </row>
+    <row r="205" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A205" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B205" t="s">
+        <v>7</v>
+      </c>
+      <c r="C205">
+        <v>1921</v>
+      </c>
+    </row>
+    <row r="206" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A206" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B206" t="s">
+        <v>8</v>
+      </c>
+      <c r="C206">
+        <v>897</v>
+      </c>
+    </row>
+    <row r="207" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A207" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B207" t="s">
+        <v>9</v>
+      </c>
+      <c r="C207">
+        <v>8577</v>
+      </c>
+    </row>
+    <row r="208" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A208" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B208" t="s">
+        <v>10</v>
+      </c>
+      <c r="C208">
+        <v>8321</v>
+      </c>
+    </row>
+    <row r="209" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A209" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B209" t="s">
+        <v>11</v>
+      </c>
+      <c r="C209">
+        <v>8321</v>
+      </c>
+    </row>
+    <row r="210" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A210" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B210" t="s">
+        <v>12</v>
+      </c>
+      <c r="C210">
+        <v>8577</v>
+      </c>
+    </row>
+    <row r="211" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A211" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B211" t="s">
+        <v>13</v>
+      </c>
+      <c r="C211">
+        <v>8321</v>
+      </c>
+    </row>
+    <row r="212" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A212" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B212" t="s">
+        <v>14</v>
+      </c>
+      <c r="C212">
+        <v>37504</v>
+      </c>
+    </row>
+    <row r="213" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A213" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B213" t="s">
+        <v>15</v>
+      </c>
+      <c r="C213">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="214" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A214" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B214" t="s">
+        <v>16</v>
+      </c>
+      <c r="C214">
+        <v>57472</v>
+      </c>
+    </row>
+    <row r="215" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A215" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B215" t="s">
+        <v>17</v>
+      </c>
+      <c r="C215">
+        <v>23168</v>
+      </c>
+    </row>
+    <row r="216" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A216" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B216" t="s">
+        <v>18</v>
+      </c>
+      <c r="C216">
+        <v>8577</v>
+      </c>
+    </row>
+    <row r="217" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A217" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B217" t="s">
+        <v>19</v>
+      </c>
+      <c r="C217">
+        <v>8577</v>
+      </c>
+    </row>
+    <row r="218" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A218" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B218" t="s">
+        <v>20</v>
+      </c>
+      <c r="C218">
+        <v>8577</v>
+      </c>
+    </row>
+    <row r="219" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A219" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B219" t="s">
+        <v>21</v>
+      </c>
+      <c r="C219">
+        <v>47744</v>
+      </c>
+    </row>
+    <row r="220" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A220" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B220" t="s">
+        <v>22</v>
+      </c>
+      <c r="C220">
+        <v>62080</v>
+      </c>
+    </row>
+    <row r="221" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A221" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B221" t="s">
+        <v>23</v>
+      </c>
+      <c r="C221">
+        <v>26496</v>
+      </c>
+    </row>
+    <row r="222" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A222" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B222" t="s">
+        <v>24</v>
+      </c>
+      <c r="C222">
+        <v>20352</v>
+      </c>
+    </row>
+    <row r="223" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A223" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B223" t="s">
+        <v>25</v>
+      </c>
+      <c r="C223">
+        <v>20096</v>
+      </c>
+    </row>
+    <row r="224" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A224" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B224" t="s">
+        <v>26</v>
+      </c>
+      <c r="C224">
+        <v>23168</v>
+      </c>
+    </row>
+    <row r="225" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A225" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B225" t="s">
+        <v>27</v>
+      </c>
+      <c r="C225">
+        <v>22656</v>
+      </c>
+    </row>
+    <row r="226" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A226" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B226" t="s">
+        <v>28</v>
+      </c>
+      <c r="C226">
+        <v>10112</v>
+      </c>
+    </row>
+    <row r="228" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A228" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B228" t="s">
+        <v>4</v>
+      </c>
+      <c r="C228" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="229" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A229" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B229" t="s">
+        <v>6</v>
+      </c>
+      <c r="C229" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="230" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A230" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B230" t="s">
+        <v>7</v>
+      </c>
+      <c r="C230" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="231" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A231" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B231" t="s">
+        <v>8</v>
+      </c>
+      <c r="C231" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="232" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A232" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B232" t="s">
+        <v>9</v>
+      </c>
+      <c r="C232" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="233" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A233" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B233" t="s">
+        <v>10</v>
+      </c>
+      <c r="C233" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="234" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A234" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B234" t="s">
+        <v>11</v>
+      </c>
+      <c r="C234" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="235" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A235" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B235" t="s">
+        <v>12</v>
+      </c>
+      <c r="C235" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="236" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A236" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B236" t="s">
+        <v>13</v>
+      </c>
+      <c r="C236" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="237" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A237" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B237" t="s">
+        <v>14</v>
+      </c>
+      <c r="C237" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="238" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A238" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B238" t="s">
+        <v>15</v>
+      </c>
+      <c r="C238" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="239" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A239" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B239" t="s">
+        <v>16</v>
+      </c>
+      <c r="C239" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="240" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A240" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B240" t="s">
+        <v>17</v>
+      </c>
+      <c r="C240" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="241" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A241" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B241" t="s">
+        <v>18</v>
+      </c>
+      <c r="C241" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="242" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A242" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B242" t="s">
+        <v>19</v>
+      </c>
+      <c r="C242" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="243" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A243" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B243" t="s">
+        <v>20</v>
+      </c>
+      <c r="C243" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="244" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A244" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B244" t="s">
+        <v>21</v>
+      </c>
+      <c r="C244" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="245" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A245" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B245" t="s">
+        <v>22</v>
+      </c>
+      <c r="C245" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="246" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A246" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B246" t="s">
+        <v>23</v>
+      </c>
+      <c r="C246" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="247" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A247" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B247" t="s">
+        <v>24</v>
+      </c>
+      <c r="C247" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="248" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A248" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B248" t="s">
+        <v>25</v>
+      </c>
+      <c r="C248" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="249" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A249" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B249" t="s">
+        <v>26</v>
+      </c>
+      <c r="C249" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="250" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A250" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B250" t="s">
+        <v>27</v>
+      </c>
+      <c r="C250" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="251" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A251" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B251" t="s">
+        <v>28</v>
+      </c>
+      <c r="C251" t="s">
+        <v>39</v>
       </c>
     </row>
   </sheetData>

--- a/data.xlsx
+++ b/data.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187" uniqueCount="31">
   <si>
     <t>label</t>
   </si>
@@ -25,55 +25,85 @@
     <t>Об`єм (маса) каналу витрати 1</t>
   </si>
   <si>
-    <t>25:8:2020:1</t>
+    <t>9:9:2020:1</t>
   </si>
   <si>
     <t/>
   </si>
   <si>
-    <t>26:8:2020:1</t>
-  </si>
-  <si>
-    <t>27:8:2020:1</t>
-  </si>
-  <si>
-    <t>28:8:2020:1</t>
-  </si>
-  <si>
-    <t>29:8:2020:1</t>
-  </si>
-  <si>
-    <t>30:8:2020:1</t>
-  </si>
-  <si>
-    <t>1:9:2020:1</t>
-  </si>
-  <si>
-    <t>2:9:2020:1</t>
-  </si>
-  <si>
-    <t>3:9:2020:1</t>
-  </si>
-  <si>
-    <t>4:9:2020:1</t>
-  </si>
-  <si>
-    <t>5:9:2020:1</t>
-  </si>
-  <si>
-    <t>6:9:2020:1</t>
-  </si>
-  <si>
-    <t>7:9:2020:1</t>
-  </si>
-  <si>
-    <t>8:9:2020:1</t>
+    <t>10:9:2020:1</t>
+  </si>
+  <si>
+    <t>11:9:2020:1</t>
+  </si>
+  <si>
+    <t>12:9:2020:1</t>
+  </si>
+  <si>
+    <t>13:9:2020:1</t>
+  </si>
+  <si>
+    <t>14:9:2020:1</t>
+  </si>
+  <si>
+    <t>15:9:2020:1</t>
+  </si>
+  <si>
+    <t>16:9:2020:1</t>
+  </si>
+  <si>
+    <t>17:9:2020:1</t>
+  </si>
+  <si>
+    <t>18:9:2020:1</t>
+  </si>
+  <si>
+    <t>19:9:2020:1</t>
+  </si>
+  <si>
+    <t>20:9:2020:1</t>
+  </si>
+  <si>
+    <t>21:9:2020:1</t>
+  </si>
+  <si>
+    <t>22:9:2020:1</t>
+  </si>
+  <si>
+    <t>23:9:2020:1</t>
+  </si>
+  <si>
+    <t>24:9:2020:1</t>
+  </si>
+  <si>
+    <t>25:9:2020:1</t>
+  </si>
+  <si>
+    <t>26:9:2020:0</t>
+  </si>
+  <si>
+    <t>27:9:2020:0</t>
+  </si>
+  <si>
+    <t>28:9:2020:0</t>
+  </si>
+  <si>
+    <t>29:9:2020:0</t>
+  </si>
+  <si>
+    <t>30:9:2020:0</t>
+  </si>
+  <si>
+    <t>31:9:2020:0</t>
   </si>
   <si>
     <t>Значення температури ТСП 2 * 100</t>
   </si>
   <si>
     <t>Час роботи лічильника, год</t>
+  </si>
+  <si>
+    <t>Введені користувачем константи тиску * 1000</t>
   </si>
 </sst>
 </file>
@@ -454,7 +484,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C46"/>
+  <dimension ref="A1:C97"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <cols>
     <col min="1" max="1" width="64" style="1" customWidth="1"/>
@@ -627,15 +657,26 @@
         <v>0</v>
       </c>
     </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B17" t="s">
+        <v>19</v>
+      </c>
+      <c r="C17">
+        <v>0</v>
+      </c>
+    </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
-        <v>19</v>
+        <v>5</v>
       </c>
       <c r="B18" t="s">
-        <v>4</v>
+        <v>20</v>
       </c>
       <c r="C18">
-        <v>23.18</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
@@ -643,10 +684,10 @@
         <v>5</v>
       </c>
       <c r="B19" t="s">
-        <v>6</v>
+        <v>21</v>
       </c>
       <c r="C19">
-        <v>23.47</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
@@ -654,10 +695,10 @@
         <v>5</v>
       </c>
       <c r="B20" t="s">
-        <v>7</v>
+        <v>22</v>
       </c>
       <c r="C20">
-        <v>23.48</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
@@ -665,10 +706,10 @@
         <v>5</v>
       </c>
       <c r="B21" t="s">
-        <v>8</v>
+        <v>23</v>
       </c>
       <c r="C21">
-        <v>23.32</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
@@ -676,10 +717,10 @@
         <v>5</v>
       </c>
       <c r="B22" t="s">
-        <v>9</v>
+        <v>24</v>
       </c>
       <c r="C22">
-        <v>23.43</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
@@ -687,10 +728,10 @@
         <v>5</v>
       </c>
       <c r="B23" t="s">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="C23">
-        <v>23.47</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
@@ -698,10 +739,10 @@
         <v>5</v>
       </c>
       <c r="B24" t="s">
-        <v>11</v>
+        <v>26</v>
       </c>
       <c r="C24">
-        <v>22.58</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
@@ -709,32 +750,21 @@
         <v>5</v>
       </c>
       <c r="B25" t="s">
-        <v>12</v>
+        <v>27</v>
       </c>
       <c r="C25">
-        <v>22.12</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A26" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B26" t="s">
-        <v>13</v>
-      </c>
-      <c r="C26">
-        <v>22.03</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
-        <v>5</v>
+        <v>28</v>
       </c>
       <c r="B27" t="s">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="C27">
-        <v>23.55</v>
+        <v>22.72</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
@@ -742,10 +772,10 @@
         <v>5</v>
       </c>
       <c r="B28" t="s">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="C28">
-        <v>22.72</v>
+        <v>21.8</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
@@ -753,10 +783,10 @@
         <v>5</v>
       </c>
       <c r="B29" t="s">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="C29">
-        <v>22.34</v>
+        <v>22.18</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
@@ -764,10 +794,10 @@
         <v>5</v>
       </c>
       <c r="B30" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="C30">
-        <v>22.74</v>
+        <v>22.8</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
@@ -775,21 +805,32 @@
         <v>5</v>
       </c>
       <c r="B31" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="C31">
-        <v>22.95</v>
+        <v>22.85</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A32" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B32" t="s">
+        <v>10</v>
+      </c>
+      <c r="C32">
+        <v>-50</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="B33" t="s">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="C33">
-        <v>9.13861111111111</v>
+        <v>-50</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
@@ -797,10 +838,10 @@
         <v>5</v>
       </c>
       <c r="B34" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="C34">
-        <v>9.13861111111111</v>
+        <v>-50</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
@@ -808,10 +849,10 @@
         <v>5</v>
       </c>
       <c r="B35" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="C35">
-        <v>9.13861111111111</v>
+        <v>-50</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
@@ -819,10 +860,10 @@
         <v>5</v>
       </c>
       <c r="B36" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="C36">
-        <v>9.13861111111111</v>
+        <v>-50</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
@@ -830,10 +871,10 @@
         <v>5</v>
       </c>
       <c r="B37" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="C37">
-        <v>9.13861111111111</v>
+        <v>-50</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
@@ -841,10 +882,10 @@
         <v>5</v>
       </c>
       <c r="B38" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="C38">
-        <v>9.13861111111111</v>
+        <v>-50</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
@@ -852,10 +893,10 @@
         <v>5</v>
       </c>
       <c r="B39" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="C39">
-        <v>9.13861111111111</v>
+        <v>-50</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
@@ -863,10 +904,10 @@
         <v>5</v>
       </c>
       <c r="B40" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="C40">
-        <v>9.13861111111111</v>
+        <v>-50</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
@@ -874,10 +915,10 @@
         <v>5</v>
       </c>
       <c r="B41" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="C41">
-        <v>9.13861111111111</v>
+        <v>-50</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">
@@ -885,10 +926,10 @@
         <v>5</v>
       </c>
       <c r="B42" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="C42">
-        <v>9.13861111111111</v>
+        <v>-50</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.25">
@@ -896,10 +937,10 @@
         <v>5</v>
       </c>
       <c r="B43" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="C43">
-        <v>9.13861111111111</v>
+        <v>-50</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.25">
@@ -907,10 +948,10 @@
         <v>5</v>
       </c>
       <c r="B44" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="C44">
-        <v>9.13861111111111</v>
+        <v>-50</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.25">
@@ -918,10 +959,10 @@
         <v>5</v>
       </c>
       <c r="B45" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="C45">
-        <v>9.13861111111111</v>
+        <v>-50</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.25">
@@ -929,10 +970,549 @@
         <v>5</v>
       </c>
       <c r="B46" t="s">
+        <v>24</v>
+      </c>
+      <c r="C46">
+        <v>-50</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A47" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B47" t="s">
+        <v>25</v>
+      </c>
+      <c r="C47">
+        <v>-50</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A48" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B48" t="s">
+        <v>26</v>
+      </c>
+      <c r="C48">
+        <v>-50</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A49" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B49" t="s">
+        <v>27</v>
+      </c>
+      <c r="C49">
+        <v>22.95</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A51" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B51" t="s">
+        <v>4</v>
+      </c>
+      <c r="C51">
+        <v>9.13861111111111</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A52" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B52" t="s">
+        <v>6</v>
+      </c>
+      <c r="C52">
+        <v>9.13861111111111</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A53" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B53" t="s">
+        <v>7</v>
+      </c>
+      <c r="C53">
+        <v>9.13861111111111</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A54" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B54" t="s">
+        <v>8</v>
+      </c>
+      <c r="C54">
+        <v>9.13861111111111</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A55" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B55" t="s">
+        <v>9</v>
+      </c>
+      <c r="C55">
+        <v>9.13861111111111</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A56" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B56" t="s">
+        <v>10</v>
+      </c>
+      <c r="C56">
+        <v>9.13861111111111</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A57" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B57" t="s">
+        <v>11</v>
+      </c>
+      <c r="C57">
+        <v>9.13861111111111</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A58" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B58" t="s">
+        <v>12</v>
+      </c>
+      <c r="C58">
+        <v>9.13861111111111</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A59" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B59" t="s">
+        <v>13</v>
+      </c>
+      <c r="C59">
+        <v>9.13861111111111</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A60" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B60" t="s">
+        <v>14</v>
+      </c>
+      <c r="C60">
+        <v>9.13861111111111</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A61" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B61" t="s">
+        <v>15</v>
+      </c>
+      <c r="C61">
+        <v>9.13861111111111</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A62" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B62" t="s">
+        <v>16</v>
+      </c>
+      <c r="C62">
+        <v>9.13861111111111</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A63" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B63" t="s">
+        <v>17</v>
+      </c>
+      <c r="C63">
+        <v>9.13861111111111</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A64" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B64" t="s">
         <v>18</v>
       </c>
-      <c r="C46">
-        <v>9.13861111111111</v>
+      <c r="C64">
+        <v>9.13861111111111</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A65" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B65" t="s">
+        <v>19</v>
+      </c>
+      <c r="C65">
+        <v>9.13861111111111</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A66" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B66" t="s">
+        <v>20</v>
+      </c>
+      <c r="C66">
+        <v>9.13861111111111</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A67" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B67" t="s">
+        <v>21</v>
+      </c>
+      <c r="C67">
+        <v>9.13861111111111</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A68" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B68" t="s">
+        <v>22</v>
+      </c>
+      <c r="C68">
+        <v>9.13861111111111</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A69" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B69" t="s">
+        <v>23</v>
+      </c>
+      <c r="C69">
+        <v>9.13861111111111</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A70" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B70" t="s">
+        <v>24</v>
+      </c>
+      <c r="C70">
+        <v>9.13861111111111</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A71" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B71" t="s">
+        <v>25</v>
+      </c>
+      <c r="C71">
+        <v>9.13861111111111</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A72" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B72" t="s">
+        <v>26</v>
+      </c>
+      <c r="C72">
+        <v>9.13861111111111</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A73" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B73" t="s">
+        <v>27</v>
+      </c>
+      <c r="C73">
+        <v>9.13861111111111</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A75" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B75" t="s">
+        <v>4</v>
+      </c>
+      <c r="C75">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A76" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B76" t="s">
+        <v>6</v>
+      </c>
+      <c r="C76">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A77" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B77" t="s">
+        <v>7</v>
+      </c>
+      <c r="C77">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A78" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B78" t="s">
+        <v>8</v>
+      </c>
+      <c r="C78">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A79" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B79" t="s">
+        <v>9</v>
+      </c>
+      <c r="C79">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A80" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B80" t="s">
+        <v>10</v>
+      </c>
+      <c r="C80">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A81" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B81" t="s">
+        <v>11</v>
+      </c>
+      <c r="C81">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A82" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B82" t="s">
+        <v>12</v>
+      </c>
+      <c r="C82">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A83" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B83" t="s">
+        <v>13</v>
+      </c>
+      <c r="C83">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A84" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B84" t="s">
+        <v>14</v>
+      </c>
+      <c r="C84">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A85" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B85" t="s">
+        <v>15</v>
+      </c>
+      <c r="C85">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A86" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B86" t="s">
+        <v>16</v>
+      </c>
+      <c r="C86">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A87" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B87" t="s">
+        <v>17</v>
+      </c>
+      <c r="C87">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A88" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B88" t="s">
+        <v>18</v>
+      </c>
+      <c r="C88">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A89" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B89" t="s">
+        <v>19</v>
+      </c>
+      <c r="C89">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A90" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B90" t="s">
+        <v>20</v>
+      </c>
+      <c r="C90">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A91" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B91" t="s">
+        <v>21</v>
+      </c>
+      <c r="C91">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A92" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B92" t="s">
+        <v>22</v>
+      </c>
+      <c r="C92">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A93" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B93" t="s">
+        <v>23</v>
+      </c>
+      <c r="C93">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A94" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B94" t="s">
+        <v>24</v>
+      </c>
+      <c r="C94">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A95" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B95" t="s">
+        <v>25</v>
+      </c>
+      <c r="C95">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A96" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B96" t="s">
+        <v>26</v>
+      </c>
+      <c r="C96">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A97" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B97" t="s">
+        <v>27</v>
+      </c>
+      <c r="C97">
+        <v>0.4</v>
       </c>
     </row>
   </sheetData>

--- a/data.xlsx
+++ b/data.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="21">
   <si>
     <t>label</t>
   </si>
@@ -25,15 +25,12 @@
     <t>Об`єм (маса) каналу витрати 1</t>
   </si>
   <si>
-    <t>9:9:2020:1</t>
+    <t>10:9:2020:1</t>
   </si>
   <si>
     <t/>
   </si>
   <si>
-    <t>10:9:2020:1</t>
-  </si>
-  <si>
     <t>11:9:2020:1</t>
   </si>
   <si>
@@ -58,45 +55,6 @@
     <t>18:9:2020:1</t>
   </si>
   <si>
-    <t>19:9:2020:1</t>
-  </si>
-  <si>
-    <t>20:9:2020:1</t>
-  </si>
-  <si>
-    <t>21:9:2020:1</t>
-  </si>
-  <si>
-    <t>22:9:2020:1</t>
-  </si>
-  <si>
-    <t>23:9:2020:1</t>
-  </si>
-  <si>
-    <t>24:9:2020:1</t>
-  </si>
-  <si>
-    <t>25:9:2020:1</t>
-  </si>
-  <si>
-    <t>26:9:2020:0</t>
-  </si>
-  <si>
-    <t>27:9:2020:0</t>
-  </si>
-  <si>
-    <t>28:9:2020:0</t>
-  </si>
-  <si>
-    <t>29:9:2020:0</t>
-  </si>
-  <si>
-    <t>30:9:2020:0</t>
-  </si>
-  <si>
-    <t>31:9:2020:0</t>
-  </si>
-  <si>
     <t>Значення температури ТСП 2 * 100</t>
   </si>
   <si>
@@ -104,6 +62,18 @@
   </si>
   <si>
     <t>Введені користувачем константи тиску * 1000</t>
+  </si>
+  <si>
+    <t>Спожита енергія</t>
+  </si>
+  <si>
+    <t>Температура всередині корпусу</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
   </si>
 </sst>
 </file>
@@ -484,7 +454,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C97"/>
+  <dimension ref="A1:C71"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <cols>
     <col min="1" max="1" width="64" style="1" customWidth="1"/>
@@ -602,26 +572,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B12" t="s">
-        <v>14</v>
-      </c>
-      <c r="C12">
-        <v>0</v>
-      </c>
-    </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="B13" t="s">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="C13">
-        <v>0</v>
+        <v>21.8</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
@@ -629,10 +588,10 @@
         <v>5</v>
       </c>
       <c r="B14" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="C14">
-        <v>0</v>
+        <v>22.18</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
@@ -640,10 +599,10 @@
         <v>5</v>
       </c>
       <c r="B15" t="s">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="C15">
-        <v>0</v>
+        <v>22.8</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
@@ -651,10 +610,10 @@
         <v>5</v>
       </c>
       <c r="B16" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="C16">
-        <v>0</v>
+        <v>22.85</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
@@ -662,10 +621,10 @@
         <v>5</v>
       </c>
       <c r="B17" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="C17">
-        <v>0</v>
+        <v>-50</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
@@ -673,10 +632,10 @@
         <v>5</v>
       </c>
       <c r="B18" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="C18">
-        <v>0</v>
+        <v>-50</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
@@ -684,10 +643,10 @@
         <v>5</v>
       </c>
       <c r="B19" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="C19">
-        <v>0</v>
+        <v>-50</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
@@ -695,10 +654,10 @@
         <v>5</v>
       </c>
       <c r="B20" t="s">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="C20">
-        <v>0</v>
+        <v>-50</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
@@ -706,32 +665,21 @@
         <v>5</v>
       </c>
       <c r="B21" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="C21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A22" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B22" t="s">
-        <v>24</v>
-      </c>
-      <c r="C22">
-        <v>0</v>
+        <v>-50</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="B23" t="s">
-        <v>25</v>
+        <v>4</v>
       </c>
       <c r="C23">
-        <v>0</v>
+        <v>9.13861111111111</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
@@ -739,10 +687,10 @@
         <v>5</v>
       </c>
       <c r="B24" t="s">
-        <v>26</v>
+        <v>6</v>
       </c>
       <c r="C24">
-        <v>0</v>
+        <v>9.13861111111111</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
@@ -750,21 +698,32 @@
         <v>5</v>
       </c>
       <c r="B25" t="s">
-        <v>27</v>
+        <v>7</v>
       </c>
       <c r="C25">
-        <v>0</v>
+        <v>9.13861111111111</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A26" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B26" t="s">
+        <v>8</v>
+      </c>
+      <c r="C26">
+        <v>9.13861111111111</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
-        <v>28</v>
+        <v>5</v>
       </c>
       <c r="B27" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="C27">
-        <v>22.72</v>
+        <v>9.13861111111111</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
@@ -772,10 +731,10 @@
         <v>5</v>
       </c>
       <c r="B28" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="C28">
-        <v>21.8</v>
+        <v>9.13861111111111</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
@@ -783,10 +742,10 @@
         <v>5</v>
       </c>
       <c r="B29" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="C29">
-        <v>22.18</v>
+        <v>9.13861111111111</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
@@ -794,10 +753,10 @@
         <v>5</v>
       </c>
       <c r="B30" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="C30">
-        <v>22.8</v>
+        <v>9.13861111111111</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
@@ -805,32 +764,21 @@
         <v>5</v>
       </c>
       <c r="B31" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C31">
-        <v>22.85</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A32" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B32" t="s">
-        <v>10</v>
-      </c>
-      <c r="C32">
-        <v>-50</v>
+        <v>9.13861111111111</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="B33" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="C33">
-        <v>-50</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
@@ -838,10 +786,10 @@
         <v>5</v>
       </c>
       <c r="B34" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="C34">
-        <v>-50</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
@@ -849,10 +797,10 @@
         <v>5</v>
       </c>
       <c r="B35" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="C35">
-        <v>-50</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
@@ -860,10 +808,10 @@
         <v>5</v>
       </c>
       <c r="B36" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="C36">
-        <v>-50</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
@@ -871,10 +819,10 @@
         <v>5</v>
       </c>
       <c r="B37" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="C37">
-        <v>-50</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
@@ -882,10 +830,10 @@
         <v>5</v>
       </c>
       <c r="B38" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="C38">
-        <v>-50</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
@@ -893,10 +841,10 @@
         <v>5</v>
       </c>
       <c r="B39" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="C39">
-        <v>-50</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
@@ -904,10 +852,10 @@
         <v>5</v>
       </c>
       <c r="B40" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="C40">
-        <v>-50</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
@@ -915,32 +863,21 @@
         <v>5</v>
       </c>
       <c r="B41" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="C41">
-        <v>-50</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A42" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B42" t="s">
-        <v>20</v>
-      </c>
-      <c r="C42">
-        <v>-50</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="B43" t="s">
-        <v>21</v>
+        <v>4</v>
       </c>
       <c r="C43">
-        <v>-50</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.25">
@@ -948,10 +885,10 @@
         <v>5</v>
       </c>
       <c r="B44" t="s">
-        <v>22</v>
+        <v>6</v>
       </c>
       <c r="C44">
-        <v>-50</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.25">
@@ -959,10 +896,10 @@
         <v>5</v>
       </c>
       <c r="B45" t="s">
-        <v>23</v>
+        <v>7</v>
       </c>
       <c r="C45">
-        <v>-50</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.25">
@@ -970,10 +907,10 @@
         <v>5</v>
       </c>
       <c r="B46" t="s">
-        <v>24</v>
+        <v>8</v>
       </c>
       <c r="C46">
-        <v>-50</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.25">
@@ -981,10 +918,10 @@
         <v>5</v>
       </c>
       <c r="B47" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="C47">
-        <v>-50</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.25">
@@ -992,10 +929,10 @@
         <v>5</v>
       </c>
       <c r="B48" t="s">
-        <v>26</v>
+        <v>10</v>
       </c>
       <c r="C48">
-        <v>-50</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.25">
@@ -1003,43 +940,43 @@
         <v>5</v>
       </c>
       <c r="B49" t="s">
-        <v>27</v>
+        <v>11</v>
       </c>
       <c r="C49">
-        <v>22.95</v>
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A50" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B50" t="s">
+        <v>12</v>
+      </c>
+      <c r="C50">
+        <v>0.4</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
-        <v>29</v>
+        <v>5</v>
       </c>
       <c r="B51" t="s">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="C51">
-        <v>9.13861111111111</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A52" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B52" t="s">
-        <v>6</v>
-      </c>
-      <c r="C52">
-        <v>9.13861111111111</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="B53" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C53">
-        <v>9.13861111111111</v>
+        <v>8833</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.25">
@@ -1047,10 +984,10 @@
         <v>5</v>
       </c>
       <c r="B54" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C54">
-        <v>9.13861111111111</v>
+        <v>8833</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.25">
@@ -1058,10 +995,10 @@
         <v>5</v>
       </c>
       <c r="B55" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C55">
-        <v>9.13861111111111</v>
+        <v>8833</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.25">
@@ -1069,10 +1006,10 @@
         <v>5</v>
       </c>
       <c r="B56" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C56">
-        <v>9.13861111111111</v>
+        <v>2177</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.25">
@@ -1080,10 +1017,10 @@
         <v>5</v>
       </c>
       <c r="B57" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C57">
-        <v>9.13861111111111</v>
+        <v>1665</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.25">
@@ -1091,10 +1028,10 @@
         <v>5</v>
       </c>
       <c r="B58" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C58">
-        <v>9.13861111111111</v>
+        <v>1409</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.25">
@@ -1102,10 +1039,10 @@
         <v>5</v>
       </c>
       <c r="B59" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C59">
-        <v>9.13861111111111</v>
+        <v>1409</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.25">
@@ -1113,10 +1050,10 @@
         <v>5</v>
       </c>
       <c r="B60" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C60">
-        <v>9.13861111111111</v>
+        <v>1409</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.25">
@@ -1124,32 +1061,21 @@
         <v>5</v>
       </c>
       <c r="B61" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C61">
-        <v>9.13861111111111</v>
-      </c>
-    </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A62" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B62" t="s">
-        <v>16</v>
-      </c>
-      <c r="C62">
-        <v>9.13861111111111</v>
+        <v>1665</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A63" s="1" t="s">
-        <v>5</v>
+        <v>18</v>
       </c>
       <c r="B63" t="s">
-        <v>17</v>
-      </c>
-      <c r="C63">
-        <v>9.13861111111111</v>
+        <v>4</v>
+      </c>
+      <c r="C63" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.25">
@@ -1157,10 +1083,10 @@
         <v>5</v>
       </c>
       <c r="B64" t="s">
-        <v>18</v>
-      </c>
-      <c r="C64">
-        <v>9.13861111111111</v>
+        <v>6</v>
+      </c>
+      <c r="C64" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.25">
@@ -1168,10 +1094,10 @@
         <v>5</v>
       </c>
       <c r="B65" t="s">
-        <v>19</v>
-      </c>
-      <c r="C65">
-        <v>9.13861111111111</v>
+        <v>7</v>
+      </c>
+      <c r="C65" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.25">
@@ -1179,10 +1105,10 @@
         <v>5</v>
       </c>
       <c r="B66" t="s">
-        <v>20</v>
-      </c>
-      <c r="C66">
-        <v>9.13861111111111</v>
+        <v>8</v>
+      </c>
+      <c r="C66" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.25">
@@ -1190,10 +1116,10 @@
         <v>5</v>
       </c>
       <c r="B67" t="s">
-        <v>21</v>
-      </c>
-      <c r="C67">
-        <v>9.13861111111111</v>
+        <v>9</v>
+      </c>
+      <c r="C67" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.25">
@@ -1201,10 +1127,10 @@
         <v>5</v>
       </c>
       <c r="B68" t="s">
-        <v>22</v>
-      </c>
-      <c r="C68">
-        <v>9.13861111111111</v>
+        <v>10</v>
+      </c>
+      <c r="C68" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.25">
@@ -1212,10 +1138,10 @@
         <v>5</v>
       </c>
       <c r="B69" t="s">
-        <v>23</v>
-      </c>
-      <c r="C69">
-        <v>9.13861111111111</v>
+        <v>11</v>
+      </c>
+      <c r="C69" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.25">
@@ -1223,10 +1149,10 @@
         <v>5</v>
       </c>
       <c r="B70" t="s">
-        <v>24</v>
-      </c>
-      <c r="C70">
-        <v>9.13861111111111</v>
+        <v>12</v>
+      </c>
+      <c r="C70" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.25">
@@ -1234,285 +1160,10 @@
         <v>5</v>
       </c>
       <c r="B71" t="s">
-        <v>25</v>
-      </c>
-      <c r="C71">
-        <v>9.13861111111111</v>
-      </c>
-    </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A72" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B72" t="s">
-        <v>26</v>
-      </c>
-      <c r="C72">
-        <v>9.13861111111111</v>
-      </c>
-    </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A73" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B73" t="s">
-        <v>27</v>
-      </c>
-      <c r="C73">
-        <v>9.13861111111111</v>
-      </c>
-    </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A75" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="B75" t="s">
-        <v>4</v>
-      </c>
-      <c r="C75">
-        <v>0.4</v>
-      </c>
-    </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A76" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B76" t="s">
-        <v>6</v>
-      </c>
-      <c r="C76">
-        <v>0.4</v>
-      </c>
-    </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A77" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B77" t="s">
-        <v>7</v>
-      </c>
-      <c r="C77">
-        <v>0.4</v>
-      </c>
-    </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A78" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B78" t="s">
-        <v>8</v>
-      </c>
-      <c r="C78">
-        <v>0.4</v>
-      </c>
-    </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A79" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B79" t="s">
-        <v>9</v>
-      </c>
-      <c r="C79">
-        <v>0.4</v>
-      </c>
-    </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A80" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B80" t="s">
-        <v>10</v>
-      </c>
-      <c r="C80">
-        <v>0.4</v>
-      </c>
-    </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A81" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B81" t="s">
-        <v>11</v>
-      </c>
-      <c r="C81">
-        <v>0.4</v>
-      </c>
-    </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A82" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B82" t="s">
-        <v>12</v>
-      </c>
-      <c r="C82">
-        <v>0.4</v>
-      </c>
-    </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A83" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B83" t="s">
         <v>13</v>
       </c>
-      <c r="C83">
-        <v>0.4</v>
-      </c>
-    </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A84" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B84" t="s">
-        <v>14</v>
-      </c>
-      <c r="C84">
-        <v>0.4</v>
-      </c>
-    </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A85" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B85" t="s">
-        <v>15</v>
-      </c>
-      <c r="C85">
-        <v>0.4</v>
-      </c>
-    </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A86" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B86" t="s">
-        <v>16</v>
-      </c>
-      <c r="C86">
-        <v>0.4</v>
-      </c>
-    </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A87" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B87" t="s">
-        <v>17</v>
-      </c>
-      <c r="C87">
-        <v>0.4</v>
-      </c>
-    </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A88" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B88" t="s">
-        <v>18</v>
-      </c>
-      <c r="C88">
-        <v>0.4</v>
-      </c>
-    </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A89" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B89" t="s">
+      <c r="C71" t="s">
         <v>19</v>
-      </c>
-      <c r="C89">
-        <v>0.4</v>
-      </c>
-    </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A90" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B90" t="s">
-        <v>20</v>
-      </c>
-      <c r="C90">
-        <v>0.4</v>
-      </c>
-    </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A91" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B91" t="s">
-        <v>21</v>
-      </c>
-      <c r="C91">
-        <v>0.4</v>
-      </c>
-    </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A92" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B92" t="s">
-        <v>22</v>
-      </c>
-      <c r="C92">
-        <v>0.4</v>
-      </c>
-    </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A93" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B93" t="s">
-        <v>23</v>
-      </c>
-      <c r="C93">
-        <v>0.4</v>
-      </c>
-    </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A94" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B94" t="s">
-        <v>24</v>
-      </c>
-      <c r="C94">
-        <v>0.4</v>
-      </c>
-    </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A95" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B95" t="s">
-        <v>25</v>
-      </c>
-      <c r="C95">
-        <v>0.4</v>
-      </c>
-    </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A96" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B96" t="s">
-        <v>26</v>
-      </c>
-      <c r="C96">
-        <v>0.4</v>
-      </c>
-    </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A97" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B97" t="s">
-        <v>27</v>
-      </c>
-      <c r="C97">
-        <v>0.4</v>
       </c>
     </row>
   </sheetData>

--- a/data.xlsx
+++ b/data.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="21">
   <si>
     <t>label</t>
   </si>
@@ -25,55 +25,55 @@
     <t>Об`єм (маса) каналу витрати 1</t>
   </si>
   <si>
-    <t>10:9:2020:1</t>
+    <t>10:10:2020:0</t>
   </si>
   <si>
     <t/>
   </si>
   <si>
-    <t>11:9:2020:1</t>
-  </si>
-  <si>
-    <t>12:9:2020:1</t>
-  </si>
-  <si>
-    <t>13:9:2020:1</t>
-  </si>
-  <si>
-    <t>14:9:2020:1</t>
-  </si>
-  <si>
-    <t>15:9:2020:1</t>
-  </si>
-  <si>
-    <t>16:9:2020:1</t>
-  </si>
-  <si>
-    <t>17:9:2020:1</t>
-  </si>
-  <si>
-    <t>18:9:2020:1</t>
+    <t>11:10:2020:0</t>
+  </si>
+  <si>
+    <t>12:10:2020:0</t>
+  </si>
+  <si>
+    <t>13:10:2020:0</t>
+  </si>
+  <si>
+    <t>14:10:2020:0</t>
+  </si>
+  <si>
+    <t>15:10:2020:0</t>
+  </si>
+  <si>
+    <t>16:10:2020:0</t>
+  </si>
+  <si>
+    <t>17:10:2020:0</t>
+  </si>
+  <si>
+    <t>18:10:2020:0</t>
+  </si>
+  <si>
+    <t>19:10:2020:0</t>
+  </si>
+  <si>
+    <t>20:10:2020:0</t>
+  </si>
+  <si>
+    <t>21:10:2020:0</t>
+  </si>
+  <si>
+    <t>22:10:2020:0</t>
+  </si>
+  <si>
+    <t>23:10:2020:0</t>
+  </si>
+  <si>
+    <t>24:10:2020:0</t>
   </si>
   <si>
     <t>Значення температури ТСП 2 * 100</t>
-  </si>
-  <si>
-    <t>Час роботи лічильника, год</t>
-  </si>
-  <si>
-    <t>Введені користувачем константи тиску * 1000</t>
-  </si>
-  <si>
-    <t>Спожита енергія</t>
-  </si>
-  <si>
-    <t>Температура всередині корпусу</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t/>
   </si>
 </sst>
 </file>
@@ -454,7 +454,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C71"/>
+  <dimension ref="A1:C33"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <cols>
     <col min="1" max="1" width="64" style="1" customWidth="1"/>
@@ -572,15 +572,26 @@
         <v>0</v>
       </c>
     </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B12" t="s">
+        <v>14</v>
+      </c>
+      <c r="C12">
+        <v>0</v>
+      </c>
+    </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="B13" t="s">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="C13">
-        <v>21.8</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
@@ -588,10 +599,10 @@
         <v>5</v>
       </c>
       <c r="B14" t="s">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="C14">
-        <v>22.18</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
@@ -599,10 +610,10 @@
         <v>5</v>
       </c>
       <c r="B15" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="C15">
-        <v>22.8</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
@@ -610,10 +621,10 @@
         <v>5</v>
       </c>
       <c r="B16" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="C16">
-        <v>22.85</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
@@ -621,32 +632,21 @@
         <v>5</v>
       </c>
       <c r="B17" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="C17">
-        <v>-50</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B18" t="s">
-        <v>10</v>
-      </c>
-      <c r="C18">
-        <v>-50</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="B19" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="C19">
-        <v>-50</v>
+        <v>22.73</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
@@ -654,10 +654,10 @@
         <v>5</v>
       </c>
       <c r="B20" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="C20">
-        <v>-50</v>
+        <v>22.13</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
@@ -665,21 +665,32 @@
         <v>5</v>
       </c>
       <c r="B21" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="C21">
-        <v>-50</v>
+        <v>21.84</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B22" t="s">
+        <v>8</v>
+      </c>
+      <c r="C22">
+        <v>21.73</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="B23" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="C23">
-        <v>9.13861111111111</v>
+        <v>21.77</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
@@ -687,10 +698,10 @@
         <v>5</v>
       </c>
       <c r="B24" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="C24">
-        <v>9.13861111111111</v>
+        <v>21.78</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
@@ -698,10 +709,10 @@
         <v>5</v>
       </c>
       <c r="B25" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="C25">
-        <v>9.13861111111111</v>
+        <v>21.42</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
@@ -709,10 +720,10 @@
         <v>5</v>
       </c>
       <c r="B26" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="C26">
-        <v>9.13861111111111</v>
+        <v>20.88</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
@@ -720,10 +731,10 @@
         <v>5</v>
       </c>
       <c r="B27" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C27">
-        <v>9.13861111111111</v>
+        <v>20.87</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
@@ -731,10 +742,10 @@
         <v>5</v>
       </c>
       <c r="B28" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="C28">
-        <v>9.13861111111111</v>
+        <v>20.81</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
@@ -742,10 +753,10 @@
         <v>5</v>
       </c>
       <c r="B29" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="C29">
-        <v>9.13861111111111</v>
+        <v>20.77</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
@@ -753,10 +764,10 @@
         <v>5</v>
       </c>
       <c r="B30" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="C30">
-        <v>9.13861111111111</v>
+        <v>20.82</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
@@ -764,406 +775,32 @@
         <v>5</v>
       </c>
       <c r="B31" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="C31">
-        <v>9.13861111111111</v>
+        <v>20.68</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A32" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B32" t="s">
+        <v>18</v>
+      </c>
+      <c r="C32">
+        <v>20.83</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
-        <v>16</v>
+        <v>5</v>
       </c>
       <c r="B33" t="s">
-        <v>4</v>
+        <v>19</v>
       </c>
       <c r="C33">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A34" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B34" t="s">
-        <v>6</v>
-      </c>
-      <c r="C34">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A35" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B35" t="s">
-        <v>7</v>
-      </c>
-      <c r="C35">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A36" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B36" t="s">
-        <v>8</v>
-      </c>
-      <c r="C36">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A37" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B37" t="s">
-        <v>9</v>
-      </c>
-      <c r="C37">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A38" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B38" t="s">
-        <v>10</v>
-      </c>
-      <c r="C38">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A39" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B39" t="s">
-        <v>11</v>
-      </c>
-      <c r="C39">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A40" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B40" t="s">
-        <v>12</v>
-      </c>
-      <c r="C40">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A41" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B41" t="s">
-        <v>13</v>
-      </c>
-      <c r="C41">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A43" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B43" t="s">
-        <v>4</v>
-      </c>
-      <c r="C43">
-        <v>0.4</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A44" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B44" t="s">
-        <v>6</v>
-      </c>
-      <c r="C44">
-        <v>0.4</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A45" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B45" t="s">
-        <v>7</v>
-      </c>
-      <c r="C45">
-        <v>0.4</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A46" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B46" t="s">
-        <v>8</v>
-      </c>
-      <c r="C46">
-        <v>0.4</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A47" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B47" t="s">
-        <v>9</v>
-      </c>
-      <c r="C47">
-        <v>0.4</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A48" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B48" t="s">
-        <v>10</v>
-      </c>
-      <c r="C48">
-        <v>0.4</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A49" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B49" t="s">
-        <v>11</v>
-      </c>
-      <c r="C49">
-        <v>0.4</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A50" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B50" t="s">
-        <v>12</v>
-      </c>
-      <c r="C50">
-        <v>0.4</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A51" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B51" t="s">
-        <v>13</v>
-      </c>
-      <c r="C51">
-        <v>0.4</v>
-      </c>
-    </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A53" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B53" t="s">
-        <v>4</v>
-      </c>
-      <c r="C53">
-        <v>8833</v>
-      </c>
-    </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A54" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B54" t="s">
-        <v>6</v>
-      </c>
-      <c r="C54">
-        <v>8833</v>
-      </c>
-    </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A55" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B55" t="s">
-        <v>7</v>
-      </c>
-      <c r="C55">
-        <v>8833</v>
-      </c>
-    </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A56" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B56" t="s">
-        <v>8</v>
-      </c>
-      <c r="C56">
-        <v>2177</v>
-      </c>
-    </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A57" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B57" t="s">
-        <v>9</v>
-      </c>
-      <c r="C57">
-        <v>1665</v>
-      </c>
-    </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A58" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B58" t="s">
-        <v>10</v>
-      </c>
-      <c r="C58">
-        <v>1409</v>
-      </c>
-    </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A59" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B59" t="s">
-        <v>11</v>
-      </c>
-      <c r="C59">
-        <v>1409</v>
-      </c>
-    </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A60" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B60" t="s">
-        <v>12</v>
-      </c>
-      <c r="C60">
-        <v>1409</v>
-      </c>
-    </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A61" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B61" t="s">
-        <v>13</v>
-      </c>
-      <c r="C61">
-        <v>1665</v>
-      </c>
-    </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A63" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B63" t="s">
-        <v>4</v>
-      </c>
-      <c r="C63" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A64" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B64" t="s">
-        <v>6</v>
-      </c>
-      <c r="C64" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A65" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B65" t="s">
-        <v>7</v>
-      </c>
-      <c r="C65" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A66" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B66" t="s">
-        <v>8</v>
-      </c>
-      <c r="C66" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A67" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B67" t="s">
-        <v>9</v>
-      </c>
-      <c r="C67" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A68" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B68" t="s">
-        <v>10</v>
-      </c>
-      <c r="C68" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A69" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B69" t="s">
-        <v>11</v>
-      </c>
-      <c r="C69" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A70" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B70" t="s">
-        <v>12</v>
-      </c>
-      <c r="C70" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A71" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B71" t="s">
-        <v>13</v>
-      </c>
-      <c r="C71" t="s">
-        <v>19</v>
+        <v>21.05</v>
       </c>
     </row>
   </sheetData>

--- a/data.xlsx
+++ b/data.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="17">
   <si>
     <t>label</t>
   </si>
@@ -25,55 +25,43 @@
     <t>Об`єм (маса) каналу витрати 1</t>
   </si>
   <si>
-    <t>10:9:2020:1</t>
+    <t>10:10:2020:0</t>
   </si>
   <si>
     <t/>
   </si>
   <si>
-    <t>11:9:2020:1</t>
-  </si>
-  <si>
-    <t>12:9:2020:1</t>
-  </si>
-  <si>
-    <t>13:9:2020:1</t>
-  </si>
-  <si>
-    <t>14:9:2020:1</t>
-  </si>
-  <si>
-    <t>15:9:2020:1</t>
-  </si>
-  <si>
-    <t>16:9:2020:1</t>
-  </si>
-  <si>
-    <t>17:9:2020:1</t>
-  </si>
-  <si>
-    <t>18:9:2020:1</t>
+    <t>11:10:2020:0</t>
+  </si>
+  <si>
+    <t>12:10:2020:0</t>
+  </si>
+  <si>
+    <t>13:10:2020:0</t>
+  </si>
+  <si>
+    <t>14:10:2020:0</t>
+  </si>
+  <si>
+    <t>Значення температури ТСП 1 * 100</t>
   </si>
   <si>
     <t>Значення температури ТСП 2 * 100</t>
   </si>
   <si>
+    <t>Тепло</t>
+  </si>
+  <si>
     <t>Час роботи лічильника, год</t>
   </si>
   <si>
+    <t>Час помилок</t>
+  </si>
+  <si>
     <t>Введені користувачем константи тиску * 1000</t>
   </si>
   <si>
     <t>Спожита енергія</t>
-  </si>
-  <si>
-    <t>Температура всередині корпусу</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t/>
   </si>
 </sst>
 </file>
@@ -454,7 +442,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C71"/>
+  <dimension ref="A1:C55"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <cols>
     <col min="1" max="1" width="64" style="1" customWidth="1"/>
@@ -528,26 +516,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B8" t="s">
-        <v>10</v>
-      </c>
-      <c r="C8">
-        <v>0</v>
-      </c>
-    </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="B9" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="C9">
-        <v>0</v>
+        <v>22.72</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
@@ -555,10 +532,10 @@
         <v>5</v>
       </c>
       <c r="B10" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="C10">
-        <v>0</v>
+        <v>22.1</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
@@ -566,43 +543,43 @@
         <v>5</v>
       </c>
       <c r="B11" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="C11">
-        <v>0</v>
+        <v>21.85</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B12" t="s">
+        <v>8</v>
+      </c>
+      <c r="C12">
+        <v>21.68</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="B13" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="C13">
-        <v>21.8</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A14" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B14" t="s">
-        <v>6</v>
-      </c>
-      <c r="C14">
-        <v>22.18</v>
+        <v>21.73</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="B15" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C15">
-        <v>22.8</v>
+        <v>22.73</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
@@ -610,10 +587,10 @@
         <v>5</v>
       </c>
       <c r="B16" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C16">
-        <v>22.85</v>
+        <v>22.13</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
@@ -621,10 +598,10 @@
         <v>5</v>
       </c>
       <c r="B17" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C17">
-        <v>-50</v>
+        <v>21.84</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
@@ -632,10 +609,10 @@
         <v>5</v>
       </c>
       <c r="B18" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C18">
-        <v>-50</v>
+        <v>21.73</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
@@ -643,43 +620,43 @@
         <v>5</v>
       </c>
       <c r="B19" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C19">
-        <v>-50</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A20" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B20" t="s">
-        <v>12</v>
-      </c>
-      <c r="C20">
-        <v>-50</v>
+        <v>21.77</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="B21" t="s">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="C21">
-        <v>-50</v>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B22" t="s">
+        <v>6</v>
+      </c>
+      <c r="C22">
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="B23" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C23">
-        <v>9.13861111111111</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
@@ -687,10 +664,10 @@
         <v>5</v>
       </c>
       <c r="B24" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C24">
-        <v>9.13861111111111</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
@@ -698,29 +675,18 @@
         <v>5</v>
       </c>
       <c r="B25" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C25">
-        <v>9.13861111111111</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A26" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B26" t="s">
-        <v>8</v>
-      </c>
-      <c r="C26">
-        <v>9.13861111111111</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="B27" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C27">
         <v>9.13861111111111</v>
@@ -731,7 +697,7 @@
         <v>5</v>
       </c>
       <c r="B28" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="C28">
         <v>9.13861111111111</v>
@@ -742,7 +708,7 @@
         <v>5</v>
       </c>
       <c r="B29" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="C29">
         <v>9.13861111111111</v>
@@ -753,7 +719,7 @@
         <v>5</v>
       </c>
       <c r="B30" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="C30">
         <v>9.13861111111111</v>
@@ -764,7 +730,7 @@
         <v>5</v>
       </c>
       <c r="B31" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C31">
         <v>9.13861111111111</v>
@@ -772,13 +738,13 @@
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B33" t="s">
         <v>4</v>
       </c>
       <c r="C33">
-        <v>0.5</v>
+        <v>9.13861111111111</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
@@ -789,7 +755,7 @@
         <v>6</v>
       </c>
       <c r="C34">
-        <v>0.5</v>
+        <v>9.13861111111111</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
@@ -800,7 +766,7 @@
         <v>7</v>
       </c>
       <c r="C35">
-        <v>0.5</v>
+        <v>9.13861111111111</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
@@ -811,7 +777,7 @@
         <v>8</v>
       </c>
       <c r="C36">
-        <v>0.5</v>
+        <v>9.13861111111111</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
@@ -822,26 +788,15 @@
         <v>9</v>
       </c>
       <c r="C37">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A38" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B38" t="s">
-        <v>10</v>
-      </c>
-      <c r="C38">
-        <v>0.5</v>
+        <v>9.0675</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="B39" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="C39">
         <v>0.5</v>
@@ -852,7 +807,7 @@
         <v>5</v>
       </c>
       <c r="B40" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="C40">
         <v>0.5</v>
@@ -863,40 +818,40 @@
         <v>5</v>
       </c>
       <c r="B41" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="C41">
         <v>0.5</v>
       </c>
     </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A42" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B42" t="s">
+        <v>8</v>
+      </c>
+      <c r="C42">
+        <v>0.5</v>
+      </c>
+    </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
-        <v>16</v>
+        <v>5</v>
       </c>
       <c r="B43" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="C43">
-        <v>0.4</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A44" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B44" t="s">
-        <v>6</v>
-      </c>
-      <c r="C44">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="B45" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C45">
         <v>0.4</v>
@@ -907,7 +862,7 @@
         <v>5</v>
       </c>
       <c r="B46" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C46">
         <v>0.4</v>
@@ -918,7 +873,7 @@
         <v>5</v>
       </c>
       <c r="B47" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C47">
         <v>0.4</v>
@@ -929,7 +884,7 @@
         <v>5</v>
       </c>
       <c r="B48" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C48">
         <v>0.4</v>
@@ -940,40 +895,40 @@
         <v>5</v>
       </c>
       <c r="B49" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C49">
         <v>0.4</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A50" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B50" t="s">
-        <v>12</v>
-      </c>
-      <c r="C50">
-        <v>0.4</v>
-      </c>
-    </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="B51" t="s">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="C51">
-        <v>0.4</v>
+        <v>8833</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A52" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B52" t="s">
+        <v>6</v>
+      </c>
+      <c r="C52">
+        <v>8833</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="B53" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C53">
         <v>8833</v>
@@ -984,10 +939,10 @@
         <v>5</v>
       </c>
       <c r="B54" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C54">
-        <v>8833</v>
+        <v>8577</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.25">
@@ -995,175 +950,10 @@
         <v>5</v>
       </c>
       <c r="B55" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C55">
-        <v>8833</v>
-      </c>
-    </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A56" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B56" t="s">
-        <v>8</v>
-      </c>
-      <c r="C56">
-        <v>2177</v>
-      </c>
-    </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A57" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B57" t="s">
-        <v>9</v>
-      </c>
-      <c r="C57">
-        <v>1665</v>
-      </c>
-    </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A58" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B58" t="s">
-        <v>10</v>
-      </c>
-      <c r="C58">
-        <v>1409</v>
-      </c>
-    </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A59" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B59" t="s">
-        <v>11</v>
-      </c>
-      <c r="C59">
-        <v>1409</v>
-      </c>
-    </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A60" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B60" t="s">
-        <v>12</v>
-      </c>
-      <c r="C60">
-        <v>1409</v>
-      </c>
-    </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A61" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B61" t="s">
-        <v>13</v>
-      </c>
-      <c r="C61">
-        <v>1665</v>
-      </c>
-    </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A63" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B63" t="s">
-        <v>4</v>
-      </c>
-      <c r="C63" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A64" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B64" t="s">
-        <v>6</v>
-      </c>
-      <c r="C64" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A65" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B65" t="s">
-        <v>7</v>
-      </c>
-      <c r="C65" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A66" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B66" t="s">
-        <v>8</v>
-      </c>
-      <c r="C66" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A67" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B67" t="s">
-        <v>9</v>
-      </c>
-      <c r="C67" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A68" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B68" t="s">
-        <v>10</v>
-      </c>
-      <c r="C68" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A69" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B69" t="s">
-        <v>11</v>
-      </c>
-      <c r="C69" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A70" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B70" t="s">
-        <v>12</v>
-      </c>
-      <c r="C70" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A71" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B71" t="s">
-        <v>13</v>
-      </c>
-      <c r="C71" t="s">
-        <v>19</v>
+        <v>1921</v>
       </c>
     </row>
   </sheetData>

--- a/data.xlsx
+++ b/data.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="251" uniqueCount="39">
   <si>
     <t>label</t>
   </si>
@@ -25,24 +25,102 @@
     <t>Об`єм (маса) каналу витрати 1</t>
   </si>
   <si>
+    <t>12:9:2020:1</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>13:9:2020:1</t>
+  </si>
+  <si>
+    <t>14:9:2020:1</t>
+  </si>
+  <si>
+    <t>15:9:2020:1</t>
+  </si>
+  <si>
+    <t>16:9:2020:1</t>
+  </si>
+  <si>
+    <t>17:9:2020:1</t>
+  </si>
+  <si>
+    <t>18:9:2020:1</t>
+  </si>
+  <si>
+    <t>19:9:2020:1</t>
+  </si>
+  <si>
+    <t>20:9:2020:1</t>
+  </si>
+  <si>
+    <t>21:9:2020:1</t>
+  </si>
+  <si>
+    <t>22:9:2020:1</t>
+  </si>
+  <si>
+    <t>23:9:2020:1</t>
+  </si>
+  <si>
+    <t>24:9:2020:1</t>
+  </si>
+  <si>
+    <t>25:9:2020:1</t>
+  </si>
+  <si>
+    <t>26:9:2020:0</t>
+  </si>
+  <si>
+    <t>27:9:2020:0</t>
+  </si>
+  <si>
+    <t>28:9:2020:0</t>
+  </si>
+  <si>
+    <t>29:9:2020:0</t>
+  </si>
+  <si>
+    <t>30:9:2020:0</t>
+  </si>
+  <si>
+    <t>31:9:2020:0</t>
+  </si>
+  <si>
+    <t>1:10:2020:0</t>
+  </si>
+  <si>
+    <t>2:10:2020:0</t>
+  </si>
+  <si>
+    <t>3:10:2020:0</t>
+  </si>
+  <si>
+    <t>4:10:2020:0</t>
+  </si>
+  <si>
+    <t>5:10:2020:0</t>
+  </si>
+  <si>
+    <t>6:10:2020:0</t>
+  </si>
+  <si>
+    <t>7:10:2020:0</t>
+  </si>
+  <si>
+    <t>8:10:2020:0</t>
+  </si>
+  <si>
+    <t>9:10:2020:0</t>
+  </si>
+  <si>
     <t>10:10:2020:0</t>
   </si>
   <si>
-    <t/>
-  </si>
-  <si>
     <t>11:10:2020:0</t>
   </si>
   <si>
-    <t>12:10:2020:0</t>
-  </si>
-  <si>
-    <t>13:10:2020:0</t>
-  </si>
-  <si>
-    <t>14:10:2020:0</t>
-  </si>
-  <si>
     <t>Значення температури ТСП 1 * 100</t>
   </si>
   <si>
@@ -50,18 +128,6 @@
   </si>
   <si>
     <t>Тепло</t>
-  </si>
-  <si>
-    <t>Час роботи лічильника, год</t>
-  </si>
-  <si>
-    <t>Час помилок</t>
-  </si>
-  <si>
-    <t>Введені користувачем константи тиску * 1000</t>
-  </si>
-  <si>
-    <t>Спожита енергія</t>
   </si>
 </sst>
 </file>
@@ -442,7 +508,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C55"/>
+  <dimension ref="A1:C129"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <cols>
     <col min="1" max="1" width="64" style="1" customWidth="1"/>
@@ -516,15 +582,26 @@
         <v>0</v>
       </c>
     </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B8" t="s">
+        <v>10</v>
+      </c>
+      <c r="C8">
+        <v>0</v>
+      </c>
+    </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="B9" t="s">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="C9">
-        <v>22.72</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
@@ -532,10 +609,10 @@
         <v>5</v>
       </c>
       <c r="B10" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="C10">
-        <v>22.1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
@@ -543,10 +620,10 @@
         <v>5</v>
       </c>
       <c r="B11" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="C11">
-        <v>21.85</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
@@ -554,10 +631,10 @@
         <v>5</v>
       </c>
       <c r="B12" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="C12">
-        <v>21.68</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
@@ -565,21 +642,32 @@
         <v>5</v>
       </c>
       <c r="B13" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="C13">
-        <v>21.73</v>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B14" t="s">
+        <v>16</v>
+      </c>
+      <c r="C14">
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="B15" t="s">
-        <v>4</v>
+        <v>17</v>
       </c>
       <c r="C15">
-        <v>22.73</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
@@ -587,10 +675,10 @@
         <v>5</v>
       </c>
       <c r="B16" t="s">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="C16">
-        <v>22.13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
@@ -598,10 +686,10 @@
         <v>5</v>
       </c>
       <c r="B17" t="s">
-        <v>7</v>
+        <v>19</v>
       </c>
       <c r="C17">
-        <v>21.84</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
@@ -609,10 +697,10 @@
         <v>5</v>
       </c>
       <c r="B18" t="s">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="C18">
-        <v>21.73</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
@@ -620,18 +708,29 @@
         <v>5</v>
       </c>
       <c r="B19" t="s">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="C19">
-        <v>21.77</v>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B20" t="s">
+        <v>22</v>
+      </c>
+      <c r="C20">
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="B21" t="s">
-        <v>4</v>
+        <v>23</v>
       </c>
       <c r="C21">
         <v>0</v>
@@ -642,7 +741,7 @@
         <v>5</v>
       </c>
       <c r="B22" t="s">
-        <v>6</v>
+        <v>24</v>
       </c>
       <c r="C22">
         <v>0</v>
@@ -653,7 +752,7 @@
         <v>5</v>
       </c>
       <c r="B23" t="s">
-        <v>7</v>
+        <v>25</v>
       </c>
       <c r="C23">
         <v>0</v>
@@ -664,7 +763,7 @@
         <v>5</v>
       </c>
       <c r="B24" t="s">
-        <v>8</v>
+        <v>26</v>
       </c>
       <c r="C24">
         <v>0</v>
@@ -675,21 +774,32 @@
         <v>5</v>
       </c>
       <c r="B25" t="s">
-        <v>9</v>
+        <v>27</v>
       </c>
       <c r="C25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A26" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B26" t="s">
+        <v>28</v>
+      </c>
+      <c r="C26">
         <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="B27" t="s">
-        <v>4</v>
+        <v>29</v>
       </c>
       <c r="C27">
-        <v>9.13861111111111</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
@@ -697,10 +807,10 @@
         <v>5</v>
       </c>
       <c r="B28" t="s">
-        <v>6</v>
+        <v>30</v>
       </c>
       <c r="C28">
-        <v>9.13861111111111</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
@@ -708,10 +818,10 @@
         <v>5</v>
       </c>
       <c r="B29" t="s">
-        <v>7</v>
+        <v>31</v>
       </c>
       <c r="C29">
-        <v>9.13861111111111</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
@@ -719,10 +829,10 @@
         <v>5</v>
       </c>
       <c r="B30" t="s">
-        <v>8</v>
+        <v>32</v>
       </c>
       <c r="C30">
-        <v>9.13861111111111</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
@@ -730,43 +840,43 @@
         <v>5</v>
       </c>
       <c r="B31" t="s">
-        <v>9</v>
+        <v>33</v>
       </c>
       <c r="C31">
-        <v>9.13861111111111</v>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A32" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B32" t="s">
+        <v>34</v>
+      </c>
+      <c r="C32">
+        <v>0</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="B33" t="s">
-        <v>4</v>
+        <v>35</v>
       </c>
       <c r="C33">
-        <v>9.13861111111111</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A34" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B34" t="s">
-        <v>6</v>
-      </c>
-      <c r="C34">
-        <v>9.13861111111111</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
-        <v>5</v>
+        <v>36</v>
       </c>
       <c r="B35" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C35">
-        <v>9.13861111111111</v>
+        <v>22.73</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
@@ -774,10 +884,10 @@
         <v>5</v>
       </c>
       <c r="B36" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C36">
-        <v>9.13861111111111</v>
+        <v>22.7</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
@@ -785,21 +895,32 @@
         <v>5</v>
       </c>
       <c r="B37" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C37">
-        <v>9.0675</v>
+        <v>-50</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A38" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B38" t="s">
+        <v>8</v>
+      </c>
+      <c r="C38">
+        <v>-50</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="B39" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="C39">
-        <v>0.5</v>
+        <v>-50</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
@@ -807,10 +928,10 @@
         <v>5</v>
       </c>
       <c r="B40" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="C40">
-        <v>0.5</v>
+        <v>-50</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
@@ -818,10 +939,10 @@
         <v>5</v>
       </c>
       <c r="B41" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="C41">
-        <v>0.5</v>
+        <v>-50</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">
@@ -829,10 +950,10 @@
         <v>5</v>
       </c>
       <c r="B42" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="C42">
-        <v>0.5</v>
+        <v>-50</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.25">
@@ -840,21 +961,32 @@
         <v>5</v>
       </c>
       <c r="B43" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C43">
-        <v>0.5</v>
+        <v>-50</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A44" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B44" t="s">
+        <v>14</v>
+      </c>
+      <c r="C44">
+        <v>-50</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B45" t="s">
         <v>15</v>
       </c>
-      <c r="B45" t="s">
-        <v>4</v>
-      </c>
       <c r="C45">
-        <v>0.4</v>
+        <v>-50</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.25">
@@ -862,10 +994,10 @@
         <v>5</v>
       </c>
       <c r="B46" t="s">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="C46">
-        <v>0.4</v>
+        <v>-50</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.25">
@@ -873,10 +1005,10 @@
         <v>5</v>
       </c>
       <c r="B47" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="C47">
-        <v>0.4</v>
+        <v>-50</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.25">
@@ -884,10 +1016,10 @@
         <v>5</v>
       </c>
       <c r="B48" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="C48">
-        <v>0.4</v>
+        <v>-50</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.25">
@@ -895,21 +1027,32 @@
         <v>5</v>
       </c>
       <c r="B49" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="C49">
-        <v>0.4</v>
+        <v>-50</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A50" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B50" t="s">
+        <v>20</v>
+      </c>
+      <c r="C50">
+        <v>-50</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
-        <v>16</v>
+        <v>5</v>
       </c>
       <c r="B51" t="s">
-        <v>4</v>
+        <v>21</v>
       </c>
       <c r="C51">
-        <v>8833</v>
+        <v>-50</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.25">
@@ -917,10 +1060,10 @@
         <v>5</v>
       </c>
       <c r="B52" t="s">
-        <v>6</v>
+        <v>22</v>
       </c>
       <c r="C52">
-        <v>8833</v>
+        <v>-50</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.25">
@@ -928,10 +1071,10 @@
         <v>5</v>
       </c>
       <c r="B53" t="s">
-        <v>7</v>
+        <v>23</v>
       </c>
       <c r="C53">
-        <v>8833</v>
+        <v>-50</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.25">
@@ -939,10 +1082,10 @@
         <v>5</v>
       </c>
       <c r="B54" t="s">
-        <v>8</v>
+        <v>24</v>
       </c>
       <c r="C54">
-        <v>8577</v>
+        <v>22.97</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.25">
@@ -950,10 +1093,802 @@
         <v>5</v>
       </c>
       <c r="B55" t="s">
+        <v>25</v>
+      </c>
+      <c r="C55">
+        <v>22.79</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A56" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B56" t="s">
+        <v>26</v>
+      </c>
+      <c r="C56">
+        <v>22.73</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A57" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B57" t="s">
+        <v>27</v>
+      </c>
+      <c r="C57">
+        <v>22.87</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A58" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B58" t="s">
+        <v>28</v>
+      </c>
+      <c r="C58">
+        <v>22.67</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A59" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B59" t="s">
+        <v>29</v>
+      </c>
+      <c r="C59">
+        <v>22.74</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A60" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B60" t="s">
+        <v>30</v>
+      </c>
+      <c r="C60">
+        <v>22.76</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A61" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B61" t="s">
+        <v>31</v>
+      </c>
+      <c r="C61">
+        <v>-50</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A62" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B62" t="s">
+        <v>32</v>
+      </c>
+      <c r="C62">
+        <v>22.58</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A63" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B63" t="s">
+        <v>33</v>
+      </c>
+      <c r="C63">
+        <v>22.93</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A64" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B64" t="s">
+        <v>34</v>
+      </c>
+      <c r="C64">
+        <v>22.72</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A65" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B65" t="s">
+        <v>35</v>
+      </c>
+      <c r="C65">
+        <v>22.1</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A67" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B67" t="s">
+        <v>4</v>
+      </c>
+      <c r="C67">
+        <v>22.8</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A68" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B68" t="s">
+        <v>6</v>
+      </c>
+      <c r="C68">
+        <v>22.85</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A69" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B69" t="s">
+        <v>7</v>
+      </c>
+      <c r="C69">
+        <v>-50</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A70" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B70" t="s">
+        <v>8</v>
+      </c>
+      <c r="C70">
+        <v>-50</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A71" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B71" t="s">
         <v>9</v>
       </c>
-      <c r="C55">
-        <v>1921</v>
+      <c r="C71">
+        <v>-50</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A72" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B72" t="s">
+        <v>10</v>
+      </c>
+      <c r="C72">
+        <v>-50</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A73" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B73" t="s">
+        <v>11</v>
+      </c>
+      <c r="C73">
+        <v>-50</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A74" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B74" t="s">
+        <v>12</v>
+      </c>
+      <c r="C74">
+        <v>-50</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A75" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B75" t="s">
+        <v>13</v>
+      </c>
+      <c r="C75">
+        <v>-50</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A76" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B76" t="s">
+        <v>14</v>
+      </c>
+      <c r="C76">
+        <v>-50</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A77" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B77" t="s">
+        <v>15</v>
+      </c>
+      <c r="C77">
+        <v>-50</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A78" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B78" t="s">
+        <v>16</v>
+      </c>
+      <c r="C78">
+        <v>-50</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A79" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B79" t="s">
+        <v>17</v>
+      </c>
+      <c r="C79">
+        <v>-50</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A80" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B80" t="s">
+        <v>18</v>
+      </c>
+      <c r="C80">
+        <v>-50</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A81" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B81" t="s">
+        <v>19</v>
+      </c>
+      <c r="C81">
+        <v>-50</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A82" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B82" t="s">
+        <v>20</v>
+      </c>
+      <c r="C82">
+        <v>-50</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A83" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B83" t="s">
+        <v>21</v>
+      </c>
+      <c r="C83">
+        <v>-50</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A84" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B84" t="s">
+        <v>22</v>
+      </c>
+      <c r="C84">
+        <v>-50</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A85" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B85" t="s">
+        <v>23</v>
+      </c>
+      <c r="C85">
+        <v>-50</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A86" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B86" t="s">
+        <v>24</v>
+      </c>
+      <c r="C86">
+        <v>22.95</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A87" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B87" t="s">
+        <v>25</v>
+      </c>
+      <c r="C87">
+        <v>22.73</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A88" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B88" t="s">
+        <v>26</v>
+      </c>
+      <c r="C88">
+        <v>22.7</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A89" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B89" t="s">
+        <v>27</v>
+      </c>
+      <c r="C89">
+        <v>22.89</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A90" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B90" t="s">
+        <v>28</v>
+      </c>
+      <c r="C90">
+        <v>22.71</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A91" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B91" t="s">
+        <v>29</v>
+      </c>
+      <c r="C91">
+        <v>22.75</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A92" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B92" t="s">
+        <v>30</v>
+      </c>
+      <c r="C92">
+        <v>22.8</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A93" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B93" t="s">
+        <v>31</v>
+      </c>
+      <c r="C93">
+        <v>-50</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A94" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B94" t="s">
+        <v>32</v>
+      </c>
+      <c r="C94">
+        <v>22.54</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A95" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B95" t="s">
+        <v>33</v>
+      </c>
+      <c r="C95">
+        <v>22.93</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A96" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B96" t="s">
+        <v>34</v>
+      </c>
+      <c r="C96">
+        <v>22.73</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A97" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B97" t="s">
+        <v>35</v>
+      </c>
+      <c r="C97">
+        <v>22.13</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A99" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B99" t="s">
+        <v>4</v>
+      </c>
+      <c r="C99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A100" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B100" t="s">
+        <v>6</v>
+      </c>
+      <c r="C100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A101" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B101" t="s">
+        <v>7</v>
+      </c>
+      <c r="C101">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A102" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B102" t="s">
+        <v>8</v>
+      </c>
+      <c r="C102">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A103" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B103" t="s">
+        <v>9</v>
+      </c>
+      <c r="C103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A104" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B104" t="s">
+        <v>10</v>
+      </c>
+      <c r="C104">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A105" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B105" t="s">
+        <v>11</v>
+      </c>
+      <c r="C105">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A106" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B106" t="s">
+        <v>12</v>
+      </c>
+      <c r="C106">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A107" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B107" t="s">
+        <v>13</v>
+      </c>
+      <c r="C107">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="108" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A108" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B108" t="s">
+        <v>14</v>
+      </c>
+      <c r="C108">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="109" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A109" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B109" t="s">
+        <v>15</v>
+      </c>
+      <c r="C109">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="110" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A110" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B110" t="s">
+        <v>16</v>
+      </c>
+      <c r="C110">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="111" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A111" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B111" t="s">
+        <v>17</v>
+      </c>
+      <c r="C111">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="112" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A112" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B112" t="s">
+        <v>18</v>
+      </c>
+      <c r="C112">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="113" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A113" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B113" t="s">
+        <v>19</v>
+      </c>
+      <c r="C113">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="114" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A114" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B114" t="s">
+        <v>20</v>
+      </c>
+      <c r="C114">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="115" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A115" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B115" t="s">
+        <v>21</v>
+      </c>
+      <c r="C115">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="116" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A116" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B116" t="s">
+        <v>22</v>
+      </c>
+      <c r="C116">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="117" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A117" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B117" t="s">
+        <v>23</v>
+      </c>
+      <c r="C117">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="118" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A118" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B118" t="s">
+        <v>24</v>
+      </c>
+      <c r="C118">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="119" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A119" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B119" t="s">
+        <v>25</v>
+      </c>
+      <c r="C119">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="120" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A120" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B120" t="s">
+        <v>26</v>
+      </c>
+      <c r="C120">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="121" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A121" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B121" t="s">
+        <v>27</v>
+      </c>
+      <c r="C121">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="122" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A122" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B122" t="s">
+        <v>28</v>
+      </c>
+      <c r="C122">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="123" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A123" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B123" t="s">
+        <v>29</v>
+      </c>
+      <c r="C123">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="124" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A124" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B124" t="s">
+        <v>30</v>
+      </c>
+      <c r="C124">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="125" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A125" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B125" t="s">
+        <v>31</v>
+      </c>
+      <c r="C125">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="126" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A126" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B126" t="s">
+        <v>32</v>
+      </c>
+      <c r="C126">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="127" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A127" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B127" t="s">
+        <v>33</v>
+      </c>
+      <c r="C127">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="128" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A128" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B128" t="s">
+        <v>34</v>
+      </c>
+      <c r="C128">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="129" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A129" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B129" t="s">
+        <v>35</v>
+      </c>
+      <c r="C129">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/data.xlsx
+++ b/data.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="251" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="243" uniqueCount="33">
   <si>
     <t>label</t>
   </si>
@@ -25,100 +25,79 @@
     <t>Об`єм (маса) каналу витрати 1</t>
   </si>
   <si>
-    <t>12:9:2020:1</t>
+    <t>12:10:2020:0</t>
   </si>
   <si>
     <t/>
   </si>
   <si>
-    <t>13:9:2020:1</t>
-  </si>
-  <si>
-    <t>14:9:2020:1</t>
-  </si>
-  <si>
-    <t>15:9:2020:1</t>
-  </si>
-  <si>
-    <t>16:9:2020:1</t>
-  </si>
-  <si>
-    <t>17:9:2020:1</t>
-  </si>
-  <si>
-    <t>18:9:2020:1</t>
-  </si>
-  <si>
-    <t>19:9:2020:1</t>
-  </si>
-  <si>
-    <t>20:9:2020:1</t>
-  </si>
-  <si>
-    <t>21:9:2020:1</t>
-  </si>
-  <si>
-    <t>22:9:2020:1</t>
-  </si>
-  <si>
-    <t>23:9:2020:1</t>
-  </si>
-  <si>
-    <t>24:9:2020:1</t>
-  </si>
-  <si>
-    <t>25:9:2020:1</t>
-  </si>
-  <si>
-    <t>26:9:2020:0</t>
-  </si>
-  <si>
-    <t>27:9:2020:0</t>
-  </si>
-  <si>
-    <t>28:9:2020:0</t>
-  </si>
-  <si>
-    <t>29:9:2020:0</t>
-  </si>
-  <si>
-    <t>30:9:2020:0</t>
-  </si>
-  <si>
-    <t>31:9:2020:0</t>
-  </si>
-  <si>
-    <t>1:10:2020:0</t>
-  </si>
-  <si>
-    <t>2:10:2020:0</t>
-  </si>
-  <si>
-    <t>3:10:2020:0</t>
-  </si>
-  <si>
-    <t>4:10:2020:0</t>
-  </si>
-  <si>
-    <t>5:10:2020:0</t>
-  </si>
-  <si>
-    <t>6:10:2020:0</t>
-  </si>
-  <si>
-    <t>7:10:2020:0</t>
-  </si>
-  <si>
-    <t>8:10:2020:0</t>
-  </si>
-  <si>
-    <t>9:10:2020:0</t>
-  </si>
-  <si>
-    <t>10:10:2020:0</t>
-  </si>
-  <si>
-    <t>11:10:2020:0</t>
+    <t>13:10:2020:0</t>
+  </si>
+  <si>
+    <t>14:10:2020:0</t>
+  </si>
+  <si>
+    <t>15:10:2020:0</t>
+  </si>
+  <si>
+    <t>16:10:2020:0</t>
+  </si>
+  <si>
+    <t>17:10:2020:0</t>
+  </si>
+  <si>
+    <t>18:10:2020:0</t>
+  </si>
+  <si>
+    <t>19:10:2020:0</t>
+  </si>
+  <si>
+    <t>20:10:2020:0</t>
+  </si>
+  <si>
+    <t>21:10:2020:0</t>
+  </si>
+  <si>
+    <t>22:10:2020:0</t>
+  </si>
+  <si>
+    <t>23:10:2020:0</t>
+  </si>
+  <si>
+    <t>24:10:2020:0</t>
+  </si>
+  <si>
+    <t>25:10:2020:0</t>
+  </si>
+  <si>
+    <t>26:10:2020:0</t>
+  </si>
+  <si>
+    <t>27:10:2020:0</t>
+  </si>
+  <si>
+    <t>28:10:2020:0</t>
+  </si>
+  <si>
+    <t>29:10:2020:0</t>
+  </si>
+  <si>
+    <t>30:10:2020:0</t>
+  </si>
+  <si>
+    <t>1:11:2020:0</t>
+  </si>
+  <si>
+    <t>2:11:2020:0</t>
+  </si>
+  <si>
+    <t>3:11:2020:0</t>
+  </si>
+  <si>
+    <t>4:11:2020:0</t>
+  </si>
+  <si>
+    <t>5:11:2020:0</t>
   </si>
   <si>
     <t>Значення температури ТСП 1 * 100</t>
@@ -128,6 +107,9 @@
   </si>
   <si>
     <t>Тепло</t>
+  </si>
+  <si>
+    <t>Час роботи лічильника, год</t>
   </si>
 </sst>
 </file>
@@ -508,7 +490,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C129"/>
+  <dimension ref="A1:C126"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <cols>
     <col min="1" max="1" width="64" style="1" customWidth="1"/>
@@ -791,26 +773,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A27" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B27" t="s">
-        <v>29</v>
-      </c>
-      <c r="C27">
-        <v>0</v>
-      </c>
-    </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
-        <v>5</v>
+        <v>29</v>
       </c>
       <c r="B28" t="s">
-        <v>30</v>
+        <v>4</v>
       </c>
       <c r="C28">
-        <v>0</v>
+        <v>21.85</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
@@ -818,10 +789,10 @@
         <v>5</v>
       </c>
       <c r="B29" t="s">
-        <v>31</v>
+        <v>6</v>
       </c>
       <c r="C29">
-        <v>0</v>
+        <v>21.68</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
@@ -829,10 +800,10 @@
         <v>5</v>
       </c>
       <c r="B30" t="s">
-        <v>32</v>
+        <v>7</v>
       </c>
       <c r="C30">
-        <v>0</v>
+        <v>21.73</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
@@ -840,10 +811,10 @@
         <v>5</v>
       </c>
       <c r="B31" t="s">
-        <v>33</v>
+        <v>8</v>
       </c>
       <c r="C31">
-        <v>0</v>
+        <v>21.74</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
@@ -851,10 +822,10 @@
         <v>5</v>
       </c>
       <c r="B32" t="s">
-        <v>34</v>
+        <v>9</v>
       </c>
       <c r="C32">
-        <v>0</v>
+        <v>21.4</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
@@ -862,21 +833,32 @@
         <v>5</v>
       </c>
       <c r="B33" t="s">
-        <v>35</v>
+        <v>10</v>
       </c>
       <c r="C33">
-        <v>0</v>
+        <v>20.85</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A34" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B34" t="s">
+        <v>11</v>
+      </c>
+      <c r="C34">
+        <v>20.84</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
-        <v>36</v>
+        <v>5</v>
       </c>
       <c r="B35" t="s">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="C35">
-        <v>22.73</v>
+        <v>20.81</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
@@ -884,10 +866,10 @@
         <v>5</v>
       </c>
       <c r="B36" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="C36">
-        <v>22.7</v>
+        <v>20.74</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
@@ -895,10 +877,10 @@
         <v>5</v>
       </c>
       <c r="B37" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="C37">
-        <v>-50</v>
+        <v>20.79</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
@@ -906,10 +888,10 @@
         <v>5</v>
       </c>
       <c r="B38" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="C38">
-        <v>-50</v>
+        <v>20.67</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
@@ -917,10 +899,10 @@
         <v>5</v>
       </c>
       <c r="B39" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="C39">
-        <v>-50</v>
+        <v>20.81</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
@@ -928,10 +910,10 @@
         <v>5</v>
       </c>
       <c r="B40" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="C40">
-        <v>-50</v>
+        <v>21.03</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
@@ -939,10 +921,10 @@
         <v>5</v>
       </c>
       <c r="B41" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="C41">
-        <v>-50</v>
+        <v>21.35</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">
@@ -950,10 +932,10 @@
         <v>5</v>
       </c>
       <c r="B42" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="C42">
-        <v>-50</v>
+        <v>21.66</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.25">
@@ -961,10 +943,10 @@
         <v>5</v>
       </c>
       <c r="B43" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="C43">
-        <v>-50</v>
+        <v>21.63</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.25">
@@ -972,10 +954,10 @@
         <v>5</v>
       </c>
       <c r="B44" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="C44">
-        <v>-50</v>
+        <v>21.57</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.25">
@@ -983,10 +965,10 @@
         <v>5</v>
       </c>
       <c r="B45" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="C45">
-        <v>-50</v>
+        <v>21.27</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.25">
@@ -994,10 +976,10 @@
         <v>5</v>
       </c>
       <c r="B46" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="C46">
-        <v>-50</v>
+        <v>21.13</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.25">
@@ -1005,10 +987,10 @@
         <v>5</v>
       </c>
       <c r="B47" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="C47">
-        <v>-50</v>
+        <v>20.99</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.25">
@@ -1016,10 +998,10 @@
         <v>5</v>
       </c>
       <c r="B48" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="C48">
-        <v>-50</v>
+        <v>20.92</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.25">
@@ -1027,10 +1009,10 @@
         <v>5</v>
       </c>
       <c r="B49" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="C49">
-        <v>-50</v>
+        <v>20.77</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.25">
@@ -1038,10 +1020,10 @@
         <v>5</v>
       </c>
       <c r="B50" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="C50">
-        <v>-50</v>
+        <v>20.26</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.25">
@@ -1049,32 +1031,21 @@
         <v>5</v>
       </c>
       <c r="B51" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="C51">
-        <v>-50</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A52" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B52" t="s">
-        <v>22</v>
-      </c>
-      <c r="C52">
-        <v>-50</v>
+        <v>19.79</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
-        <v>5</v>
+        <v>30</v>
       </c>
       <c r="B53" t="s">
-        <v>23</v>
+        <v>4</v>
       </c>
       <c r="C53">
-        <v>-50</v>
+        <v>21.84</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.25">
@@ -1082,10 +1053,10 @@
         <v>5</v>
       </c>
       <c r="B54" t="s">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="C54">
-        <v>22.97</v>
+        <v>21.73</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.25">
@@ -1093,10 +1064,10 @@
         <v>5</v>
       </c>
       <c r="B55" t="s">
-        <v>25</v>
+        <v>7</v>
       </c>
       <c r="C55">
-        <v>22.79</v>
+        <v>21.77</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.25">
@@ -1104,10 +1075,10 @@
         <v>5</v>
       </c>
       <c r="B56" t="s">
-        <v>26</v>
+        <v>8</v>
       </c>
       <c r="C56">
-        <v>22.73</v>
+        <v>21.78</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.25">
@@ -1115,10 +1086,10 @@
         <v>5</v>
       </c>
       <c r="B57" t="s">
-        <v>27</v>
+        <v>9</v>
       </c>
       <c r="C57">
-        <v>22.87</v>
+        <v>21.42</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.25">
@@ -1126,10 +1097,10 @@
         <v>5</v>
       </c>
       <c r="B58" t="s">
-        <v>28</v>
+        <v>10</v>
       </c>
       <c r="C58">
-        <v>22.67</v>
+        <v>20.88</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.25">
@@ -1137,10 +1108,10 @@
         <v>5</v>
       </c>
       <c r="B59" t="s">
-        <v>29</v>
+        <v>11</v>
       </c>
       <c r="C59">
-        <v>22.74</v>
+        <v>20.87</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.25">
@@ -1148,10 +1119,10 @@
         <v>5</v>
       </c>
       <c r="B60" t="s">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="C60">
-        <v>22.76</v>
+        <v>20.81</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.25">
@@ -1159,10 +1130,10 @@
         <v>5</v>
       </c>
       <c r="B61" t="s">
-        <v>31</v>
+        <v>13</v>
       </c>
       <c r="C61">
-        <v>-50</v>
+        <v>20.77</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.25">
@@ -1170,10 +1141,10 @@
         <v>5</v>
       </c>
       <c r="B62" t="s">
-        <v>32</v>
+        <v>14</v>
       </c>
       <c r="C62">
-        <v>22.58</v>
+        <v>20.82</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.25">
@@ -1181,10 +1152,10 @@
         <v>5</v>
       </c>
       <c r="B63" t="s">
-        <v>33</v>
+        <v>15</v>
       </c>
       <c r="C63">
-        <v>22.93</v>
+        <v>20.68</v>
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.25">
@@ -1192,10 +1163,10 @@
         <v>5</v>
       </c>
       <c r="B64" t="s">
-        <v>34</v>
+        <v>16</v>
       </c>
       <c r="C64">
-        <v>22.72</v>
+        <v>20.83</v>
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.25">
@@ -1203,21 +1174,32 @@
         <v>5</v>
       </c>
       <c r="B65" t="s">
-        <v>35</v>
+        <v>17</v>
       </c>
       <c r="C65">
-        <v>22.1</v>
+        <v>21.05</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A66" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B66" t="s">
+        <v>18</v>
+      </c>
+      <c r="C66">
+        <v>21.39</v>
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A67" s="1" t="s">
-        <v>37</v>
+        <v>5</v>
       </c>
       <c r="B67" t="s">
-        <v>4</v>
+        <v>19</v>
       </c>
       <c r="C67">
-        <v>22.8</v>
+        <v>21.68</v>
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.25">
@@ -1225,10 +1207,10 @@
         <v>5</v>
       </c>
       <c r="B68" t="s">
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="C68">
-        <v>22.85</v>
+        <v>21.66</v>
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.25">
@@ -1236,10 +1218,10 @@
         <v>5</v>
       </c>
       <c r="B69" t="s">
-        <v>7</v>
+        <v>21</v>
       </c>
       <c r="C69">
-        <v>-50</v>
+        <v>21.6</v>
       </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.25">
@@ -1247,10 +1229,10 @@
         <v>5</v>
       </c>
       <c r="B70" t="s">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="C70">
-        <v>-50</v>
+        <v>21.3</v>
       </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.25">
@@ -1258,10 +1240,10 @@
         <v>5</v>
       </c>
       <c r="B71" t="s">
-        <v>9</v>
+        <v>23</v>
       </c>
       <c r="C71">
-        <v>-50</v>
+        <v>21.15</v>
       </c>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.25">
@@ -1269,10 +1251,10 @@
         <v>5</v>
       </c>
       <c r="B72" t="s">
-        <v>10</v>
+        <v>24</v>
       </c>
       <c r="C72">
-        <v>-50</v>
+        <v>21.01</v>
       </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.25">
@@ -1280,10 +1262,10 @@
         <v>5</v>
       </c>
       <c r="B73" t="s">
-        <v>11</v>
+        <v>25</v>
       </c>
       <c r="C73">
-        <v>-50</v>
+        <v>20.95</v>
       </c>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.25">
@@ -1291,10 +1273,10 @@
         <v>5</v>
       </c>
       <c r="B74" t="s">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="C74">
-        <v>-50</v>
+        <v>20.79</v>
       </c>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.25">
@@ -1302,10 +1284,10 @@
         <v>5</v>
       </c>
       <c r="B75" t="s">
-        <v>13</v>
+        <v>27</v>
       </c>
       <c r="C75">
-        <v>-50</v>
+        <v>20.27</v>
       </c>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.25">
@@ -1313,32 +1295,21 @@
         <v>5</v>
       </c>
       <c r="B76" t="s">
-        <v>14</v>
+        <v>28</v>
       </c>
       <c r="C76">
-        <v>-50</v>
-      </c>
-    </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A77" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B77" t="s">
-        <v>15</v>
-      </c>
-      <c r="C77">
-        <v>-50</v>
+        <v>19.82</v>
       </c>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A78" s="1" t="s">
-        <v>5</v>
+        <v>31</v>
       </c>
       <c r="B78" t="s">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="C78">
-        <v>-50</v>
+        <v>0</v>
       </c>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.25">
@@ -1346,10 +1317,10 @@
         <v>5</v>
       </c>
       <c r="B79" t="s">
-        <v>17</v>
+        <v>6</v>
       </c>
       <c r="C79">
-        <v>-50</v>
+        <v>0</v>
       </c>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.25">
@@ -1357,10 +1328,10 @@
         <v>5</v>
       </c>
       <c r="B80" t="s">
-        <v>18</v>
+        <v>7</v>
       </c>
       <c r="C80">
-        <v>-50</v>
+        <v>0</v>
       </c>
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.25">
@@ -1368,10 +1339,10 @@
         <v>5</v>
       </c>
       <c r="B81" t="s">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="C81">
-        <v>-50</v>
+        <v>0</v>
       </c>
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.25">
@@ -1379,10 +1350,10 @@
         <v>5</v>
       </c>
       <c r="B82" t="s">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="C82">
-        <v>-50</v>
+        <v>0</v>
       </c>
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.25">
@@ -1390,10 +1361,10 @@
         <v>5</v>
       </c>
       <c r="B83" t="s">
-        <v>21</v>
+        <v>10</v>
       </c>
       <c r="C83">
-        <v>-50</v>
+        <v>0</v>
       </c>
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.25">
@@ -1401,10 +1372,10 @@
         <v>5</v>
       </c>
       <c r="B84" t="s">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="C84">
-        <v>-50</v>
+        <v>0</v>
       </c>
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.25">
@@ -1412,10 +1383,10 @@
         <v>5</v>
       </c>
       <c r="B85" t="s">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="C85">
-        <v>-50</v>
+        <v>0</v>
       </c>
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.25">
@@ -1423,10 +1394,10 @@
         <v>5</v>
       </c>
       <c r="B86" t="s">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="C86">
-        <v>22.95</v>
+        <v>0</v>
       </c>
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.25">
@@ -1434,10 +1405,10 @@
         <v>5</v>
       </c>
       <c r="B87" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="C87">
-        <v>22.73</v>
+        <v>0</v>
       </c>
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.25">
@@ -1445,10 +1416,10 @@
         <v>5</v>
       </c>
       <c r="B88" t="s">
-        <v>26</v>
+        <v>15</v>
       </c>
       <c r="C88">
-        <v>22.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.25">
@@ -1456,10 +1427,10 @@
         <v>5</v>
       </c>
       <c r="B89" t="s">
-        <v>27</v>
+        <v>16</v>
       </c>
       <c r="C89">
-        <v>22.89</v>
+        <v>0</v>
       </c>
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.25">
@@ -1467,10 +1438,10 @@
         <v>5</v>
       </c>
       <c r="B90" t="s">
-        <v>28</v>
+        <v>17</v>
       </c>
       <c r="C90">
-        <v>22.71</v>
+        <v>0</v>
       </c>
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.25">
@@ -1478,10 +1449,10 @@
         <v>5</v>
       </c>
       <c r="B91" t="s">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="C91">
-        <v>22.75</v>
+        <v>0</v>
       </c>
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.25">
@@ -1489,10 +1460,10 @@
         <v>5</v>
       </c>
       <c r="B92" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="C92">
-        <v>22.8</v>
+        <v>0</v>
       </c>
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.25">
@@ -1500,10 +1471,10 @@
         <v>5</v>
       </c>
       <c r="B93" t="s">
-        <v>31</v>
+        <v>20</v>
       </c>
       <c r="C93">
-        <v>-50</v>
+        <v>0</v>
       </c>
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.25">
@@ -1511,10 +1482,10 @@
         <v>5</v>
       </c>
       <c r="B94" t="s">
-        <v>32</v>
+        <v>21</v>
       </c>
       <c r="C94">
-        <v>22.54</v>
+        <v>0</v>
       </c>
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.25">
@@ -1522,10 +1493,10 @@
         <v>5</v>
       </c>
       <c r="B95" t="s">
-        <v>33</v>
+        <v>22</v>
       </c>
       <c r="C95">
-        <v>22.93</v>
+        <v>0</v>
       </c>
     </row>
     <row r="96" spans="1:3" x14ac:dyDescent="0.25">
@@ -1533,10 +1504,10 @@
         <v>5</v>
       </c>
       <c r="B96" t="s">
-        <v>34</v>
+        <v>23</v>
       </c>
       <c r="C96">
-        <v>22.73</v>
+        <v>0</v>
       </c>
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.25">
@@ -1544,18 +1515,29 @@
         <v>5</v>
       </c>
       <c r="B97" t="s">
-        <v>35</v>
+        <v>24</v>
       </c>
       <c r="C97">
-        <v>22.13</v>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A98" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B98" t="s">
+        <v>25</v>
+      </c>
+      <c r="C98">
+        <v>0</v>
       </c>
     </row>
     <row r="99" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A99" s="1" t="s">
-        <v>38</v>
+        <v>5</v>
       </c>
       <c r="B99" t="s">
-        <v>4</v>
+        <v>26</v>
       </c>
       <c r="C99">
         <v>0</v>
@@ -1566,7 +1548,7 @@
         <v>5</v>
       </c>
       <c r="B100" t="s">
-        <v>6</v>
+        <v>27</v>
       </c>
       <c r="C100">
         <v>0</v>
@@ -1577,32 +1559,21 @@
         <v>5</v>
       </c>
       <c r="B101" t="s">
-        <v>7</v>
+        <v>28</v>
       </c>
       <c r="C101">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A102" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B102" t="s">
-        <v>8</v>
-      </c>
-      <c r="C102">
         <v>0</v>
       </c>
     </row>
     <row r="103" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A103" s="1" t="s">
-        <v>5</v>
+        <v>32</v>
       </c>
       <c r="B103" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C103">
-        <v>0</v>
+        <v>9.13861111111111</v>
       </c>
     </row>
     <row r="104" spans="1:3" x14ac:dyDescent="0.25">
@@ -1610,10 +1581,10 @@
         <v>5</v>
       </c>
       <c r="B104" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="C104">
-        <v>0</v>
+        <v>9.13861111111111</v>
       </c>
     </row>
     <row r="105" spans="1:3" x14ac:dyDescent="0.25">
@@ -1621,10 +1592,10 @@
         <v>5</v>
       </c>
       <c r="B105" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="C105">
-        <v>0</v>
+        <v>9.13861111111111</v>
       </c>
     </row>
     <row r="106" spans="1:3" x14ac:dyDescent="0.25">
@@ -1632,10 +1603,10 @@
         <v>5</v>
       </c>
       <c r="B106" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="C106">
-        <v>0</v>
+        <v>9.13861111111111</v>
       </c>
     </row>
     <row r="107" spans="1:3" x14ac:dyDescent="0.25">
@@ -1643,10 +1614,10 @@
         <v>5</v>
       </c>
       <c r="B107" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C107">
-        <v>0</v>
+        <v>9.13861111111111</v>
       </c>
     </row>
     <row r="108" spans="1:3" x14ac:dyDescent="0.25">
@@ -1654,10 +1625,10 @@
         <v>5</v>
       </c>
       <c r="B108" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="C108">
-        <v>0</v>
+        <v>9.13861111111111</v>
       </c>
     </row>
     <row r="109" spans="1:3" x14ac:dyDescent="0.25">
@@ -1665,10 +1636,10 @@
         <v>5</v>
       </c>
       <c r="B109" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="C109">
-        <v>0</v>
+        <v>9.13861111111111</v>
       </c>
     </row>
     <row r="110" spans="1:3" x14ac:dyDescent="0.25">
@@ -1676,10 +1647,10 @@
         <v>5</v>
       </c>
       <c r="B110" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="C110">
-        <v>0</v>
+        <v>9.13861111111111</v>
       </c>
     </row>
     <row r="111" spans="1:3" x14ac:dyDescent="0.25">
@@ -1687,10 +1658,10 @@
         <v>5</v>
       </c>
       <c r="B111" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="C111">
-        <v>0</v>
+        <v>9.13861111111111</v>
       </c>
     </row>
     <row r="112" spans="1:3" x14ac:dyDescent="0.25">
@@ -1698,10 +1669,10 @@
         <v>5</v>
       </c>
       <c r="B112" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="C112">
-        <v>0</v>
+        <v>9.13861111111111</v>
       </c>
     </row>
     <row r="113" spans="1:3" x14ac:dyDescent="0.25">
@@ -1709,10 +1680,10 @@
         <v>5</v>
       </c>
       <c r="B113" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="C113">
-        <v>0</v>
+        <v>9.13861111111111</v>
       </c>
     </row>
     <row r="114" spans="1:3" x14ac:dyDescent="0.25">
@@ -1720,10 +1691,10 @@
         <v>5</v>
       </c>
       <c r="B114" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="C114">
-        <v>0</v>
+        <v>9.13861111111111</v>
       </c>
     </row>
     <row r="115" spans="1:3" x14ac:dyDescent="0.25">
@@ -1731,10 +1702,10 @@
         <v>5</v>
       </c>
       <c r="B115" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="C115">
-        <v>0</v>
+        <v>9.13861111111111</v>
       </c>
     </row>
     <row r="116" spans="1:3" x14ac:dyDescent="0.25">
@@ -1742,10 +1713,10 @@
         <v>5</v>
       </c>
       <c r="B116" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="C116">
-        <v>0</v>
+        <v>9.13861111111111</v>
       </c>
     </row>
     <row r="117" spans="1:3" x14ac:dyDescent="0.25">
@@ -1753,10 +1724,10 @@
         <v>5</v>
       </c>
       <c r="B117" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="C117">
-        <v>0</v>
+        <v>9.13861111111111</v>
       </c>
     </row>
     <row r="118" spans="1:3" x14ac:dyDescent="0.25">
@@ -1764,10 +1735,10 @@
         <v>5</v>
       </c>
       <c r="B118" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="C118">
-        <v>0</v>
+        <v>9.13861111111111</v>
       </c>
     </row>
     <row r="119" spans="1:3" x14ac:dyDescent="0.25">
@@ -1775,10 +1746,10 @@
         <v>5</v>
       </c>
       <c r="B119" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="C119">
-        <v>0</v>
+        <v>9.13861111111111</v>
       </c>
     </row>
     <row r="120" spans="1:3" x14ac:dyDescent="0.25">
@@ -1786,10 +1757,10 @@
         <v>5</v>
       </c>
       <c r="B120" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="C120">
-        <v>0</v>
+        <v>9.13861111111111</v>
       </c>
     </row>
     <row r="121" spans="1:3" x14ac:dyDescent="0.25">
@@ -1797,10 +1768,10 @@
         <v>5</v>
       </c>
       <c r="B121" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="C121">
-        <v>0</v>
+        <v>9.13861111111111</v>
       </c>
     </row>
     <row r="122" spans="1:3" x14ac:dyDescent="0.25">
@@ -1808,10 +1779,10 @@
         <v>5</v>
       </c>
       <c r="B122" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="C122">
-        <v>0</v>
+        <v>9.13861111111111</v>
       </c>
     </row>
     <row r="123" spans="1:3" x14ac:dyDescent="0.25">
@@ -1819,10 +1790,10 @@
         <v>5</v>
       </c>
       <c r="B123" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="C123">
-        <v>0</v>
+        <v>9.13861111111111</v>
       </c>
     </row>
     <row r="124" spans="1:3" x14ac:dyDescent="0.25">
@@ -1830,10 +1801,10 @@
         <v>5</v>
       </c>
       <c r="B124" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="C124">
-        <v>0</v>
+        <v>9.13861111111111</v>
       </c>
     </row>
     <row r="125" spans="1:3" x14ac:dyDescent="0.25">
@@ -1841,10 +1812,10 @@
         <v>5</v>
       </c>
       <c r="B125" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="C125">
-        <v>0</v>
+        <v>9.13861111111111</v>
       </c>
     </row>
     <row r="126" spans="1:3" x14ac:dyDescent="0.25">
@@ -1852,43 +1823,10 @@
         <v>5</v>
       </c>
       <c r="B126" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="C126">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="127" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A127" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B127" t="s">
-        <v>33</v>
-      </c>
-      <c r="C127">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="128" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A128" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B128" t="s">
-        <v>34</v>
-      </c>
-      <c r="C128">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="129" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A129" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B129" t="s">
-        <v>35</v>
-      </c>
-      <c r="C129">
-        <v>0</v>
+        <v>9.13861111111111</v>
       </c>
     </row>
   </sheetData>

--- a/data.xlsx
+++ b/data.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="243" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="318" uniqueCount="31">
   <si>
     <t>label</t>
   </si>
@@ -25,91 +25,85 @@
     <t>Об`єм (маса) каналу витрати 1</t>
   </si>
   <si>
+    <t>10:10:2020:0</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>11:10:2020:0</t>
+  </si>
+  <si>
     <t>12:10:2020:0</t>
   </si>
   <si>
+    <t>13:10:2020:0</t>
+  </si>
+  <si>
+    <t>14:10:2020:0</t>
+  </si>
+  <si>
+    <t>15:10:2020:0</t>
+  </si>
+  <si>
+    <t>16:10:2020:0</t>
+  </si>
+  <si>
+    <t>17:10:2020:0</t>
+  </si>
+  <si>
+    <t>18:10:2020:0</t>
+  </si>
+  <si>
+    <t>19:10:2020:0</t>
+  </si>
+  <si>
+    <t>20:10:2020:0</t>
+  </si>
+  <si>
+    <t>21:10:2020:0</t>
+  </si>
+  <si>
+    <t>22:10:2020:0</t>
+  </si>
+  <si>
+    <t>23:10:2020:0</t>
+  </si>
+  <si>
+    <t>24:10:2020:0</t>
+  </si>
+  <si>
+    <t>Значення температури ТСП 1 * 100</t>
+  </si>
+  <si>
+    <t>Значення температури ТСП 2 * 100</t>
+  </si>
+  <si>
+    <t>Тепло</t>
+  </si>
+  <si>
+    <t>Час роботи лічильника, год</t>
+  </si>
+  <si>
+    <t>Час помилок</t>
+  </si>
+  <si>
+    <t>Введені користувачем константи тиску * 1000</t>
+  </si>
+  <si>
+    <t>Спожита енергія</t>
+  </si>
+  <si>
+    <t>Температура всередині корпусу</t>
+  </si>
+  <si>
     <t/>
   </si>
   <si>
-    <t>13:10:2020:0</t>
-  </si>
-  <si>
-    <t>14:10:2020:0</t>
-  </si>
-  <si>
-    <t>15:10:2020:0</t>
-  </si>
-  <si>
-    <t>16:10:2020:0</t>
-  </si>
-  <si>
-    <t>17:10:2020:0</t>
-  </si>
-  <si>
-    <t>18:10:2020:0</t>
-  </si>
-  <si>
-    <t>19:10:2020:0</t>
-  </si>
-  <si>
-    <t>20:10:2020:0</t>
-  </si>
-  <si>
-    <t>21:10:2020:0</t>
-  </si>
-  <si>
-    <t>22:10:2020:0</t>
-  </si>
-  <si>
-    <t>23:10:2020:0</t>
-  </si>
-  <si>
-    <t>24:10:2020:0</t>
-  </si>
-  <si>
-    <t>25:10:2020:0</t>
-  </si>
-  <si>
-    <t>26:10:2020:0</t>
-  </si>
-  <si>
-    <t>27:10:2020:0</t>
-  </si>
-  <si>
-    <t>28:10:2020:0</t>
-  </si>
-  <si>
-    <t>29:10:2020:0</t>
-  </si>
-  <si>
-    <t>30:10:2020:0</t>
-  </si>
-  <si>
-    <t>1:11:2020:0</t>
-  </si>
-  <si>
-    <t>2:11:2020:0</t>
-  </si>
-  <si>
-    <t>3:11:2020:0</t>
-  </si>
-  <si>
-    <t>4:11:2020:0</t>
-  </si>
-  <si>
-    <t>5:11:2020:0</t>
-  </si>
-  <si>
-    <t>Значення температури ТСП 1 * 100</t>
-  </si>
-  <si>
-    <t>Значення температури ТСП 2 * 100</t>
-  </si>
-  <si>
-    <t>Тепло</t>
-  </si>
-  <si>
-    <t>Час роботи лічильника, год</t>
+    <t/>
+  </si>
+  <si>
+    <t/>
   </si>
 </sst>
 </file>
@@ -490,7 +484,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C126"/>
+  <dimension ref="A1:C161"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <cols>
     <col min="1" max="1" width="64" style="1" customWidth="1"/>
@@ -674,26 +668,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B18" t="s">
-        <v>20</v>
-      </c>
-      <c r="C18">
-        <v>0</v>
-      </c>
-    </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="B19" t="s">
-        <v>21</v>
+        <v>4</v>
       </c>
       <c r="C19">
-        <v>0</v>
+        <v>22.72</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
@@ -701,10 +684,10 @@
         <v>5</v>
       </c>
       <c r="B20" t="s">
-        <v>22</v>
+        <v>6</v>
       </c>
       <c r="C20">
-        <v>0</v>
+        <v>22.1</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
@@ -712,10 +695,10 @@
         <v>5</v>
       </c>
       <c r="B21" t="s">
-        <v>23</v>
+        <v>7</v>
       </c>
       <c r="C21">
-        <v>0</v>
+        <v>21.85</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
@@ -723,10 +706,10 @@
         <v>5</v>
       </c>
       <c r="B22" t="s">
-        <v>24</v>
+        <v>8</v>
       </c>
       <c r="C22">
-        <v>0</v>
+        <v>21.68</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
@@ -734,10 +717,10 @@
         <v>5</v>
       </c>
       <c r="B23" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="C23">
-        <v>0</v>
+        <v>21.73</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
@@ -745,10 +728,10 @@
         <v>5</v>
       </c>
       <c r="B24" t="s">
-        <v>26</v>
+        <v>10</v>
       </c>
       <c r="C24">
-        <v>0</v>
+        <v>21.74</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
@@ -756,10 +739,10 @@
         <v>5</v>
       </c>
       <c r="B25" t="s">
-        <v>27</v>
+        <v>11</v>
       </c>
       <c r="C25">
-        <v>0</v>
+        <v>21.4</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
@@ -767,21 +750,32 @@
         <v>5</v>
       </c>
       <c r="B26" t="s">
-        <v>28</v>
+        <v>12</v>
       </c>
       <c r="C26">
-        <v>0</v>
+        <v>20.85</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A27" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B27" t="s">
+        <v>13</v>
+      </c>
+      <c r="C27">
+        <v>20.84</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
-        <v>29</v>
+        <v>5</v>
       </c>
       <c r="B28" t="s">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="C28">
-        <v>21.85</v>
+        <v>20.81</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
@@ -789,10 +783,10 @@
         <v>5</v>
       </c>
       <c r="B29" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="C29">
-        <v>21.68</v>
+        <v>20.74</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
@@ -800,10 +794,10 @@
         <v>5</v>
       </c>
       <c r="B30" t="s">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="C30">
-        <v>21.73</v>
+        <v>20.79</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
@@ -811,10 +805,10 @@
         <v>5</v>
       </c>
       <c r="B31" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="C31">
-        <v>21.74</v>
+        <v>20.67</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
@@ -822,10 +816,10 @@
         <v>5</v>
       </c>
       <c r="B32" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="C32">
-        <v>21.4</v>
+        <v>20.81</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
@@ -833,32 +827,21 @@
         <v>5</v>
       </c>
       <c r="B33" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="C33">
-        <v>20.85</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A34" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B34" t="s">
-        <v>11</v>
-      </c>
-      <c r="C34">
-        <v>20.84</v>
+        <v>21.03</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
-        <v>5</v>
+        <v>21</v>
       </c>
       <c r="B35" t="s">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="C35">
-        <v>20.81</v>
+        <v>22.73</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
@@ -866,10 +849,10 @@
         <v>5</v>
       </c>
       <c r="B36" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="C36">
-        <v>20.74</v>
+        <v>22.13</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
@@ -877,10 +860,10 @@
         <v>5</v>
       </c>
       <c r="B37" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="C37">
-        <v>20.79</v>
+        <v>21.84</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
@@ -888,10 +871,10 @@
         <v>5</v>
       </c>
       <c r="B38" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="C38">
-        <v>20.67</v>
+        <v>21.73</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
@@ -899,10 +882,10 @@
         <v>5</v>
       </c>
       <c r="B39" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="C39">
-        <v>20.81</v>
+        <v>21.77</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
@@ -910,10 +893,10 @@
         <v>5</v>
       </c>
       <c r="B40" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="C40">
-        <v>21.03</v>
+        <v>21.78</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
@@ -921,10 +904,10 @@
         <v>5</v>
       </c>
       <c r="B41" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="C41">
-        <v>21.35</v>
+        <v>21.42</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">
@@ -932,10 +915,10 @@
         <v>5</v>
       </c>
       <c r="B42" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="C42">
-        <v>21.66</v>
+        <v>20.88</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.25">
@@ -943,10 +926,10 @@
         <v>5</v>
       </c>
       <c r="B43" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="C43">
-        <v>21.63</v>
+        <v>20.87</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.25">
@@ -954,10 +937,10 @@
         <v>5</v>
       </c>
       <c r="B44" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="C44">
-        <v>21.57</v>
+        <v>20.81</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.25">
@@ -965,10 +948,10 @@
         <v>5</v>
       </c>
       <c r="B45" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="C45">
-        <v>21.27</v>
+        <v>20.77</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.25">
@@ -976,10 +959,10 @@
         <v>5</v>
       </c>
       <c r="B46" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="C46">
-        <v>21.13</v>
+        <v>20.82</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.25">
@@ -987,10 +970,10 @@
         <v>5</v>
       </c>
       <c r="B47" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="C47">
-        <v>20.99</v>
+        <v>20.68</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.25">
@@ -998,10 +981,10 @@
         <v>5</v>
       </c>
       <c r="B48" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="C48">
-        <v>20.92</v>
+        <v>20.83</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.25">
@@ -1009,43 +992,43 @@
         <v>5</v>
       </c>
       <c r="B49" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="C49">
-        <v>20.77</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A50" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B50" t="s">
-        <v>27</v>
-      </c>
-      <c r="C50">
-        <v>20.26</v>
+        <v>21.05</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
-        <v>5</v>
+        <v>22</v>
       </c>
       <c r="B51" t="s">
-        <v>28</v>
+        <v>4</v>
       </c>
       <c r="C51">
-        <v>19.79</v>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A52" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B52" t="s">
+        <v>6</v>
+      </c>
+      <c r="C52">
+        <v>0</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
-        <v>30</v>
+        <v>5</v>
       </c>
       <c r="B53" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C53">
-        <v>21.84</v>
+        <v>0</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.25">
@@ -1053,10 +1036,10 @@
         <v>5</v>
       </c>
       <c r="B54" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C54">
-        <v>21.73</v>
+        <v>0</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.25">
@@ -1064,10 +1047,10 @@
         <v>5</v>
       </c>
       <c r="B55" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C55">
-        <v>21.77</v>
+        <v>0</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.25">
@@ -1075,10 +1058,10 @@
         <v>5</v>
       </c>
       <c r="B56" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C56">
-        <v>21.78</v>
+        <v>0</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.25">
@@ -1086,10 +1069,10 @@
         <v>5</v>
       </c>
       <c r="B57" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C57">
-        <v>21.42</v>
+        <v>0</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.25">
@@ -1097,10 +1080,10 @@
         <v>5</v>
       </c>
       <c r="B58" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C58">
-        <v>20.88</v>
+        <v>0</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.25">
@@ -1108,10 +1091,10 @@
         <v>5</v>
       </c>
       <c r="B59" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C59">
-        <v>20.87</v>
+        <v>0</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.25">
@@ -1119,10 +1102,10 @@
         <v>5</v>
       </c>
       <c r="B60" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C60">
-        <v>20.81</v>
+        <v>0</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.25">
@@ -1130,10 +1113,10 @@
         <v>5</v>
       </c>
       <c r="B61" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C61">
-        <v>20.77</v>
+        <v>0</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.25">
@@ -1141,10 +1124,10 @@
         <v>5</v>
       </c>
       <c r="B62" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C62">
-        <v>20.82</v>
+        <v>0</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.25">
@@ -1152,10 +1135,10 @@
         <v>5</v>
       </c>
       <c r="B63" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C63">
-        <v>20.68</v>
+        <v>0</v>
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.25">
@@ -1163,10 +1146,10 @@
         <v>5</v>
       </c>
       <c r="B64" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C64">
-        <v>20.83</v>
+        <v>0</v>
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.25">
@@ -1174,32 +1157,21 @@
         <v>5</v>
       </c>
       <c r="B65" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C65">
-        <v>21.05</v>
-      </c>
-    </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A66" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B66" t="s">
-        <v>18</v>
-      </c>
-      <c r="C66">
-        <v>21.39</v>
+        <v>0</v>
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A67" s="1" t="s">
-        <v>5</v>
+        <v>23</v>
       </c>
       <c r="B67" t="s">
-        <v>19</v>
+        <v>4</v>
       </c>
       <c r="C67">
-        <v>21.68</v>
+        <v>9.13861111111111</v>
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.25">
@@ -1207,10 +1179,10 @@
         <v>5</v>
       </c>
       <c r="B68" t="s">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="C68">
-        <v>21.66</v>
+        <v>9.13861111111111</v>
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.25">
@@ -1218,10 +1190,10 @@
         <v>5</v>
       </c>
       <c r="B69" t="s">
-        <v>21</v>
+        <v>7</v>
       </c>
       <c r="C69">
-        <v>21.6</v>
+        <v>9.13861111111111</v>
       </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.25">
@@ -1229,10 +1201,10 @@
         <v>5</v>
       </c>
       <c r="B70" t="s">
-        <v>22</v>
+        <v>8</v>
       </c>
       <c r="C70">
-        <v>21.3</v>
+        <v>9.13861111111111</v>
       </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.25">
@@ -1240,10 +1212,10 @@
         <v>5</v>
       </c>
       <c r="B71" t="s">
-        <v>23</v>
+        <v>9</v>
       </c>
       <c r="C71">
-        <v>21.15</v>
+        <v>9.13861111111111</v>
       </c>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.25">
@@ -1251,10 +1223,10 @@
         <v>5</v>
       </c>
       <c r="B72" t="s">
-        <v>24</v>
+        <v>10</v>
       </c>
       <c r="C72">
-        <v>21.01</v>
+        <v>9.13861111111111</v>
       </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.25">
@@ -1262,10 +1234,10 @@
         <v>5</v>
       </c>
       <c r="B73" t="s">
-        <v>25</v>
+        <v>11</v>
       </c>
       <c r="C73">
-        <v>20.95</v>
+        <v>9.13861111111111</v>
       </c>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.25">
@@ -1273,10 +1245,10 @@
         <v>5</v>
       </c>
       <c r="B74" t="s">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="C74">
-        <v>20.79</v>
+        <v>9.13861111111111</v>
       </c>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.25">
@@ -1284,10 +1256,10 @@
         <v>5</v>
       </c>
       <c r="B75" t="s">
-        <v>27</v>
+        <v>13</v>
       </c>
       <c r="C75">
-        <v>20.27</v>
+        <v>9.13861111111111</v>
       </c>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.25">
@@ -1295,21 +1267,32 @@
         <v>5</v>
       </c>
       <c r="B76" t="s">
-        <v>28</v>
+        <v>14</v>
       </c>
       <c r="C76">
-        <v>19.82</v>
+        <v>9.13861111111111</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A77" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B77" t="s">
+        <v>15</v>
+      </c>
+      <c r="C77">
+        <v>9.13861111111111</v>
       </c>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A78" s="1" t="s">
-        <v>31</v>
+        <v>5</v>
       </c>
       <c r="B78" t="s">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="C78">
-        <v>0</v>
+        <v>9.13861111111111</v>
       </c>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.25">
@@ -1317,10 +1300,10 @@
         <v>5</v>
       </c>
       <c r="B79" t="s">
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="C79">
-        <v>0</v>
+        <v>9.13861111111111</v>
       </c>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.25">
@@ -1328,10 +1311,10 @@
         <v>5</v>
       </c>
       <c r="B80" t="s">
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="C80">
-        <v>0</v>
+        <v>9.13861111111111</v>
       </c>
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.25">
@@ -1339,32 +1322,21 @@
         <v>5</v>
       </c>
       <c r="B81" t="s">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="C81">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A82" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B82" t="s">
-        <v>9</v>
-      </c>
-      <c r="C82">
-        <v>0</v>
+        <v>9.13861111111111</v>
       </c>
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A83" s="1" t="s">
-        <v>5</v>
+        <v>24</v>
       </c>
       <c r="B83" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="C83">
-        <v>0</v>
+        <v>9.13861111111111</v>
       </c>
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.25">
@@ -1372,10 +1344,10 @@
         <v>5</v>
       </c>
       <c r="B84" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="C84">
-        <v>0</v>
+        <v>9.13861111111111</v>
       </c>
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.25">
@@ -1383,10 +1355,10 @@
         <v>5</v>
       </c>
       <c r="B85" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="C85">
-        <v>0</v>
+        <v>9.13861111111111</v>
       </c>
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.25">
@@ -1394,10 +1366,10 @@
         <v>5</v>
       </c>
       <c r="B86" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="C86">
-        <v>0</v>
+        <v>9.13861111111111</v>
       </c>
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.25">
@@ -1405,10 +1377,10 @@
         <v>5</v>
       </c>
       <c r="B87" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="C87">
-        <v>0</v>
+        <v>9.0675</v>
       </c>
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.25">
@@ -1416,10 +1388,10 @@
         <v>5</v>
       </c>
       <c r="B88" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="C88">
-        <v>0</v>
+        <v>9.13861111111111</v>
       </c>
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.25">
@@ -1427,10 +1399,10 @@
         <v>5</v>
       </c>
       <c r="B89" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="C89">
-        <v>0</v>
+        <v>9.13861111111111</v>
       </c>
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.25">
@@ -1438,10 +1410,10 @@
         <v>5</v>
       </c>
       <c r="B90" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="C90">
-        <v>0</v>
+        <v>9.13861111111111</v>
       </c>
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.25">
@@ -1449,10 +1421,10 @@
         <v>5</v>
       </c>
       <c r="B91" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="C91">
-        <v>0</v>
+        <v>9.13861111111111</v>
       </c>
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.25">
@@ -1460,10 +1432,10 @@
         <v>5</v>
       </c>
       <c r="B92" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="C92">
-        <v>0</v>
+        <v>9.13861111111111</v>
       </c>
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.25">
@@ -1471,10 +1443,10 @@
         <v>5</v>
       </c>
       <c r="B93" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="C93">
-        <v>0</v>
+        <v>9.13861111111111</v>
       </c>
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.25">
@@ -1482,10 +1454,10 @@
         <v>5</v>
       </c>
       <c r="B94" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="C94">
-        <v>0</v>
+        <v>9.13861111111111</v>
       </c>
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.25">
@@ -1493,10 +1465,10 @@
         <v>5</v>
       </c>
       <c r="B95" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="C95">
-        <v>0</v>
+        <v>9.13861111111111</v>
       </c>
     </row>
     <row r="96" spans="1:3" x14ac:dyDescent="0.25">
@@ -1504,10 +1476,10 @@
         <v>5</v>
       </c>
       <c r="B96" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="C96">
-        <v>0</v>
+        <v>9.13861111111111</v>
       </c>
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.25">
@@ -1515,32 +1487,21 @@
         <v>5</v>
       </c>
       <c r="B97" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="C97">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A98" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B98" t="s">
-        <v>25</v>
-      </c>
-      <c r="C98">
-        <v>0</v>
+        <v>9.13861111111111</v>
       </c>
     </row>
     <row r="99" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A99" s="1" t="s">
-        <v>5</v>
+        <v>25</v>
       </c>
       <c r="B99" t="s">
-        <v>26</v>
+        <v>4</v>
       </c>
       <c r="C99">
-        <v>0</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="100" spans="1:3" x14ac:dyDescent="0.25">
@@ -1548,10 +1509,10 @@
         <v>5</v>
       </c>
       <c r="B100" t="s">
-        <v>27</v>
+        <v>6</v>
       </c>
       <c r="C100">
-        <v>0</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="101" spans="1:3" x14ac:dyDescent="0.25">
@@ -1559,21 +1520,32 @@
         <v>5</v>
       </c>
       <c r="B101" t="s">
-        <v>28</v>
+        <v>7</v>
       </c>
       <c r="C101">
-        <v>0</v>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A102" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B102" t="s">
+        <v>8</v>
+      </c>
+      <c r="C102">
+        <v>0.5</v>
       </c>
     </row>
     <row r="103" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A103" s="1" t="s">
-        <v>32</v>
+        <v>5</v>
       </c>
       <c r="B103" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="C103">
-        <v>9.13861111111111</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="104" spans="1:3" x14ac:dyDescent="0.25">
@@ -1581,10 +1553,10 @@
         <v>5</v>
       </c>
       <c r="B104" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="C104">
-        <v>9.13861111111111</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="105" spans="1:3" x14ac:dyDescent="0.25">
@@ -1592,10 +1564,10 @@
         <v>5</v>
       </c>
       <c r="B105" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="C105">
-        <v>9.13861111111111</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="106" spans="1:3" x14ac:dyDescent="0.25">
@@ -1603,10 +1575,10 @@
         <v>5</v>
       </c>
       <c r="B106" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="C106">
-        <v>9.13861111111111</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="107" spans="1:3" x14ac:dyDescent="0.25">
@@ -1614,10 +1586,10 @@
         <v>5</v>
       </c>
       <c r="B107" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C107">
-        <v>9.13861111111111</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="108" spans="1:3" x14ac:dyDescent="0.25">
@@ -1625,10 +1597,10 @@
         <v>5</v>
       </c>
       <c r="B108" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="C108">
-        <v>9.13861111111111</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="109" spans="1:3" x14ac:dyDescent="0.25">
@@ -1636,10 +1608,10 @@
         <v>5</v>
       </c>
       <c r="B109" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="C109">
-        <v>9.13861111111111</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="110" spans="1:3" x14ac:dyDescent="0.25">
@@ -1647,10 +1619,10 @@
         <v>5</v>
       </c>
       <c r="B110" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="C110">
-        <v>9.13861111111111</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="111" spans="1:3" x14ac:dyDescent="0.25">
@@ -1658,10 +1630,10 @@
         <v>5</v>
       </c>
       <c r="B111" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="C111">
-        <v>9.13861111111111</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="112" spans="1:3" x14ac:dyDescent="0.25">
@@ -1669,10 +1641,10 @@
         <v>5</v>
       </c>
       <c r="B112" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="C112">
-        <v>9.13861111111111</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="113" spans="1:3" x14ac:dyDescent="0.25">
@@ -1680,32 +1652,21 @@
         <v>5</v>
       </c>
       <c r="B113" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="C113">
-        <v>9.13861111111111</v>
-      </c>
-    </row>
-    <row r="114" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A114" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B114" t="s">
-        <v>16</v>
-      </c>
-      <c r="C114">
-        <v>9.13861111111111</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="115" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A115" s="1" t="s">
-        <v>5</v>
+        <v>25</v>
       </c>
       <c r="B115" t="s">
-        <v>17</v>
+        <v>4</v>
       </c>
       <c r="C115">
-        <v>9.13861111111111</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="116" spans="1:3" x14ac:dyDescent="0.25">
@@ -1713,10 +1674,10 @@
         <v>5</v>
       </c>
       <c r="B116" t="s">
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="C116">
-        <v>9.13861111111111</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="117" spans="1:3" x14ac:dyDescent="0.25">
@@ -1724,10 +1685,10 @@
         <v>5</v>
       </c>
       <c r="B117" t="s">
-        <v>19</v>
+        <v>7</v>
       </c>
       <c r="C117">
-        <v>9.13861111111111</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="118" spans="1:3" x14ac:dyDescent="0.25">
@@ -1735,10 +1696,10 @@
         <v>5</v>
       </c>
       <c r="B118" t="s">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="C118">
-        <v>9.13861111111111</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="119" spans="1:3" x14ac:dyDescent="0.25">
@@ -1746,10 +1707,10 @@
         <v>5</v>
       </c>
       <c r="B119" t="s">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="C119">
-        <v>9.13861111111111</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="120" spans="1:3" x14ac:dyDescent="0.25">
@@ -1757,10 +1718,10 @@
         <v>5</v>
       </c>
       <c r="B120" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="C120">
-        <v>9.13861111111111</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="121" spans="1:3" x14ac:dyDescent="0.25">
@@ -1768,10 +1729,10 @@
         <v>5</v>
       </c>
       <c r="B121" t="s">
-        <v>23</v>
+        <v>11</v>
       </c>
       <c r="C121">
-        <v>9.13861111111111</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="122" spans="1:3" x14ac:dyDescent="0.25">
@@ -1779,10 +1740,10 @@
         <v>5</v>
       </c>
       <c r="B122" t="s">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="C122">
-        <v>9.13861111111111</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="123" spans="1:3" x14ac:dyDescent="0.25">
@@ -1790,10 +1751,10 @@
         <v>5</v>
       </c>
       <c r="B123" t="s">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="C123">
-        <v>9.13861111111111</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="124" spans="1:3" x14ac:dyDescent="0.25">
@@ -1801,10 +1762,10 @@
         <v>5</v>
       </c>
       <c r="B124" t="s">
-        <v>26</v>
+        <v>14</v>
       </c>
       <c r="C124">
-        <v>9.13861111111111</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="125" spans="1:3" x14ac:dyDescent="0.25">
@@ -1812,10 +1773,10 @@
         <v>5</v>
       </c>
       <c r="B125" t="s">
-        <v>27</v>
+        <v>15</v>
       </c>
       <c r="C125">
-        <v>9.13861111111111</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="126" spans="1:3" x14ac:dyDescent="0.25">
@@ -1823,10 +1784,373 @@
         <v>5</v>
       </c>
       <c r="B126" t="s">
+        <v>16</v>
+      </c>
+      <c r="C126">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="127" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A127" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B127" t="s">
+        <v>17</v>
+      </c>
+      <c r="C127">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="128" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A128" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B128" t="s">
+        <v>18</v>
+      </c>
+      <c r="C128">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="129" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A129" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B129" t="s">
+        <v>19</v>
+      </c>
+      <c r="C129">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="131" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A131" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B131" t="s">
+        <v>4</v>
+      </c>
+      <c r="C131">
+        <v>8833</v>
+      </c>
+    </row>
+    <row r="132" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A132" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B132" t="s">
+        <v>6</v>
+      </c>
+      <c r="C132">
+        <v>8833</v>
+      </c>
+    </row>
+    <row r="133" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A133" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B133" t="s">
+        <v>7</v>
+      </c>
+      <c r="C133">
+        <v>8833</v>
+      </c>
+    </row>
+    <row r="134" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A134" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B134" t="s">
+        <v>8</v>
+      </c>
+      <c r="C134">
+        <v>8577</v>
+      </c>
+    </row>
+    <row r="135" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A135" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B135" t="s">
+        <v>9</v>
+      </c>
+      <c r="C135">
+        <v>1921</v>
+      </c>
+    </row>
+    <row r="136" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A136" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B136" t="s">
+        <v>10</v>
+      </c>
+      <c r="C136">
+        <v>897</v>
+      </c>
+    </row>
+    <row r="137" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A137" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B137" t="s">
+        <v>11</v>
+      </c>
+      <c r="C137">
+        <v>8577</v>
+      </c>
+    </row>
+    <row r="138" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A138" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B138" t="s">
+        <v>12</v>
+      </c>
+      <c r="C138">
+        <v>8321</v>
+      </c>
+    </row>
+    <row r="139" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A139" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B139" t="s">
+        <v>13</v>
+      </c>
+      <c r="C139">
+        <v>8321</v>
+      </c>
+    </row>
+    <row r="140" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A140" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B140" t="s">
+        <v>14</v>
+      </c>
+      <c r="C140">
+        <v>8577</v>
+      </c>
+    </row>
+    <row r="141" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A141" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B141" t="s">
+        <v>15</v>
+      </c>
+      <c r="C141">
+        <v>8321</v>
+      </c>
+    </row>
+    <row r="142" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A142" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B142" t="s">
+        <v>16</v>
+      </c>
+      <c r="C142">
+        <v>37504</v>
+      </c>
+    </row>
+    <row r="143" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A143" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B143" t="s">
+        <v>17</v>
+      </c>
+      <c r="C143">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="144" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A144" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B144" t="s">
+        <v>18</v>
+      </c>
+      <c r="C144">
+        <v>57472</v>
+      </c>
+    </row>
+    <row r="145" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A145" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B145" t="s">
+        <v>19</v>
+      </c>
+      <c r="C145">
+        <v>23168</v>
+      </c>
+    </row>
+    <row r="147" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A147" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B147" t="s">
+        <v>4</v>
+      </c>
+      <c r="C147" t="s">
         <v>28</v>
       </c>
-      <c r="C126">
-        <v>9.13861111111111</v>
+    </row>
+    <row r="148" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A148" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B148" t="s">
+        <v>6</v>
+      </c>
+      <c r="C148" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="149" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A149" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B149" t="s">
+        <v>7</v>
+      </c>
+      <c r="C149" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="150" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A150" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B150" t="s">
+        <v>8</v>
+      </c>
+      <c r="C150" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="151" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A151" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B151" t="s">
+        <v>9</v>
+      </c>
+      <c r="C151" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="152" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A152" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B152" t="s">
+        <v>10</v>
+      </c>
+      <c r="C152" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="153" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A153" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B153" t="s">
+        <v>11</v>
+      </c>
+      <c r="C153" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="154" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A154" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B154" t="s">
+        <v>12</v>
+      </c>
+      <c r="C154" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="155" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A155" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B155" t="s">
+        <v>13</v>
+      </c>
+      <c r="C155" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="156" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A156" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B156" t="s">
+        <v>14</v>
+      </c>
+      <c r="C156" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="157" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A157" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B157" t="s">
+        <v>15</v>
+      </c>
+      <c r="C157" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="158" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A158" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B158" t="s">
+        <v>16</v>
+      </c>
+      <c r="C158" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="159" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A159" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B159" t="s">
+        <v>17</v>
+      </c>
+      <c r="C159" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="160" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A160" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B160" t="s">
+        <v>18</v>
+      </c>
+      <c r="C160" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="161" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A161" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B161" t="s">
+        <v>19</v>
+      </c>
+      <c r="C161" t="s">
+        <v>30</v>
       </c>
     </row>
   </sheetData>

--- a/data.xlsx
+++ b/data.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="318" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1515" uniqueCount="87">
   <si>
     <t>label</t>
   </si>
@@ -25,52 +25,223 @@
     <t>Об`єм (маса) каналу витрати 1</t>
   </si>
   <si>
-    <t>10:10:2020:0</t>
+    <t>14:9:2020:12</t>
   </si>
   <si>
     <t/>
   </si>
   <si>
-    <t>11:10:2020:0</t>
-  </si>
-  <si>
-    <t>12:10:2020:0</t>
-  </si>
-  <si>
-    <t>13:10:2020:0</t>
-  </si>
-  <si>
-    <t>14:10:2020:0</t>
-  </si>
-  <si>
-    <t>15:10:2020:0</t>
-  </si>
-  <si>
-    <t>16:10:2020:0</t>
-  </si>
-  <si>
-    <t>17:10:2020:0</t>
-  </si>
-  <si>
-    <t>18:10:2020:0</t>
-  </si>
-  <si>
-    <t>19:10:2020:0</t>
-  </si>
-  <si>
-    <t>20:10:2020:0</t>
-  </si>
-  <si>
-    <t>21:10:2020:0</t>
-  </si>
-  <si>
-    <t>22:10:2020:0</t>
-  </si>
-  <si>
-    <t>23:10:2020:0</t>
-  </si>
-  <si>
-    <t>24:10:2020:0</t>
+    <t>14:9:2020:13</t>
+  </si>
+  <si>
+    <t>14:9:2020:14</t>
+  </si>
+  <si>
+    <t>14:9:2020:15</t>
+  </si>
+  <si>
+    <t>14:9:2020:16</t>
+  </si>
+  <si>
+    <t>14:9:2020:17</t>
+  </si>
+  <si>
+    <t>14:9:2020:18</t>
+  </si>
+  <si>
+    <t>14:9:2020:19</t>
+  </si>
+  <si>
+    <t>14:9:2020:20</t>
+  </si>
+  <si>
+    <t>14:9:2020:21</t>
+  </si>
+  <si>
+    <t>14:9:2020:22</t>
+  </si>
+  <si>
+    <t>14:9:2020:23</t>
+  </si>
+  <si>
+    <t>15:9:2020:0</t>
+  </si>
+  <si>
+    <t>15:9:2020:1</t>
+  </si>
+  <si>
+    <t>15:9:2020:2</t>
+  </si>
+  <si>
+    <t>15:9:2020:3</t>
+  </si>
+  <si>
+    <t>15:9:2020:4</t>
+  </si>
+  <si>
+    <t>15:9:2020:5</t>
+  </si>
+  <si>
+    <t>15:9:2020:6</t>
+  </si>
+  <si>
+    <t>15:9:2020:7</t>
+  </si>
+  <si>
+    <t>15:9:2020:8</t>
+  </si>
+  <si>
+    <t>15:9:2020:9</t>
+  </si>
+  <si>
+    <t>15:9:2020:10</t>
+  </si>
+  <si>
+    <t>15:9:2020:11</t>
+  </si>
+  <si>
+    <t>15:9:2020:12</t>
+  </si>
+  <si>
+    <t>15:9:2020:13</t>
+  </si>
+  <si>
+    <t>15:9:2020:14</t>
+  </si>
+  <si>
+    <t>15:9:2020:15</t>
+  </si>
+  <si>
+    <t>15:9:2020:16</t>
+  </si>
+  <si>
+    <t>15:9:2020:17</t>
+  </si>
+  <si>
+    <t>15:9:2020:18</t>
+  </si>
+  <si>
+    <t>15:9:2020:19</t>
+  </si>
+  <si>
+    <t>15:9:2020:20</t>
+  </si>
+  <si>
+    <t>15:9:2020:21</t>
+  </si>
+  <si>
+    <t>15:9:2020:22</t>
+  </si>
+  <si>
+    <t>15:9:2020:23</t>
+  </si>
+  <si>
+    <t>16:9:2020:0</t>
+  </si>
+  <si>
+    <t>16:9:2020:1</t>
+  </si>
+  <si>
+    <t>16:9:2020:2</t>
+  </si>
+  <si>
+    <t>16:9:2020:3</t>
+  </si>
+  <si>
+    <t>16:9:2020:4</t>
+  </si>
+  <si>
+    <t>16:9:2020:5</t>
+  </si>
+  <si>
+    <t>16:9:2020:6</t>
+  </si>
+  <si>
+    <t>16:9:2020:7</t>
+  </si>
+  <si>
+    <t>16:9:2020:8</t>
+  </si>
+  <si>
+    <t>16:9:2020:9</t>
+  </si>
+  <si>
+    <t>16:9:2020:10</t>
+  </si>
+  <si>
+    <t>16:9:2020:11</t>
+  </si>
+  <si>
+    <t>16:9:2020:12</t>
+  </si>
+  <si>
+    <t>16:9:2020:13</t>
+  </si>
+  <si>
+    <t>16:9:2020:14</t>
+  </si>
+  <si>
+    <t>16:9:2020:15</t>
+  </si>
+  <si>
+    <t>16:9:2020:16</t>
+  </si>
+  <si>
+    <t>16:9:2020:17</t>
+  </si>
+  <si>
+    <t>16:9:2020:18</t>
+  </si>
+  <si>
+    <t>16:9:2020:19</t>
+  </si>
+  <si>
+    <t>16:9:2020:20</t>
+  </si>
+  <si>
+    <t>16:9:2020:21</t>
+  </si>
+  <si>
+    <t>16:9:2020:22</t>
+  </si>
+  <si>
+    <t>16:9:2020:23</t>
+  </si>
+  <si>
+    <t>17:9:2020:0</t>
+  </si>
+  <si>
+    <t>17:9:2020:1</t>
+  </si>
+  <si>
+    <t>17:9:2020:2</t>
+  </si>
+  <si>
+    <t>17:9:2020:3</t>
+  </si>
+  <si>
+    <t>17:9:2020:4</t>
+  </si>
+  <si>
+    <t>17:9:2020:5</t>
+  </si>
+  <si>
+    <t>17:9:2020:6</t>
+  </si>
+  <si>
+    <t>17:9:2020:7</t>
+  </si>
+  <si>
+    <t>17:9:2020:8</t>
+  </si>
+  <si>
+    <t>17:9:2020:9</t>
+  </si>
+  <si>
+    <t>17:9:2020:10</t>
+  </si>
+  <si>
+    <t>17:9:2020:11</t>
   </si>
   <si>
     <t>Значення температури ТСП 1 * 100</t>
@@ -95,9 +266,6 @@
   </si>
   <si>
     <t>Температура всередині корпусу</t>
-  </si>
-  <si>
-    <t/>
   </si>
   <si>
     <t/>
@@ -484,7 +652,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C161"/>
+  <dimension ref="A1:C731"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <cols>
     <col min="1" max="1" width="64" style="1" customWidth="1"/>
@@ -668,15 +836,26 @@
         <v>0</v>
       </c>
     </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B18" t="s">
+        <v>20</v>
+      </c>
+      <c r="C18">
+        <v>0</v>
+      </c>
+    </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="B19" t="s">
-        <v>4</v>
+        <v>21</v>
       </c>
       <c r="C19">
-        <v>22.72</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
@@ -684,10 +863,10 @@
         <v>5</v>
       </c>
       <c r="B20" t="s">
-        <v>6</v>
+        <v>22</v>
       </c>
       <c r="C20">
-        <v>22.1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
@@ -695,10 +874,10 @@
         <v>5</v>
       </c>
       <c r="B21" t="s">
-        <v>7</v>
+        <v>23</v>
       </c>
       <c r="C21">
-        <v>21.85</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
@@ -706,10 +885,10 @@
         <v>5</v>
       </c>
       <c r="B22" t="s">
-        <v>8</v>
+        <v>24</v>
       </c>
       <c r="C22">
-        <v>21.68</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
@@ -717,10 +896,10 @@
         <v>5</v>
       </c>
       <c r="B23" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="C23">
-        <v>21.73</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
@@ -728,10 +907,10 @@
         <v>5</v>
       </c>
       <c r="B24" t="s">
-        <v>10</v>
+        <v>26</v>
       </c>
       <c r="C24">
-        <v>21.74</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
@@ -739,10 +918,10 @@
         <v>5</v>
       </c>
       <c r="B25" t="s">
-        <v>11</v>
+        <v>27</v>
       </c>
       <c r="C25">
-        <v>21.4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
@@ -750,10 +929,10 @@
         <v>5</v>
       </c>
       <c r="B26" t="s">
-        <v>12</v>
+        <v>28</v>
       </c>
       <c r="C26">
-        <v>20.85</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
@@ -761,10 +940,10 @@
         <v>5</v>
       </c>
       <c r="B27" t="s">
-        <v>13</v>
+        <v>29</v>
       </c>
       <c r="C27">
-        <v>20.84</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
@@ -772,10 +951,10 @@
         <v>5</v>
       </c>
       <c r="B28" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="C28">
-        <v>20.81</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
@@ -783,10 +962,10 @@
         <v>5</v>
       </c>
       <c r="B29" t="s">
-        <v>15</v>
+        <v>31</v>
       </c>
       <c r="C29">
-        <v>20.74</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
@@ -794,10 +973,10 @@
         <v>5</v>
       </c>
       <c r="B30" t="s">
-        <v>16</v>
+        <v>32</v>
       </c>
       <c r="C30">
-        <v>20.79</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
@@ -805,10 +984,10 @@
         <v>5</v>
       </c>
       <c r="B31" t="s">
-        <v>17</v>
+        <v>33</v>
       </c>
       <c r="C31">
-        <v>20.67</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
@@ -816,10 +995,10 @@
         <v>5</v>
       </c>
       <c r="B32" t="s">
-        <v>18</v>
+        <v>34</v>
       </c>
       <c r="C32">
-        <v>20.81</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
@@ -827,21 +1006,32 @@
         <v>5</v>
       </c>
       <c r="B33" t="s">
-        <v>19</v>
+        <v>35</v>
       </c>
       <c r="C33">
-        <v>21.03</v>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A34" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B34" t="s">
+        <v>36</v>
+      </c>
+      <c r="C34">
+        <v>0</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
-        <v>21</v>
+        <v>5</v>
       </c>
       <c r="B35" t="s">
-        <v>4</v>
+        <v>37</v>
       </c>
       <c r="C35">
-        <v>22.73</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
@@ -849,10 +1039,10 @@
         <v>5</v>
       </c>
       <c r="B36" t="s">
-        <v>6</v>
+        <v>38</v>
       </c>
       <c r="C36">
-        <v>22.13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
@@ -860,10 +1050,10 @@
         <v>5</v>
       </c>
       <c r="B37" t="s">
-        <v>7</v>
+        <v>39</v>
       </c>
       <c r="C37">
-        <v>21.84</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
@@ -871,10 +1061,10 @@
         <v>5</v>
       </c>
       <c r="B38" t="s">
-        <v>8</v>
+        <v>40</v>
       </c>
       <c r="C38">
-        <v>21.73</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
@@ -882,10 +1072,10 @@
         <v>5</v>
       </c>
       <c r="B39" t="s">
-        <v>9</v>
+        <v>41</v>
       </c>
       <c r="C39">
-        <v>21.77</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
@@ -893,10 +1083,10 @@
         <v>5</v>
       </c>
       <c r="B40" t="s">
-        <v>10</v>
+        <v>42</v>
       </c>
       <c r="C40">
-        <v>21.78</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
@@ -904,10 +1094,10 @@
         <v>5</v>
       </c>
       <c r="B41" t="s">
-        <v>11</v>
+        <v>43</v>
       </c>
       <c r="C41">
-        <v>21.42</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">
@@ -915,10 +1105,10 @@
         <v>5</v>
       </c>
       <c r="B42" t="s">
-        <v>12</v>
+        <v>44</v>
       </c>
       <c r="C42">
-        <v>20.88</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.25">
@@ -926,10 +1116,10 @@
         <v>5</v>
       </c>
       <c r="B43" t="s">
-        <v>13</v>
+        <v>45</v>
       </c>
       <c r="C43">
-        <v>20.87</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.25">
@@ -937,10 +1127,10 @@
         <v>5</v>
       </c>
       <c r="B44" t="s">
-        <v>14</v>
+        <v>46</v>
       </c>
       <c r="C44">
-        <v>20.81</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.25">
@@ -948,10 +1138,10 @@
         <v>5</v>
       </c>
       <c r="B45" t="s">
-        <v>15</v>
+        <v>47</v>
       </c>
       <c r="C45">
-        <v>20.77</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.25">
@@ -959,10 +1149,10 @@
         <v>5</v>
       </c>
       <c r="B46" t="s">
-        <v>16</v>
+        <v>48</v>
       </c>
       <c r="C46">
-        <v>20.82</v>
+        <v>0</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.25">
@@ -970,10 +1160,10 @@
         <v>5</v>
       </c>
       <c r="B47" t="s">
-        <v>17</v>
+        <v>49</v>
       </c>
       <c r="C47">
-        <v>20.68</v>
+        <v>0</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.25">
@@ -981,10 +1171,10 @@
         <v>5</v>
       </c>
       <c r="B48" t="s">
-        <v>18</v>
+        <v>50</v>
       </c>
       <c r="C48">
-        <v>20.83</v>
+        <v>0</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.25">
@@ -992,18 +1182,29 @@
         <v>5</v>
       </c>
       <c r="B49" t="s">
-        <v>19</v>
+        <v>51</v>
       </c>
       <c r="C49">
-        <v>21.05</v>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A50" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B50" t="s">
+        <v>52</v>
+      </c>
+      <c r="C50">
+        <v>0</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
-        <v>22</v>
+        <v>5</v>
       </c>
       <c r="B51" t="s">
-        <v>4</v>
+        <v>53</v>
       </c>
       <c r="C51">
         <v>0</v>
@@ -1014,7 +1215,7 @@
         <v>5</v>
       </c>
       <c r="B52" t="s">
-        <v>6</v>
+        <v>54</v>
       </c>
       <c r="C52">
         <v>0</v>
@@ -1025,7 +1226,7 @@
         <v>5</v>
       </c>
       <c r="B53" t="s">
-        <v>7</v>
+        <v>55</v>
       </c>
       <c r="C53">
         <v>0</v>
@@ -1036,7 +1237,7 @@
         <v>5</v>
       </c>
       <c r="B54" t="s">
-        <v>8</v>
+        <v>56</v>
       </c>
       <c r="C54">
         <v>0</v>
@@ -1047,7 +1248,7 @@
         <v>5</v>
       </c>
       <c r="B55" t="s">
-        <v>9</v>
+        <v>57</v>
       </c>
       <c r="C55">
         <v>0</v>
@@ -1058,7 +1259,7 @@
         <v>5</v>
       </c>
       <c r="B56" t="s">
-        <v>10</v>
+        <v>58</v>
       </c>
       <c r="C56">
         <v>0</v>
@@ -1069,7 +1270,7 @@
         <v>5</v>
       </c>
       <c r="B57" t="s">
-        <v>11</v>
+        <v>59</v>
       </c>
       <c r="C57">
         <v>0</v>
@@ -1080,7 +1281,7 @@
         <v>5</v>
       </c>
       <c r="B58" t="s">
-        <v>12</v>
+        <v>60</v>
       </c>
       <c r="C58">
         <v>0</v>
@@ -1091,7 +1292,7 @@
         <v>5</v>
       </c>
       <c r="B59" t="s">
-        <v>13</v>
+        <v>61</v>
       </c>
       <c r="C59">
         <v>0</v>
@@ -1102,7 +1303,7 @@
         <v>5</v>
       </c>
       <c r="B60" t="s">
-        <v>14</v>
+        <v>62</v>
       </c>
       <c r="C60">
         <v>0</v>
@@ -1113,7 +1314,7 @@
         <v>5</v>
       </c>
       <c r="B61" t="s">
-        <v>15</v>
+        <v>63</v>
       </c>
       <c r="C61">
         <v>0</v>
@@ -1124,7 +1325,7 @@
         <v>5</v>
       </c>
       <c r="B62" t="s">
-        <v>16</v>
+        <v>64</v>
       </c>
       <c r="C62">
         <v>0</v>
@@ -1135,7 +1336,7 @@
         <v>5</v>
       </c>
       <c r="B63" t="s">
-        <v>17</v>
+        <v>65</v>
       </c>
       <c r="C63">
         <v>0</v>
@@ -1146,7 +1347,7 @@
         <v>5</v>
       </c>
       <c r="B64" t="s">
-        <v>18</v>
+        <v>66</v>
       </c>
       <c r="C64">
         <v>0</v>
@@ -1157,21 +1358,32 @@
         <v>5</v>
       </c>
       <c r="B65" t="s">
-        <v>19</v>
+        <v>67</v>
       </c>
       <c r="C65">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A66" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B66" t="s">
+        <v>68</v>
+      </c>
+      <c r="C66">
         <v>0</v>
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A67" s="1" t="s">
-        <v>23</v>
+        <v>5</v>
       </c>
       <c r="B67" t="s">
-        <v>4</v>
+        <v>69</v>
       </c>
       <c r="C67">
-        <v>9.13861111111111</v>
+        <v>0</v>
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.25">
@@ -1179,10 +1391,10 @@
         <v>5</v>
       </c>
       <c r="B68" t="s">
-        <v>6</v>
+        <v>70</v>
       </c>
       <c r="C68">
-        <v>9.13861111111111</v>
+        <v>0</v>
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.25">
@@ -1190,10 +1402,10 @@
         <v>5</v>
       </c>
       <c r="B69" t="s">
-        <v>7</v>
+        <v>71</v>
       </c>
       <c r="C69">
-        <v>9.13861111111111</v>
+        <v>0</v>
       </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.25">
@@ -1201,10 +1413,10 @@
         <v>5</v>
       </c>
       <c r="B70" t="s">
-        <v>8</v>
+        <v>72</v>
       </c>
       <c r="C70">
-        <v>9.13861111111111</v>
+        <v>0</v>
       </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.25">
@@ -1212,10 +1424,10 @@
         <v>5</v>
       </c>
       <c r="B71" t="s">
-        <v>9</v>
+        <v>73</v>
       </c>
       <c r="C71">
-        <v>9.13861111111111</v>
+        <v>0</v>
       </c>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.25">
@@ -1223,10 +1435,10 @@
         <v>5</v>
       </c>
       <c r="B72" t="s">
-        <v>10</v>
+        <v>74</v>
       </c>
       <c r="C72">
-        <v>9.13861111111111</v>
+        <v>0</v>
       </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.25">
@@ -1234,10 +1446,10 @@
         <v>5</v>
       </c>
       <c r="B73" t="s">
-        <v>11</v>
+        <v>75</v>
       </c>
       <c r="C73">
-        <v>9.13861111111111</v>
+        <v>0</v>
       </c>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.25">
@@ -1245,32 +1457,21 @@
         <v>5</v>
       </c>
       <c r="B74" t="s">
-        <v>12</v>
+        <v>76</v>
       </c>
       <c r="C74">
-        <v>9.13861111111111</v>
-      </c>
-    </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A75" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B75" t="s">
-        <v>13</v>
-      </c>
-      <c r="C75">
-        <v>9.13861111111111</v>
+        <v>0</v>
       </c>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A76" s="1" t="s">
-        <v>5</v>
+        <v>77</v>
       </c>
       <c r="B76" t="s">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="C76">
-        <v>9.13861111111111</v>
+        <v>-50</v>
       </c>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.25">
@@ -1278,10 +1479,10 @@
         <v>5</v>
       </c>
       <c r="B77" t="s">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="C77">
-        <v>9.13861111111111</v>
+        <v>-50</v>
       </c>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.25">
@@ -1289,10 +1490,10 @@
         <v>5</v>
       </c>
       <c r="B78" t="s">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="C78">
-        <v>9.13861111111111</v>
+        <v>-50</v>
       </c>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.25">
@@ -1300,10 +1501,10 @@
         <v>5</v>
       </c>
       <c r="B79" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="C79">
-        <v>9.13861111111111</v>
+        <v>-50</v>
       </c>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.25">
@@ -1311,10 +1512,10 @@
         <v>5</v>
       </c>
       <c r="B80" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="C80">
-        <v>9.13861111111111</v>
+        <v>-50</v>
       </c>
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.25">
@@ -1322,21 +1523,32 @@
         <v>5</v>
       </c>
       <c r="B81" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="C81">
-        <v>9.13861111111111</v>
+        <v>-50</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A82" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B82" t="s">
+        <v>11</v>
+      </c>
+      <c r="C82">
+        <v>-50</v>
       </c>
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A83" s="1" t="s">
-        <v>24</v>
+        <v>5</v>
       </c>
       <c r="B83" t="s">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="C83">
-        <v>9.13861111111111</v>
+        <v>-50</v>
       </c>
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.25">
@@ -1344,10 +1556,10 @@
         <v>5</v>
       </c>
       <c r="B84" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="C84">
-        <v>9.13861111111111</v>
+        <v>-50</v>
       </c>
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.25">
@@ -1355,10 +1567,10 @@
         <v>5</v>
       </c>
       <c r="B85" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="C85">
-        <v>9.13861111111111</v>
+        <v>-50</v>
       </c>
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.25">
@@ -1366,10 +1578,10 @@
         <v>5</v>
       </c>
       <c r="B86" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="C86">
-        <v>9.13861111111111</v>
+        <v>-50</v>
       </c>
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.25">
@@ -1377,10 +1589,10 @@
         <v>5</v>
       </c>
       <c r="B87" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="C87">
-        <v>9.0675</v>
+        <v>-50</v>
       </c>
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.25">
@@ -1388,10 +1600,10 @@
         <v>5</v>
       </c>
       <c r="B88" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="C88">
-        <v>9.13861111111111</v>
+        <v>-50</v>
       </c>
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.25">
@@ -1399,10 +1611,10 @@
         <v>5</v>
       </c>
       <c r="B89" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="C89">
-        <v>9.13861111111111</v>
+        <v>-50</v>
       </c>
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.25">
@@ -1410,10 +1622,10 @@
         <v>5</v>
       </c>
       <c r="B90" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="C90">
-        <v>9.13861111111111</v>
+        <v>-50</v>
       </c>
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.25">
@@ -1421,10 +1633,10 @@
         <v>5</v>
       </c>
       <c r="B91" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="C91">
-        <v>9.13861111111111</v>
+        <v>-50</v>
       </c>
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.25">
@@ -1432,10 +1644,10 @@
         <v>5</v>
       </c>
       <c r="B92" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="C92">
-        <v>9.13861111111111</v>
+        <v>-50</v>
       </c>
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.25">
@@ -1443,10 +1655,10 @@
         <v>5</v>
       </c>
       <c r="B93" t="s">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="C93">
-        <v>9.13861111111111</v>
+        <v>-50</v>
       </c>
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.25">
@@ -1454,10 +1666,10 @@
         <v>5</v>
       </c>
       <c r="B94" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="C94">
-        <v>9.13861111111111</v>
+        <v>-50</v>
       </c>
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.25">
@@ -1465,10 +1677,10 @@
         <v>5</v>
       </c>
       <c r="B95" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="C95">
-        <v>9.13861111111111</v>
+        <v>-50</v>
       </c>
     </row>
     <row r="96" spans="1:3" x14ac:dyDescent="0.25">
@@ -1476,10 +1688,10 @@
         <v>5</v>
       </c>
       <c r="B96" t="s">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="C96">
-        <v>9.13861111111111</v>
+        <v>-50</v>
       </c>
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.25">
@@ -1487,21 +1699,32 @@
         <v>5</v>
       </c>
       <c r="B97" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="C97">
-        <v>9.13861111111111</v>
+        <v>-50</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A98" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B98" t="s">
+        <v>27</v>
+      </c>
+      <c r="C98">
+        <v>-50</v>
       </c>
     </row>
     <row r="99" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A99" s="1" t="s">
-        <v>25</v>
+        <v>5</v>
       </c>
       <c r="B99" t="s">
-        <v>4</v>
+        <v>28</v>
       </c>
       <c r="C99">
-        <v>0.5</v>
+        <v>-50</v>
       </c>
     </row>
     <row r="100" spans="1:3" x14ac:dyDescent="0.25">
@@ -1509,10 +1732,10 @@
         <v>5</v>
       </c>
       <c r="B100" t="s">
-        <v>6</v>
+        <v>29</v>
       </c>
       <c r="C100">
-        <v>0.5</v>
+        <v>-50</v>
       </c>
     </row>
     <row r="101" spans="1:3" x14ac:dyDescent="0.25">
@@ -1520,10 +1743,10 @@
         <v>5</v>
       </c>
       <c r="B101" t="s">
-        <v>7</v>
+        <v>30</v>
       </c>
       <c r="C101">
-        <v>0.5</v>
+        <v>-50</v>
       </c>
     </row>
     <row r="102" spans="1:3" x14ac:dyDescent="0.25">
@@ -1531,10 +1754,10 @@
         <v>5</v>
       </c>
       <c r="B102" t="s">
-        <v>8</v>
+        <v>31</v>
       </c>
       <c r="C102">
-        <v>0.5</v>
+        <v>-50</v>
       </c>
     </row>
     <row r="103" spans="1:3" x14ac:dyDescent="0.25">
@@ -1542,10 +1765,10 @@
         <v>5</v>
       </c>
       <c r="B103" t="s">
-        <v>9</v>
+        <v>32</v>
       </c>
       <c r="C103">
-        <v>0.5</v>
+        <v>-50</v>
       </c>
     </row>
     <row r="104" spans="1:3" x14ac:dyDescent="0.25">
@@ -1553,10 +1776,10 @@
         <v>5</v>
       </c>
       <c r="B104" t="s">
-        <v>10</v>
+        <v>33</v>
       </c>
       <c r="C104">
-        <v>0.5</v>
+        <v>-50</v>
       </c>
     </row>
     <row r="105" spans="1:3" x14ac:dyDescent="0.25">
@@ -1564,10 +1787,10 @@
         <v>5</v>
       </c>
       <c r="B105" t="s">
-        <v>11</v>
+        <v>34</v>
       </c>
       <c r="C105">
-        <v>0.5</v>
+        <v>-50</v>
       </c>
     </row>
     <row r="106" spans="1:3" x14ac:dyDescent="0.25">
@@ -1575,10 +1798,10 @@
         <v>5</v>
       </c>
       <c r="B106" t="s">
-        <v>12</v>
+        <v>35</v>
       </c>
       <c r="C106">
-        <v>0.5</v>
+        <v>-50</v>
       </c>
     </row>
     <row r="107" spans="1:3" x14ac:dyDescent="0.25">
@@ -1586,10 +1809,10 @@
         <v>5</v>
       </c>
       <c r="B107" t="s">
-        <v>13</v>
+        <v>36</v>
       </c>
       <c r="C107">
-        <v>0.5</v>
+        <v>-50</v>
       </c>
     </row>
     <row r="108" spans="1:3" x14ac:dyDescent="0.25">
@@ -1597,10 +1820,10 @@
         <v>5</v>
       </c>
       <c r="B108" t="s">
-        <v>14</v>
+        <v>37</v>
       </c>
       <c r="C108">
-        <v>0.5</v>
+        <v>-50</v>
       </c>
     </row>
     <row r="109" spans="1:3" x14ac:dyDescent="0.25">
@@ -1608,10 +1831,10 @@
         <v>5</v>
       </c>
       <c r="B109" t="s">
-        <v>15</v>
+        <v>38</v>
       </c>
       <c r="C109">
-        <v>0.5</v>
+        <v>-50</v>
       </c>
     </row>
     <row r="110" spans="1:3" x14ac:dyDescent="0.25">
@@ -1619,10 +1842,10 @@
         <v>5</v>
       </c>
       <c r="B110" t="s">
-        <v>16</v>
+        <v>39</v>
       </c>
       <c r="C110">
-        <v>0.5</v>
+        <v>-50</v>
       </c>
     </row>
     <row r="111" spans="1:3" x14ac:dyDescent="0.25">
@@ -1630,10 +1853,10 @@
         <v>5</v>
       </c>
       <c r="B111" t="s">
-        <v>17</v>
+        <v>40</v>
       </c>
       <c r="C111">
-        <v>0.5</v>
+        <v>-50</v>
       </c>
     </row>
     <row r="112" spans="1:3" x14ac:dyDescent="0.25">
@@ -1641,10 +1864,10 @@
         <v>5</v>
       </c>
       <c r="B112" t="s">
-        <v>18</v>
+        <v>41</v>
       </c>
       <c r="C112">
-        <v>0.5</v>
+        <v>-50</v>
       </c>
     </row>
     <row r="113" spans="1:3" x14ac:dyDescent="0.25">
@@ -1652,21 +1875,32 @@
         <v>5</v>
       </c>
       <c r="B113" t="s">
-        <v>19</v>
+        <v>42</v>
       </c>
       <c r="C113">
-        <v>0.5</v>
+        <v>-50</v>
+      </c>
+    </row>
+    <row r="114" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A114" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B114" t="s">
+        <v>43</v>
+      </c>
+      <c r="C114">
+        <v>-50</v>
       </c>
     </row>
     <row r="115" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A115" s="1" t="s">
-        <v>25</v>
+        <v>5</v>
       </c>
       <c r="B115" t="s">
-        <v>4</v>
+        <v>44</v>
       </c>
       <c r="C115">
-        <v>0.4</v>
+        <v>-50</v>
       </c>
     </row>
     <row r="116" spans="1:3" x14ac:dyDescent="0.25">
@@ -1674,10 +1908,10 @@
         <v>5</v>
       </c>
       <c r="B116" t="s">
-        <v>6</v>
+        <v>45</v>
       </c>
       <c r="C116">
-        <v>0.4</v>
+        <v>-50</v>
       </c>
     </row>
     <row r="117" spans="1:3" x14ac:dyDescent="0.25">
@@ -1685,10 +1919,10 @@
         <v>5</v>
       </c>
       <c r="B117" t="s">
-        <v>7</v>
+        <v>46</v>
       </c>
       <c r="C117">
-        <v>0.4</v>
+        <v>-50</v>
       </c>
     </row>
     <row r="118" spans="1:3" x14ac:dyDescent="0.25">
@@ -1696,10 +1930,10 @@
         <v>5</v>
       </c>
       <c r="B118" t="s">
-        <v>8</v>
+        <v>47</v>
       </c>
       <c r="C118">
-        <v>0.4</v>
+        <v>-50</v>
       </c>
     </row>
     <row r="119" spans="1:3" x14ac:dyDescent="0.25">
@@ -1707,10 +1941,10 @@
         <v>5</v>
       </c>
       <c r="B119" t="s">
-        <v>9</v>
+        <v>48</v>
       </c>
       <c r="C119">
-        <v>0.4</v>
+        <v>-50</v>
       </c>
     </row>
     <row r="120" spans="1:3" x14ac:dyDescent="0.25">
@@ -1718,10 +1952,10 @@
         <v>5</v>
       </c>
       <c r="B120" t="s">
-        <v>10</v>
+        <v>49</v>
       </c>
       <c r="C120">
-        <v>0.4</v>
+        <v>-50</v>
       </c>
     </row>
     <row r="121" spans="1:3" x14ac:dyDescent="0.25">
@@ -1729,10 +1963,10 @@
         <v>5</v>
       </c>
       <c r="B121" t="s">
-        <v>11</v>
+        <v>50</v>
       </c>
       <c r="C121">
-        <v>0.4</v>
+        <v>-50</v>
       </c>
     </row>
     <row r="122" spans="1:3" x14ac:dyDescent="0.25">
@@ -1740,10 +1974,10 @@
         <v>5</v>
       </c>
       <c r="B122" t="s">
-        <v>12</v>
+        <v>51</v>
       </c>
       <c r="C122">
-        <v>0.4</v>
+        <v>-50</v>
       </c>
     </row>
     <row r="123" spans="1:3" x14ac:dyDescent="0.25">
@@ -1751,10 +1985,10 @@
         <v>5</v>
       </c>
       <c r="B123" t="s">
-        <v>13</v>
+        <v>52</v>
       </c>
       <c r="C123">
-        <v>0.4</v>
+        <v>-50</v>
       </c>
     </row>
     <row r="124" spans="1:3" x14ac:dyDescent="0.25">
@@ -1762,10 +1996,10 @@
         <v>5</v>
       </c>
       <c r="B124" t="s">
-        <v>14</v>
+        <v>53</v>
       </c>
       <c r="C124">
-        <v>0.4</v>
+        <v>-50</v>
       </c>
     </row>
     <row r="125" spans="1:3" x14ac:dyDescent="0.25">
@@ -1773,10 +2007,10 @@
         <v>5</v>
       </c>
       <c r="B125" t="s">
-        <v>15</v>
+        <v>54</v>
       </c>
       <c r="C125">
-        <v>0.4</v>
+        <v>-50</v>
       </c>
     </row>
     <row r="126" spans="1:3" x14ac:dyDescent="0.25">
@@ -1784,10 +2018,10 @@
         <v>5</v>
       </c>
       <c r="B126" t="s">
-        <v>16</v>
+        <v>55</v>
       </c>
       <c r="C126">
-        <v>0.4</v>
+        <v>-50</v>
       </c>
     </row>
     <row r="127" spans="1:3" x14ac:dyDescent="0.25">
@@ -1795,10 +2029,10 @@
         <v>5</v>
       </c>
       <c r="B127" t="s">
-        <v>17</v>
+        <v>56</v>
       </c>
       <c r="C127">
-        <v>0.4</v>
+        <v>-50</v>
       </c>
     </row>
     <row r="128" spans="1:3" x14ac:dyDescent="0.25">
@@ -1806,10 +2040,10 @@
         <v>5</v>
       </c>
       <c r="B128" t="s">
-        <v>18</v>
+        <v>57</v>
       </c>
       <c r="C128">
-        <v>0.4</v>
+        <v>-50</v>
       </c>
     </row>
     <row r="129" spans="1:3" x14ac:dyDescent="0.25">
@@ -1817,21 +2051,32 @@
         <v>5</v>
       </c>
       <c r="B129" t="s">
-        <v>19</v>
+        <v>58</v>
       </c>
       <c r="C129">
-        <v>0.4</v>
+        <v>-50</v>
+      </c>
+    </row>
+    <row r="130" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A130" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B130" t="s">
+        <v>59</v>
+      </c>
+      <c r="C130">
+        <v>-50</v>
       </c>
     </row>
     <row r="131" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A131" s="1" t="s">
-        <v>26</v>
+        <v>5</v>
       </c>
       <c r="B131" t="s">
-        <v>4</v>
+        <v>60</v>
       </c>
       <c r="C131">
-        <v>8833</v>
+        <v>-50</v>
       </c>
     </row>
     <row r="132" spans="1:3" x14ac:dyDescent="0.25">
@@ -1839,10 +2084,10 @@
         <v>5</v>
       </c>
       <c r="B132" t="s">
-        <v>6</v>
+        <v>61</v>
       </c>
       <c r="C132">
-        <v>8833</v>
+        <v>-50</v>
       </c>
     </row>
     <row r="133" spans="1:3" x14ac:dyDescent="0.25">
@@ -1850,10 +2095,10 @@
         <v>5</v>
       </c>
       <c r="B133" t="s">
-        <v>7</v>
+        <v>62</v>
       </c>
       <c r="C133">
-        <v>8833</v>
+        <v>-50</v>
       </c>
     </row>
     <row r="134" spans="1:3" x14ac:dyDescent="0.25">
@@ -1861,10 +2106,10 @@
         <v>5</v>
       </c>
       <c r="B134" t="s">
-        <v>8</v>
+        <v>63</v>
       </c>
       <c r="C134">
-        <v>8577</v>
+        <v>-50</v>
       </c>
     </row>
     <row r="135" spans="1:3" x14ac:dyDescent="0.25">
@@ -1872,10 +2117,10 @@
         <v>5</v>
       </c>
       <c r="B135" t="s">
-        <v>9</v>
+        <v>64</v>
       </c>
       <c r="C135">
-        <v>1921</v>
+        <v>-50</v>
       </c>
     </row>
     <row r="136" spans="1:3" x14ac:dyDescent="0.25">
@@ -1883,10 +2128,10 @@
         <v>5</v>
       </c>
       <c r="B136" t="s">
-        <v>10</v>
+        <v>65</v>
       </c>
       <c r="C136">
-        <v>897</v>
+        <v>-50</v>
       </c>
     </row>
     <row r="137" spans="1:3" x14ac:dyDescent="0.25">
@@ -1894,10 +2139,10 @@
         <v>5</v>
       </c>
       <c r="B137" t="s">
-        <v>11</v>
+        <v>66</v>
       </c>
       <c r="C137">
-        <v>8577</v>
+        <v>-50</v>
       </c>
     </row>
     <row r="138" spans="1:3" x14ac:dyDescent="0.25">
@@ -1905,10 +2150,10 @@
         <v>5</v>
       </c>
       <c r="B138" t="s">
-        <v>12</v>
+        <v>67</v>
       </c>
       <c r="C138">
-        <v>8321</v>
+        <v>-50</v>
       </c>
     </row>
     <row r="139" spans="1:3" x14ac:dyDescent="0.25">
@@ -1916,10 +2161,10 @@
         <v>5</v>
       </c>
       <c r="B139" t="s">
-        <v>13</v>
+        <v>68</v>
       </c>
       <c r="C139">
-        <v>8321</v>
+        <v>-50</v>
       </c>
     </row>
     <row r="140" spans="1:3" x14ac:dyDescent="0.25">
@@ -1927,10 +2172,10 @@
         <v>5</v>
       </c>
       <c r="B140" t="s">
-        <v>14</v>
+        <v>69</v>
       </c>
       <c r="C140">
-        <v>8577</v>
+        <v>-50</v>
       </c>
     </row>
     <row r="141" spans="1:3" x14ac:dyDescent="0.25">
@@ -1938,10 +2183,10 @@
         <v>5</v>
       </c>
       <c r="B141" t="s">
-        <v>15</v>
+        <v>70</v>
       </c>
       <c r="C141">
-        <v>8321</v>
+        <v>-50</v>
       </c>
     </row>
     <row r="142" spans="1:3" x14ac:dyDescent="0.25">
@@ -1949,10 +2194,10 @@
         <v>5</v>
       </c>
       <c r="B142" t="s">
-        <v>16</v>
+        <v>71</v>
       </c>
       <c r="C142">
-        <v>37504</v>
+        <v>-50</v>
       </c>
     </row>
     <row r="143" spans="1:3" x14ac:dyDescent="0.25">
@@ -1960,10 +2205,10 @@
         <v>5</v>
       </c>
       <c r="B143" t="s">
-        <v>17</v>
+        <v>72</v>
       </c>
       <c r="C143">
-        <v>0</v>
+        <v>-50</v>
       </c>
     </row>
     <row r="144" spans="1:3" x14ac:dyDescent="0.25">
@@ -1971,10 +2216,10 @@
         <v>5</v>
       </c>
       <c r="B144" t="s">
-        <v>18</v>
+        <v>73</v>
       </c>
       <c r="C144">
-        <v>57472</v>
+        <v>-50</v>
       </c>
     </row>
     <row r="145" spans="1:3" x14ac:dyDescent="0.25">
@@ -1982,43 +2227,43 @@
         <v>5</v>
       </c>
       <c r="B145" t="s">
-        <v>19</v>
+        <v>74</v>
       </c>
       <c r="C145">
-        <v>23168</v>
+        <v>-50</v>
+      </c>
+    </row>
+    <row r="146" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A146" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B146" t="s">
+        <v>75</v>
+      </c>
+      <c r="C146">
+        <v>-50</v>
       </c>
     </row>
     <row r="147" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A147" s="1" t="s">
-        <v>27</v>
+        <v>5</v>
       </c>
       <c r="B147" t="s">
-        <v>4</v>
-      </c>
-      <c r="C147" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="148" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A148" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B148" t="s">
-        <v>6</v>
-      </c>
-      <c r="C148" t="s">
-        <v>29</v>
+        <v>76</v>
+      </c>
+      <c r="C147">
+        <v>-50</v>
       </c>
     </row>
     <row r="149" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A149" s="1" t="s">
-        <v>5</v>
+        <v>78</v>
       </c>
       <c r="B149" t="s">
-        <v>7</v>
-      </c>
-      <c r="C149" t="s">
-        <v>29</v>
+        <v>4</v>
+      </c>
+      <c r="C149">
+        <v>-50</v>
       </c>
     </row>
     <row r="150" spans="1:3" x14ac:dyDescent="0.25">
@@ -2026,10 +2271,10 @@
         <v>5</v>
       </c>
       <c r="B150" t="s">
-        <v>8</v>
-      </c>
-      <c r="C150" t="s">
-        <v>29</v>
+        <v>6</v>
+      </c>
+      <c r="C150">
+        <v>-50</v>
       </c>
     </row>
     <row r="151" spans="1:3" x14ac:dyDescent="0.25">
@@ -2037,10 +2282,10 @@
         <v>5</v>
       </c>
       <c r="B151" t="s">
-        <v>9</v>
-      </c>
-      <c r="C151" t="s">
-        <v>29</v>
+        <v>7</v>
+      </c>
+      <c r="C151">
+        <v>-50</v>
       </c>
     </row>
     <row r="152" spans="1:3" x14ac:dyDescent="0.25">
@@ -2048,10 +2293,10 @@
         <v>5</v>
       </c>
       <c r="B152" t="s">
-        <v>10</v>
-      </c>
-      <c r="C152" t="s">
-        <v>29</v>
+        <v>8</v>
+      </c>
+      <c r="C152">
+        <v>-50</v>
       </c>
     </row>
     <row r="153" spans="1:3" x14ac:dyDescent="0.25">
@@ -2059,10 +2304,10 @@
         <v>5</v>
       </c>
       <c r="B153" t="s">
-        <v>11</v>
-      </c>
-      <c r="C153" t="s">
-        <v>29</v>
+        <v>9</v>
+      </c>
+      <c r="C153">
+        <v>-50</v>
       </c>
     </row>
     <row r="154" spans="1:3" x14ac:dyDescent="0.25">
@@ -2070,10 +2315,10 @@
         <v>5</v>
       </c>
       <c r="B154" t="s">
-        <v>12</v>
-      </c>
-      <c r="C154" t="s">
-        <v>30</v>
+        <v>10</v>
+      </c>
+      <c r="C154">
+        <v>-50</v>
       </c>
     </row>
     <row r="155" spans="1:3" x14ac:dyDescent="0.25">
@@ -2081,10 +2326,10 @@
         <v>5</v>
       </c>
       <c r="B155" t="s">
-        <v>13</v>
-      </c>
-      <c r="C155" t="s">
-        <v>30</v>
+        <v>11</v>
+      </c>
+      <c r="C155">
+        <v>-50</v>
       </c>
     </row>
     <row r="156" spans="1:3" x14ac:dyDescent="0.25">
@@ -2092,10 +2337,10 @@
         <v>5</v>
       </c>
       <c r="B156" t="s">
-        <v>14</v>
-      </c>
-      <c r="C156" t="s">
-        <v>30</v>
+        <v>12</v>
+      </c>
+      <c r="C156">
+        <v>-50</v>
       </c>
     </row>
     <row r="157" spans="1:3" x14ac:dyDescent="0.25">
@@ -2103,10 +2348,10 @@
         <v>5</v>
       </c>
       <c r="B157" t="s">
-        <v>15</v>
-      </c>
-      <c r="C157" t="s">
-        <v>30</v>
+        <v>13</v>
+      </c>
+      <c r="C157">
+        <v>-50</v>
       </c>
     </row>
     <row r="158" spans="1:3" x14ac:dyDescent="0.25">
@@ -2114,10 +2359,10 @@
         <v>5</v>
       </c>
       <c r="B158" t="s">
-        <v>16</v>
-      </c>
-      <c r="C158" t="s">
-        <v>30</v>
+        <v>14</v>
+      </c>
+      <c r="C158">
+        <v>-50</v>
       </c>
     </row>
     <row r="159" spans="1:3" x14ac:dyDescent="0.25">
@@ -2125,10 +2370,10 @@
         <v>5</v>
       </c>
       <c r="B159" t="s">
-        <v>17</v>
-      </c>
-      <c r="C159" t="s">
-        <v>30</v>
+        <v>15</v>
+      </c>
+      <c r="C159">
+        <v>-50</v>
       </c>
     </row>
     <row r="160" spans="1:3" x14ac:dyDescent="0.25">
@@ -2136,10 +2381,10 @@
         <v>5</v>
       </c>
       <c r="B160" t="s">
-        <v>18</v>
-      </c>
-      <c r="C160" t="s">
-        <v>30</v>
+        <v>16</v>
+      </c>
+      <c r="C160">
+        <v>-50</v>
       </c>
     </row>
     <row r="161" spans="1:3" x14ac:dyDescent="0.25">
@@ -2147,10 +2392,6203 @@
         <v>5</v>
       </c>
       <c r="B161" t="s">
+        <v>17</v>
+      </c>
+      <c r="C161">
+        <v>-50</v>
+      </c>
+    </row>
+    <row r="162" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A162" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B162" t="s">
+        <v>18</v>
+      </c>
+      <c r="C162">
+        <v>-50</v>
+      </c>
+    </row>
+    <row r="163" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A163" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B163" t="s">
         <v>19</v>
       </c>
-      <c r="C161" t="s">
+      <c r="C163">
+        <v>-50</v>
+      </c>
+    </row>
+    <row r="164" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A164" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B164" t="s">
+        <v>20</v>
+      </c>
+      <c r="C164">
+        <v>-50</v>
+      </c>
+    </row>
+    <row r="165" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A165" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B165" t="s">
+        <v>21</v>
+      </c>
+      <c r="C165">
+        <v>-50</v>
+      </c>
+    </row>
+    <row r="166" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A166" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B166" t="s">
+        <v>22</v>
+      </c>
+      <c r="C166">
+        <v>-50</v>
+      </c>
+    </row>
+    <row r="167" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A167" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B167" t="s">
+        <v>23</v>
+      </c>
+      <c r="C167">
+        <v>-50</v>
+      </c>
+    </row>
+    <row r="168" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A168" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B168" t="s">
+        <v>24</v>
+      </c>
+      <c r="C168">
+        <v>-50</v>
+      </c>
+    </row>
+    <row r="169" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A169" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B169" t="s">
+        <v>25</v>
+      </c>
+      <c r="C169">
+        <v>-50</v>
+      </c>
+    </row>
+    <row r="170" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A170" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B170" t="s">
+        <v>26</v>
+      </c>
+      <c r="C170">
+        <v>-50</v>
+      </c>
+    </row>
+    <row r="171" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A171" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B171" t="s">
+        <v>27</v>
+      </c>
+      <c r="C171">
+        <v>-50</v>
+      </c>
+    </row>
+    <row r="172" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A172" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B172" t="s">
+        <v>28</v>
+      </c>
+      <c r="C172">
+        <v>-50</v>
+      </c>
+    </row>
+    <row r="173" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A173" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B173" t="s">
+        <v>29</v>
+      </c>
+      <c r="C173">
+        <v>-50</v>
+      </c>
+    </row>
+    <row r="174" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A174" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B174" t="s">
         <v>30</v>
+      </c>
+      <c r="C174">
+        <v>-50</v>
+      </c>
+    </row>
+    <row r="175" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A175" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B175" t="s">
+        <v>31</v>
+      </c>
+      <c r="C175">
+        <v>-50</v>
+      </c>
+    </row>
+    <row r="176" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A176" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B176" t="s">
+        <v>32</v>
+      </c>
+      <c r="C176">
+        <v>-50</v>
+      </c>
+    </row>
+    <row r="177" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A177" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B177" t="s">
+        <v>33</v>
+      </c>
+      <c r="C177">
+        <v>-50</v>
+      </c>
+    </row>
+    <row r="178" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A178" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B178" t="s">
+        <v>34</v>
+      </c>
+      <c r="C178">
+        <v>-50</v>
+      </c>
+    </row>
+    <row r="179" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A179" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B179" t="s">
+        <v>35</v>
+      </c>
+      <c r="C179">
+        <v>-50</v>
+      </c>
+    </row>
+    <row r="180" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A180" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B180" t="s">
+        <v>36</v>
+      </c>
+      <c r="C180">
+        <v>-50</v>
+      </c>
+    </row>
+    <row r="181" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A181" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B181" t="s">
+        <v>37</v>
+      </c>
+      <c r="C181">
+        <v>-50</v>
+      </c>
+    </row>
+    <row r="182" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A182" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B182" t="s">
+        <v>38</v>
+      </c>
+      <c r="C182">
+        <v>-50</v>
+      </c>
+    </row>
+    <row r="183" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A183" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B183" t="s">
+        <v>39</v>
+      </c>
+      <c r="C183">
+        <v>-50</v>
+      </c>
+    </row>
+    <row r="184" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A184" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B184" t="s">
+        <v>40</v>
+      </c>
+      <c r="C184">
+        <v>-50</v>
+      </c>
+    </row>
+    <row r="185" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A185" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B185" t="s">
+        <v>41</v>
+      </c>
+      <c r="C185">
+        <v>-50</v>
+      </c>
+    </row>
+    <row r="186" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A186" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B186" t="s">
+        <v>42</v>
+      </c>
+      <c r="C186">
+        <v>-50</v>
+      </c>
+    </row>
+    <row r="187" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A187" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B187" t="s">
+        <v>43</v>
+      </c>
+      <c r="C187">
+        <v>-50</v>
+      </c>
+    </row>
+    <row r="188" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A188" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B188" t="s">
+        <v>44</v>
+      </c>
+      <c r="C188">
+        <v>-50</v>
+      </c>
+    </row>
+    <row r="189" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A189" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B189" t="s">
+        <v>45</v>
+      </c>
+      <c r="C189">
+        <v>-50</v>
+      </c>
+    </row>
+    <row r="190" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A190" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B190" t="s">
+        <v>46</v>
+      </c>
+      <c r="C190">
+        <v>-50</v>
+      </c>
+    </row>
+    <row r="191" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A191" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B191" t="s">
+        <v>47</v>
+      </c>
+      <c r="C191">
+        <v>-50</v>
+      </c>
+    </row>
+    <row r="192" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A192" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B192" t="s">
+        <v>48</v>
+      </c>
+      <c r="C192">
+        <v>-50</v>
+      </c>
+    </row>
+    <row r="193" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A193" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B193" t="s">
+        <v>49</v>
+      </c>
+      <c r="C193">
+        <v>-50</v>
+      </c>
+    </row>
+    <row r="194" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A194" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B194" t="s">
+        <v>50</v>
+      </c>
+      <c r="C194">
+        <v>-50</v>
+      </c>
+    </row>
+    <row r="195" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A195" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B195" t="s">
+        <v>51</v>
+      </c>
+      <c r="C195">
+        <v>-50</v>
+      </c>
+    </row>
+    <row r="196" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A196" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B196" t="s">
+        <v>52</v>
+      </c>
+      <c r="C196">
+        <v>-50</v>
+      </c>
+    </row>
+    <row r="197" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A197" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B197" t="s">
+        <v>53</v>
+      </c>
+      <c r="C197">
+        <v>-50</v>
+      </c>
+    </row>
+    <row r="198" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A198" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B198" t="s">
+        <v>54</v>
+      </c>
+      <c r="C198">
+        <v>-50</v>
+      </c>
+    </row>
+    <row r="199" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A199" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B199" t="s">
+        <v>55</v>
+      </c>
+      <c r="C199">
+        <v>-50</v>
+      </c>
+    </row>
+    <row r="200" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A200" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B200" t="s">
+        <v>56</v>
+      </c>
+      <c r="C200">
+        <v>-50</v>
+      </c>
+    </row>
+    <row r="201" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A201" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B201" t="s">
+        <v>57</v>
+      </c>
+      <c r="C201">
+        <v>-50</v>
+      </c>
+    </row>
+    <row r="202" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A202" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B202" t="s">
+        <v>58</v>
+      </c>
+      <c r="C202">
+        <v>-50</v>
+      </c>
+    </row>
+    <row r="203" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A203" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B203" t="s">
+        <v>59</v>
+      </c>
+      <c r="C203">
+        <v>-50</v>
+      </c>
+    </row>
+    <row r="204" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A204" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B204" t="s">
+        <v>60</v>
+      </c>
+      <c r="C204">
+        <v>-50</v>
+      </c>
+    </row>
+    <row r="205" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A205" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B205" t="s">
+        <v>61</v>
+      </c>
+      <c r="C205">
+        <v>-50</v>
+      </c>
+    </row>
+    <row r="206" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A206" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B206" t="s">
+        <v>62</v>
+      </c>
+      <c r="C206">
+        <v>-50</v>
+      </c>
+    </row>
+    <row r="207" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A207" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B207" t="s">
+        <v>63</v>
+      </c>
+      <c r="C207">
+        <v>-50</v>
+      </c>
+    </row>
+    <row r="208" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A208" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B208" t="s">
+        <v>64</v>
+      </c>
+      <c r="C208">
+        <v>-50</v>
+      </c>
+    </row>
+    <row r="209" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A209" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B209" t="s">
+        <v>65</v>
+      </c>
+      <c r="C209">
+        <v>-50</v>
+      </c>
+    </row>
+    <row r="210" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A210" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B210" t="s">
+        <v>66</v>
+      </c>
+      <c r="C210">
+        <v>-50</v>
+      </c>
+    </row>
+    <row r="211" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A211" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B211" t="s">
+        <v>67</v>
+      </c>
+      <c r="C211">
+        <v>-50</v>
+      </c>
+    </row>
+    <row r="212" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A212" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B212" t="s">
+        <v>68</v>
+      </c>
+      <c r="C212">
+        <v>-50</v>
+      </c>
+    </row>
+    <row r="213" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A213" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B213" t="s">
+        <v>69</v>
+      </c>
+      <c r="C213">
+        <v>-50</v>
+      </c>
+    </row>
+    <row r="214" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A214" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B214" t="s">
+        <v>70</v>
+      </c>
+      <c r="C214">
+        <v>-50</v>
+      </c>
+    </row>
+    <row r="215" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A215" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B215" t="s">
+        <v>71</v>
+      </c>
+      <c r="C215">
+        <v>-50</v>
+      </c>
+    </row>
+    <row r="216" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A216" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B216" t="s">
+        <v>72</v>
+      </c>
+      <c r="C216">
+        <v>-50</v>
+      </c>
+    </row>
+    <row r="217" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A217" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B217" t="s">
+        <v>73</v>
+      </c>
+      <c r="C217">
+        <v>-50</v>
+      </c>
+    </row>
+    <row r="218" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A218" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B218" t="s">
+        <v>74</v>
+      </c>
+      <c r="C218">
+        <v>-50</v>
+      </c>
+    </row>
+    <row r="219" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A219" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B219" t="s">
+        <v>75</v>
+      </c>
+      <c r="C219">
+        <v>-50</v>
+      </c>
+    </row>
+    <row r="220" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A220" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B220" t="s">
+        <v>76</v>
+      </c>
+      <c r="C220">
+        <v>-50</v>
+      </c>
+    </row>
+    <row r="222" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A222" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="B222" t="s">
+        <v>4</v>
+      </c>
+      <c r="C222">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="223" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A223" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B223" t="s">
+        <v>6</v>
+      </c>
+      <c r="C223">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="224" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A224" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B224" t="s">
+        <v>7</v>
+      </c>
+      <c r="C224">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="225" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A225" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B225" t="s">
+        <v>8</v>
+      </c>
+      <c r="C225">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="226" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A226" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B226" t="s">
+        <v>9</v>
+      </c>
+      <c r="C226">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="227" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A227" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B227" t="s">
+        <v>10</v>
+      </c>
+      <c r="C227">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="228" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A228" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B228" t="s">
+        <v>11</v>
+      </c>
+      <c r="C228">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="229" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A229" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B229" t="s">
+        <v>12</v>
+      </c>
+      <c r="C229">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="230" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A230" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B230" t="s">
+        <v>13</v>
+      </c>
+      <c r="C230">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="231" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A231" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B231" t="s">
+        <v>14</v>
+      </c>
+      <c r="C231">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="232" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A232" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B232" t="s">
+        <v>15</v>
+      </c>
+      <c r="C232">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="233" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A233" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B233" t="s">
+        <v>16</v>
+      </c>
+      <c r="C233">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="234" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A234" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B234" t="s">
+        <v>17</v>
+      </c>
+      <c r="C234">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="235" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A235" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B235" t="s">
+        <v>18</v>
+      </c>
+      <c r="C235">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="236" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A236" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B236" t="s">
+        <v>19</v>
+      </c>
+      <c r="C236">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="237" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A237" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B237" t="s">
+        <v>20</v>
+      </c>
+      <c r="C237">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="238" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A238" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B238" t="s">
+        <v>21</v>
+      </c>
+      <c r="C238">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="239" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A239" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B239" t="s">
+        <v>22</v>
+      </c>
+      <c r="C239">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="240" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A240" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B240" t="s">
+        <v>23</v>
+      </c>
+      <c r="C240">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="241" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A241" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B241" t="s">
+        <v>24</v>
+      </c>
+      <c r="C241">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="242" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A242" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B242" t="s">
+        <v>25</v>
+      </c>
+      <c r="C242">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="243" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A243" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B243" t="s">
+        <v>26</v>
+      </c>
+      <c r="C243">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="244" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A244" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B244" t="s">
+        <v>27</v>
+      </c>
+      <c r="C244">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="245" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A245" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B245" t="s">
+        <v>28</v>
+      </c>
+      <c r="C245">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="246" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A246" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B246" t="s">
+        <v>29</v>
+      </c>
+      <c r="C246">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="247" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A247" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B247" t="s">
+        <v>30</v>
+      </c>
+      <c r="C247">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="248" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A248" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B248" t="s">
+        <v>31</v>
+      </c>
+      <c r="C248">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="249" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A249" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B249" t="s">
+        <v>32</v>
+      </c>
+      <c r="C249">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="250" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A250" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B250" t="s">
+        <v>33</v>
+      </c>
+      <c r="C250">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="251" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A251" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B251" t="s">
+        <v>34</v>
+      </c>
+      <c r="C251">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="252" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A252" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B252" t="s">
+        <v>35</v>
+      </c>
+      <c r="C252">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="253" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A253" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B253" t="s">
+        <v>36</v>
+      </c>
+      <c r="C253">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="254" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A254" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B254" t="s">
+        <v>37</v>
+      </c>
+      <c r="C254">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="255" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A255" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B255" t="s">
+        <v>38</v>
+      </c>
+      <c r="C255">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="256" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A256" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B256" t="s">
+        <v>39</v>
+      </c>
+      <c r="C256">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="257" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A257" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B257" t="s">
+        <v>40</v>
+      </c>
+      <c r="C257">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="258" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A258" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B258" t="s">
+        <v>41</v>
+      </c>
+      <c r="C258">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="259" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A259" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B259" t="s">
+        <v>42</v>
+      </c>
+      <c r="C259">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="260" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A260" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B260" t="s">
+        <v>43</v>
+      </c>
+      <c r="C260">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="261" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A261" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B261" t="s">
+        <v>44</v>
+      </c>
+      <c r="C261">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="262" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A262" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B262" t="s">
+        <v>45</v>
+      </c>
+      <c r="C262">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="263" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A263" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B263" t="s">
+        <v>46</v>
+      </c>
+      <c r="C263">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="264" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A264" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B264" t="s">
+        <v>47</v>
+      </c>
+      <c r="C264">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="265" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A265" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B265" t="s">
+        <v>48</v>
+      </c>
+      <c r="C265">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="266" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A266" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B266" t="s">
+        <v>49</v>
+      </c>
+      <c r="C266">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="267" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A267" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B267" t="s">
+        <v>50</v>
+      </c>
+      <c r="C267">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="268" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A268" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B268" t="s">
+        <v>51</v>
+      </c>
+      <c r="C268">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="269" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A269" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B269" t="s">
+        <v>52</v>
+      </c>
+      <c r="C269">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="270" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A270" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B270" t="s">
+        <v>53</v>
+      </c>
+      <c r="C270">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="271" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A271" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B271" t="s">
+        <v>54</v>
+      </c>
+      <c r="C271">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="272" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A272" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B272" t="s">
+        <v>55</v>
+      </c>
+      <c r="C272">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="273" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A273" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B273" t="s">
+        <v>56</v>
+      </c>
+      <c r="C273">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="274" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A274" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B274" t="s">
+        <v>57</v>
+      </c>
+      <c r="C274">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="275" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A275" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B275" t="s">
+        <v>58</v>
+      </c>
+      <c r="C275">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="276" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A276" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B276" t="s">
+        <v>59</v>
+      </c>
+      <c r="C276">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="277" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A277" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B277" t="s">
+        <v>60</v>
+      </c>
+      <c r="C277">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="278" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A278" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B278" t="s">
+        <v>61</v>
+      </c>
+      <c r="C278">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="279" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A279" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B279" t="s">
+        <v>62</v>
+      </c>
+      <c r="C279">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="280" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A280" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B280" t="s">
+        <v>63</v>
+      </c>
+      <c r="C280">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="281" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A281" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B281" t="s">
+        <v>64</v>
+      </c>
+      <c r="C281">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="282" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A282" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B282" t="s">
+        <v>65</v>
+      </c>
+      <c r="C282">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="283" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A283" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B283" t="s">
+        <v>66</v>
+      </c>
+      <c r="C283">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="284" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A284" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B284" t="s">
+        <v>67</v>
+      </c>
+      <c r="C284">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="285" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A285" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B285" t="s">
+        <v>68</v>
+      </c>
+      <c r="C285">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="286" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A286" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B286" t="s">
+        <v>69</v>
+      </c>
+      <c r="C286">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="287" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A287" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B287" t="s">
+        <v>70</v>
+      </c>
+      <c r="C287">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="288" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A288" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B288" t="s">
+        <v>71</v>
+      </c>
+      <c r="C288">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="289" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A289" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B289" t="s">
+        <v>72</v>
+      </c>
+      <c r="C289">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="290" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A290" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B290" t="s">
+        <v>73</v>
+      </c>
+      <c r="C290">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="291" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A291" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B291" t="s">
+        <v>74</v>
+      </c>
+      <c r="C291">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="292" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A292" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B292" t="s">
+        <v>75</v>
+      </c>
+      <c r="C292">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="293" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A293" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B293" t="s">
+        <v>76</v>
+      </c>
+      <c r="C293">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="295" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A295" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="B295" t="s">
+        <v>4</v>
+      </c>
+      <c r="C295">
+        <v>0.035277777777777776</v>
+      </c>
+    </row>
+    <row r="296" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A296" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B296" t="s">
+        <v>6</v>
+      </c>
+      <c r="C296">
+        <v>0.035277777777777776</v>
+      </c>
+    </row>
+    <row r="297" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A297" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B297" t="s">
+        <v>7</v>
+      </c>
+      <c r="C297">
+        <v>0.035277777777777776</v>
+      </c>
+    </row>
+    <row r="298" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A298" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B298" t="s">
+        <v>8</v>
+      </c>
+      <c r="C298">
+        <v>0.035277777777777776</v>
+      </c>
+    </row>
+    <row r="299" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A299" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B299" t="s">
+        <v>9</v>
+      </c>
+      <c r="C299">
+        <v>0.035277777777777776</v>
+      </c>
+    </row>
+    <row r="300" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A300" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B300" t="s">
+        <v>10</v>
+      </c>
+      <c r="C300">
+        <v>0.035277777777777776</v>
+      </c>
+    </row>
+    <row r="301" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A301" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B301" t="s">
+        <v>11</v>
+      </c>
+      <c r="C301">
+        <v>0.035277777777777776</v>
+      </c>
+    </row>
+    <row r="302" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A302" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B302" t="s">
+        <v>12</v>
+      </c>
+      <c r="C302">
+        <v>0.035277777777777776</v>
+      </c>
+    </row>
+    <row r="303" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A303" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B303" t="s">
+        <v>13</v>
+      </c>
+      <c r="C303">
+        <v>0.035277777777777776</v>
+      </c>
+    </row>
+    <row r="304" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A304" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B304" t="s">
+        <v>14</v>
+      </c>
+      <c r="C304">
+        <v>0.035277777777777776</v>
+      </c>
+    </row>
+    <row r="305" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A305" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B305" t="s">
+        <v>15</v>
+      </c>
+      <c r="C305">
+        <v>0.035277777777777776</v>
+      </c>
+    </row>
+    <row r="306" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A306" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B306" t="s">
+        <v>16</v>
+      </c>
+      <c r="C306">
+        <v>0.035277777777777776</v>
+      </c>
+    </row>
+    <row r="307" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A307" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B307" t="s">
+        <v>17</v>
+      </c>
+      <c r="C307">
+        <v>0.035277777777777776</v>
+      </c>
+    </row>
+    <row r="308" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A308" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B308" t="s">
+        <v>18</v>
+      </c>
+      <c r="C308">
+        <v>0.035277777777777776</v>
+      </c>
+    </row>
+    <row r="309" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A309" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B309" t="s">
+        <v>19</v>
+      </c>
+      <c r="C309">
+        <v>0.035277777777777776</v>
+      </c>
+    </row>
+    <row r="310" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A310" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B310" t="s">
+        <v>20</v>
+      </c>
+      <c r="C310">
+        <v>0.035277777777777776</v>
+      </c>
+    </row>
+    <row r="311" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A311" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B311" t="s">
+        <v>21</v>
+      </c>
+      <c r="C311">
+        <v>0.035277777777777776</v>
+      </c>
+    </row>
+    <row r="312" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A312" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B312" t="s">
+        <v>22</v>
+      </c>
+      <c r="C312">
+        <v>0.035277777777777776</v>
+      </c>
+    </row>
+    <row r="313" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A313" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B313" t="s">
+        <v>23</v>
+      </c>
+      <c r="C313">
+        <v>0.035277777777777776</v>
+      </c>
+    </row>
+    <row r="314" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A314" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B314" t="s">
+        <v>24</v>
+      </c>
+      <c r="C314">
+        <v>0.035277777777777776</v>
+      </c>
+    </row>
+    <row r="315" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A315" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B315" t="s">
+        <v>25</v>
+      </c>
+      <c r="C315">
+        <v>0.035277777777777776</v>
+      </c>
+    </row>
+    <row r="316" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A316" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B316" t="s">
+        <v>26</v>
+      </c>
+      <c r="C316">
+        <v>0.035277777777777776</v>
+      </c>
+    </row>
+    <row r="317" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A317" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B317" t="s">
+        <v>27</v>
+      </c>
+      <c r="C317">
+        <v>0.035277777777777776</v>
+      </c>
+    </row>
+    <row r="318" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A318" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B318" t="s">
+        <v>28</v>
+      </c>
+      <c r="C318">
+        <v>0.035277777777777776</v>
+      </c>
+    </row>
+    <row r="319" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A319" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B319" t="s">
+        <v>29</v>
+      </c>
+      <c r="C319">
+        <v>0.035277777777777776</v>
+      </c>
+    </row>
+    <row r="320" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A320" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B320" t="s">
+        <v>30</v>
+      </c>
+      <c r="C320">
+        <v>0.035277777777777776</v>
+      </c>
+    </row>
+    <row r="321" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A321" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B321" t="s">
+        <v>31</v>
+      </c>
+      <c r="C321">
+        <v>0.035277777777777776</v>
+      </c>
+    </row>
+    <row r="322" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A322" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B322" t="s">
+        <v>32</v>
+      </c>
+      <c r="C322">
+        <v>0.035277777777777776</v>
+      </c>
+    </row>
+    <row r="323" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A323" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B323" t="s">
+        <v>33</v>
+      </c>
+      <c r="C323">
+        <v>0.035277777777777776</v>
+      </c>
+    </row>
+    <row r="324" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A324" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B324" t="s">
+        <v>34</v>
+      </c>
+      <c r="C324">
+        <v>0.035277777777777776</v>
+      </c>
+    </row>
+    <row r="325" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A325" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B325" t="s">
+        <v>35</v>
+      </c>
+      <c r="C325">
+        <v>0.035277777777777776</v>
+      </c>
+    </row>
+    <row r="326" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A326" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B326" t="s">
+        <v>36</v>
+      </c>
+      <c r="C326">
+        <v>0.035277777777777776</v>
+      </c>
+    </row>
+    <row r="327" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A327" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B327" t="s">
+        <v>37</v>
+      </c>
+      <c r="C327">
+        <v>0.035277777777777776</v>
+      </c>
+    </row>
+    <row r="328" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A328" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B328" t="s">
+        <v>38</v>
+      </c>
+      <c r="C328">
+        <v>0.035277777777777776</v>
+      </c>
+    </row>
+    <row r="329" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A329" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B329" t="s">
+        <v>39</v>
+      </c>
+      <c r="C329">
+        <v>0.035277777777777776</v>
+      </c>
+    </row>
+    <row r="330" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A330" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B330" t="s">
+        <v>40</v>
+      </c>
+      <c r="C330">
+        <v>0.035277777777777776</v>
+      </c>
+    </row>
+    <row r="331" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A331" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B331" t="s">
+        <v>41</v>
+      </c>
+      <c r="C331">
+        <v>0.035277777777777776</v>
+      </c>
+    </row>
+    <row r="332" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A332" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B332" t="s">
+        <v>42</v>
+      </c>
+      <c r="C332">
+        <v>0.035277777777777776</v>
+      </c>
+    </row>
+    <row r="333" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A333" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B333" t="s">
+        <v>43</v>
+      </c>
+      <c r="C333">
+        <v>0.035277777777777776</v>
+      </c>
+    </row>
+    <row r="334" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A334" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B334" t="s">
+        <v>44</v>
+      </c>
+      <c r="C334">
+        <v>0.035277777777777776</v>
+      </c>
+    </row>
+    <row r="335" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A335" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B335" t="s">
+        <v>45</v>
+      </c>
+      <c r="C335">
+        <v>0.035277777777777776</v>
+      </c>
+    </row>
+    <row r="336" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A336" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B336" t="s">
+        <v>46</v>
+      </c>
+      <c r="C336">
+        <v>0.035277777777777776</v>
+      </c>
+    </row>
+    <row r="337" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A337" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B337" t="s">
+        <v>47</v>
+      </c>
+      <c r="C337">
+        <v>0.035277777777777776</v>
+      </c>
+    </row>
+    <row r="338" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A338" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B338" t="s">
+        <v>48</v>
+      </c>
+      <c r="C338">
+        <v>0.035277777777777776</v>
+      </c>
+    </row>
+    <row r="339" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A339" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B339" t="s">
+        <v>49</v>
+      </c>
+      <c r="C339">
+        <v>0.035277777777777776</v>
+      </c>
+    </row>
+    <row r="340" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A340" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B340" t="s">
+        <v>50</v>
+      </c>
+      <c r="C340">
+        <v>0.035277777777777776</v>
+      </c>
+    </row>
+    <row r="341" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A341" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B341" t="s">
+        <v>51</v>
+      </c>
+      <c r="C341">
+        <v>0.035277777777777776</v>
+      </c>
+    </row>
+    <row r="342" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A342" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B342" t="s">
+        <v>52</v>
+      </c>
+      <c r="C342">
+        <v>0.035277777777777776</v>
+      </c>
+    </row>
+    <row r="343" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A343" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B343" t="s">
+        <v>53</v>
+      </c>
+      <c r="C343">
+        <v>0.035277777777777776</v>
+      </c>
+    </row>
+    <row r="344" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A344" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B344" t="s">
+        <v>54</v>
+      </c>
+      <c r="C344">
+        <v>0.035277777777777776</v>
+      </c>
+    </row>
+    <row r="345" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A345" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B345" t="s">
+        <v>55</v>
+      </c>
+      <c r="C345">
+        <v>0.035277777777777776</v>
+      </c>
+    </row>
+    <row r="346" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A346" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B346" t="s">
+        <v>56</v>
+      </c>
+      <c r="C346">
+        <v>0.035277777777777776</v>
+      </c>
+    </row>
+    <row r="347" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A347" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B347" t="s">
+        <v>57</v>
+      </c>
+      <c r="C347">
+        <v>0.035277777777777776</v>
+      </c>
+    </row>
+    <row r="348" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A348" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B348" t="s">
+        <v>58</v>
+      </c>
+      <c r="C348">
+        <v>0.035277777777777776</v>
+      </c>
+    </row>
+    <row r="349" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A349" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B349" t="s">
+        <v>59</v>
+      </c>
+      <c r="C349">
+        <v>0.035277777777777776</v>
+      </c>
+    </row>
+    <row r="350" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A350" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B350" t="s">
+        <v>60</v>
+      </c>
+      <c r="C350">
+        <v>0.035277777777777776</v>
+      </c>
+    </row>
+    <row r="351" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A351" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B351" t="s">
+        <v>61</v>
+      </c>
+      <c r="C351">
+        <v>0.035277777777777776</v>
+      </c>
+    </row>
+    <row r="352" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A352" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B352" t="s">
+        <v>62</v>
+      </c>
+      <c r="C352">
+        <v>0.035277777777777776</v>
+      </c>
+    </row>
+    <row r="353" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A353" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B353" t="s">
+        <v>63</v>
+      </c>
+      <c r="C353">
+        <v>0.035277777777777776</v>
+      </c>
+    </row>
+    <row r="354" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A354" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B354" t="s">
+        <v>64</v>
+      </c>
+      <c r="C354">
+        <v>0.035277777777777776</v>
+      </c>
+    </row>
+    <row r="355" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A355" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B355" t="s">
+        <v>65</v>
+      </c>
+      <c r="C355">
+        <v>0.035277777777777776</v>
+      </c>
+    </row>
+    <row r="356" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A356" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B356" t="s">
+        <v>66</v>
+      </c>
+      <c r="C356">
+        <v>0.035277777777777776</v>
+      </c>
+    </row>
+    <row r="357" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A357" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B357" t="s">
+        <v>67</v>
+      </c>
+      <c r="C357">
+        <v>0.035277777777777776</v>
+      </c>
+    </row>
+    <row r="358" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A358" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B358" t="s">
+        <v>68</v>
+      </c>
+      <c r="C358">
+        <v>0.035277777777777776</v>
+      </c>
+    </row>
+    <row r="359" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A359" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B359" t="s">
+        <v>69</v>
+      </c>
+      <c r="C359">
+        <v>0.035277777777777776</v>
+      </c>
+    </row>
+    <row r="360" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A360" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B360" t="s">
+        <v>70</v>
+      </c>
+      <c r="C360">
+        <v>0.035277777777777776</v>
+      </c>
+    </row>
+    <row r="361" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A361" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B361" t="s">
+        <v>71</v>
+      </c>
+      <c r="C361">
+        <v>0.035277777777777776</v>
+      </c>
+    </row>
+    <row r="362" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A362" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B362" t="s">
+        <v>72</v>
+      </c>
+      <c r="C362">
+        <v>0.035277777777777776</v>
+      </c>
+    </row>
+    <row r="363" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A363" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B363" t="s">
+        <v>73</v>
+      </c>
+      <c r="C363">
+        <v>0.035277777777777776</v>
+      </c>
+    </row>
+    <row r="364" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A364" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B364" t="s">
+        <v>74</v>
+      </c>
+      <c r="C364">
+        <v>0.035277777777777776</v>
+      </c>
+    </row>
+    <row r="365" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A365" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B365" t="s">
+        <v>75</v>
+      </c>
+      <c r="C365">
+        <v>0.035277777777777776</v>
+      </c>
+    </row>
+    <row r="366" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A366" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B366" t="s">
+        <v>76</v>
+      </c>
+      <c r="C366">
+        <v>0.035277777777777776</v>
+      </c>
+    </row>
+    <row r="368" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A368" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="B368" t="s">
+        <v>4</v>
+      </c>
+      <c r="C368">
+        <v>18.168333333333333</v>
+      </c>
+    </row>
+    <row r="369" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A369" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B369" t="s">
+        <v>6</v>
+      </c>
+      <c r="C369">
+        <v>18.168333333333333</v>
+      </c>
+    </row>
+    <row r="370" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A370" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B370" t="s">
+        <v>7</v>
+      </c>
+      <c r="C370">
+        <v>18.168333333333333</v>
+      </c>
+    </row>
+    <row r="371" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A371" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B371" t="s">
+        <v>8</v>
+      </c>
+      <c r="C371">
+        <v>18.168333333333333</v>
+      </c>
+    </row>
+    <row r="372" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A372" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B372" t="s">
+        <v>9</v>
+      </c>
+      <c r="C372">
+        <v>18.168333333333333</v>
+      </c>
+    </row>
+    <row r="373" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A373" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B373" t="s">
+        <v>10</v>
+      </c>
+      <c r="C373">
+        <v>0.035277777777777776</v>
+      </c>
+    </row>
+    <row r="374" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A374" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B374" t="s">
+        <v>11</v>
+      </c>
+      <c r="C374">
+        <v>18.168333333333333</v>
+      </c>
+    </row>
+    <row r="375" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A375" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B375" t="s">
+        <v>12</v>
+      </c>
+      <c r="C375">
+        <v>18.168333333333333</v>
+      </c>
+    </row>
+    <row r="376" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A376" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B376" t="s">
+        <v>13</v>
+      </c>
+      <c r="C376">
+        <v>18.168333333333333</v>
+      </c>
+    </row>
+    <row r="377" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A377" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B377" t="s">
+        <v>14</v>
+      </c>
+      <c r="C377">
+        <v>18.168333333333333</v>
+      </c>
+    </row>
+    <row r="378" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A378" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B378" t="s">
+        <v>15</v>
+      </c>
+      <c r="C378">
+        <v>18.168333333333333</v>
+      </c>
+    </row>
+    <row r="379" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A379" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B379" t="s">
+        <v>16</v>
+      </c>
+      <c r="C379">
+        <v>18.168333333333333</v>
+      </c>
+    </row>
+    <row r="380" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A380" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B380" t="s">
+        <v>17</v>
+      </c>
+      <c r="C380">
+        <v>18.168333333333333</v>
+      </c>
+    </row>
+    <row r="381" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A381" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B381" t="s">
+        <v>18</v>
+      </c>
+      <c r="C381">
+        <v>18.168333333333333</v>
+      </c>
+    </row>
+    <row r="382" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A382" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B382" t="s">
+        <v>19</v>
+      </c>
+      <c r="C382">
+        <v>18.168333333333333</v>
+      </c>
+    </row>
+    <row r="383" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A383" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B383" t="s">
+        <v>20</v>
+      </c>
+      <c r="C383">
+        <v>18.168333333333333</v>
+      </c>
+    </row>
+    <row r="384" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A384" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B384" t="s">
+        <v>21</v>
+      </c>
+      <c r="C384">
+        <v>18.168333333333333</v>
+      </c>
+    </row>
+    <row r="385" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A385" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B385" t="s">
+        <v>22</v>
+      </c>
+      <c r="C385">
+        <v>0.035277777777777776</v>
+      </c>
+    </row>
+    <row r="386" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A386" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B386" t="s">
+        <v>23</v>
+      </c>
+      <c r="C386">
+        <v>18.168333333333333</v>
+      </c>
+    </row>
+    <row r="387" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A387" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B387" t="s">
+        <v>24</v>
+      </c>
+      <c r="C387">
+        <v>18.168333333333333</v>
+      </c>
+    </row>
+    <row r="388" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A388" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B388" t="s">
+        <v>25</v>
+      </c>
+      <c r="C388">
+        <v>18.168333333333333</v>
+      </c>
+    </row>
+    <row r="389" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A389" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B389" t="s">
+        <v>26</v>
+      </c>
+      <c r="C389">
+        <v>18.168333333333333</v>
+      </c>
+    </row>
+    <row r="390" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A390" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B390" t="s">
+        <v>27</v>
+      </c>
+      <c r="C390">
+        <v>18.168333333333333</v>
+      </c>
+    </row>
+    <row r="391" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A391" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B391" t="s">
+        <v>28</v>
+      </c>
+      <c r="C391">
+        <v>18.168333333333333</v>
+      </c>
+    </row>
+    <row r="392" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A392" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B392" t="s">
+        <v>29</v>
+      </c>
+      <c r="C392">
+        <v>18.168333333333333</v>
+      </c>
+    </row>
+    <row r="393" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A393" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B393" t="s">
+        <v>30</v>
+      </c>
+      <c r="C393">
+        <v>18.168333333333333</v>
+      </c>
+    </row>
+    <row r="394" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A394" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B394" t="s">
+        <v>31</v>
+      </c>
+      <c r="C394">
+        <v>18.168333333333333</v>
+      </c>
+    </row>
+    <row r="395" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A395" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B395" t="s">
+        <v>32</v>
+      </c>
+      <c r="C395">
+        <v>18.168333333333333</v>
+      </c>
+    </row>
+    <row r="396" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A396" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B396" t="s">
+        <v>33</v>
+      </c>
+      <c r="C396">
+        <v>18.168333333333333</v>
+      </c>
+    </row>
+    <row r="397" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A397" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B397" t="s">
+        <v>34</v>
+      </c>
+      <c r="C397">
+        <v>0.035277777777777776</v>
+      </c>
+    </row>
+    <row r="398" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A398" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B398" t="s">
+        <v>35</v>
+      </c>
+      <c r="C398">
+        <v>18.168333333333333</v>
+      </c>
+    </row>
+    <row r="399" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A399" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B399" t="s">
+        <v>36</v>
+      </c>
+      <c r="C399">
+        <v>18.168333333333333</v>
+      </c>
+    </row>
+    <row r="400" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A400" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B400" t="s">
+        <v>37</v>
+      </c>
+      <c r="C400">
+        <v>18.168333333333333</v>
+      </c>
+    </row>
+    <row r="401" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A401" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B401" t="s">
+        <v>38</v>
+      </c>
+      <c r="C401">
+        <v>18.168333333333333</v>
+      </c>
+    </row>
+    <row r="402" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A402" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B402" t="s">
+        <v>39</v>
+      </c>
+      <c r="C402">
+        <v>18.168333333333333</v>
+      </c>
+    </row>
+    <row r="403" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A403" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B403" t="s">
+        <v>40</v>
+      </c>
+      <c r="C403">
+        <v>18.168333333333333</v>
+      </c>
+    </row>
+    <row r="404" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A404" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B404" t="s">
+        <v>41</v>
+      </c>
+      <c r="C404">
+        <v>18.168333333333333</v>
+      </c>
+    </row>
+    <row r="405" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A405" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B405" t="s">
+        <v>42</v>
+      </c>
+      <c r="C405">
+        <v>18.168333333333333</v>
+      </c>
+    </row>
+    <row r="406" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A406" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B406" t="s">
+        <v>43</v>
+      </c>
+      <c r="C406">
+        <v>18.168333333333333</v>
+      </c>
+    </row>
+    <row r="407" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A407" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B407" t="s">
+        <v>44</v>
+      </c>
+      <c r="C407">
+        <v>18.168333333333333</v>
+      </c>
+    </row>
+    <row r="408" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A408" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B408" t="s">
+        <v>45</v>
+      </c>
+      <c r="C408">
+        <v>18.168333333333333</v>
+      </c>
+    </row>
+    <row r="409" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A409" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B409" t="s">
+        <v>46</v>
+      </c>
+      <c r="C409">
+        <v>18.168333333333333</v>
+      </c>
+    </row>
+    <row r="410" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A410" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B410" t="s">
+        <v>47</v>
+      </c>
+      <c r="C410">
+        <v>0.035277777777777776</v>
+      </c>
+    </row>
+    <row r="411" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A411" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B411" t="s">
+        <v>48</v>
+      </c>
+      <c r="C411">
+        <v>18.168333333333333</v>
+      </c>
+    </row>
+    <row r="412" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A412" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B412" t="s">
+        <v>49</v>
+      </c>
+      <c r="C412">
+        <v>18.168333333333333</v>
+      </c>
+    </row>
+    <row r="413" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A413" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B413" t="s">
+        <v>50</v>
+      </c>
+      <c r="C413">
+        <v>18.168333333333333</v>
+      </c>
+    </row>
+    <row r="414" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A414" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B414" t="s">
+        <v>51</v>
+      </c>
+      <c r="C414">
+        <v>18.168333333333333</v>
+      </c>
+    </row>
+    <row r="415" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A415" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B415" t="s">
+        <v>52</v>
+      </c>
+      <c r="C415">
+        <v>18.168333333333333</v>
+      </c>
+    </row>
+    <row r="416" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A416" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B416" t="s">
+        <v>53</v>
+      </c>
+      <c r="C416">
+        <v>18.168333333333333</v>
+      </c>
+    </row>
+    <row r="417" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A417" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B417" t="s">
+        <v>54</v>
+      </c>
+      <c r="C417">
+        <v>18.168333333333333</v>
+      </c>
+    </row>
+    <row r="418" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A418" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B418" t="s">
+        <v>55</v>
+      </c>
+      <c r="C418">
+        <v>18.168333333333333</v>
+      </c>
+    </row>
+    <row r="419" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A419" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B419" t="s">
+        <v>56</v>
+      </c>
+      <c r="C419">
+        <v>18.168333333333333</v>
+      </c>
+    </row>
+    <row r="420" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A420" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B420" t="s">
+        <v>57</v>
+      </c>
+      <c r="C420">
+        <v>18.168333333333333</v>
+      </c>
+    </row>
+    <row r="421" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A421" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B421" t="s">
+        <v>58</v>
+      </c>
+      <c r="C421">
+        <v>18.168333333333333</v>
+      </c>
+    </row>
+    <row r="422" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A422" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B422" t="s">
+        <v>59</v>
+      </c>
+      <c r="C422">
+        <v>0.035277777777777776</v>
+      </c>
+    </row>
+    <row r="423" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A423" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B423" t="s">
+        <v>60</v>
+      </c>
+      <c r="C423">
+        <v>18.168333333333333</v>
+      </c>
+    </row>
+    <row r="424" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A424" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B424" t="s">
+        <v>61</v>
+      </c>
+      <c r="C424">
+        <v>18.168333333333333</v>
+      </c>
+    </row>
+    <row r="425" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A425" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B425" t="s">
+        <v>62</v>
+      </c>
+      <c r="C425">
+        <v>18.168333333333333</v>
+      </c>
+    </row>
+    <row r="426" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A426" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B426" t="s">
+        <v>63</v>
+      </c>
+      <c r="C426">
+        <v>18.168333333333333</v>
+      </c>
+    </row>
+    <row r="427" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A427" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B427" t="s">
+        <v>64</v>
+      </c>
+      <c r="C427">
+        <v>18.168333333333333</v>
+      </c>
+    </row>
+    <row r="428" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A428" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B428" t="s">
+        <v>65</v>
+      </c>
+      <c r="C428">
+        <v>18.168333333333333</v>
+      </c>
+    </row>
+    <row r="429" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A429" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B429" t="s">
+        <v>66</v>
+      </c>
+      <c r="C429">
+        <v>18.168333333333333</v>
+      </c>
+    </row>
+    <row r="430" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A430" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B430" t="s">
+        <v>67</v>
+      </c>
+      <c r="C430">
+        <v>18.168333333333333</v>
+      </c>
+    </row>
+    <row r="431" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A431" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B431" t="s">
+        <v>68</v>
+      </c>
+      <c r="C431">
+        <v>18.168333333333333</v>
+      </c>
+    </row>
+    <row r="432" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A432" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B432" t="s">
+        <v>69</v>
+      </c>
+      <c r="C432">
+        <v>18.168333333333333</v>
+      </c>
+    </row>
+    <row r="433" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A433" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B433" t="s">
+        <v>70</v>
+      </c>
+      <c r="C433">
+        <v>18.168333333333333</v>
+      </c>
+    </row>
+    <row r="434" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A434" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B434" t="s">
+        <v>71</v>
+      </c>
+      <c r="C434">
+        <v>0.035277777777777776</v>
+      </c>
+    </row>
+    <row r="435" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A435" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B435" t="s">
+        <v>72</v>
+      </c>
+      <c r="C435">
+        <v>18.168333333333333</v>
+      </c>
+    </row>
+    <row r="436" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A436" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B436" t="s">
+        <v>73</v>
+      </c>
+      <c r="C436">
+        <v>18.168333333333333</v>
+      </c>
+    </row>
+    <row r="437" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A437" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B437" t="s">
+        <v>74</v>
+      </c>
+      <c r="C437">
+        <v>18.168333333333333</v>
+      </c>
+    </row>
+    <row r="438" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A438" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B438" t="s">
+        <v>75</v>
+      </c>
+      <c r="C438">
+        <v>18.168333333333333</v>
+      </c>
+    </row>
+    <row r="439" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A439" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B439" t="s">
+        <v>76</v>
+      </c>
+      <c r="C439">
+        <v>18.168333333333333</v>
+      </c>
+    </row>
+    <row r="441" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A441" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="B441" t="s">
+        <v>4</v>
+      </c>
+      <c r="C441">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="442" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A442" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B442" t="s">
+        <v>6</v>
+      </c>
+      <c r="C442">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="443" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A443" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B443" t="s">
+        <v>7</v>
+      </c>
+      <c r="C443">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="444" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A444" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B444" t="s">
+        <v>8</v>
+      </c>
+      <c r="C444">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="445" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A445" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B445" t="s">
+        <v>9</v>
+      </c>
+      <c r="C445">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="446" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A446" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B446" t="s">
+        <v>10</v>
+      </c>
+      <c r="C446">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="447" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A447" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B447" t="s">
+        <v>11</v>
+      </c>
+      <c r="C447">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="448" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A448" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B448" t="s">
+        <v>12</v>
+      </c>
+      <c r="C448">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="449" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A449" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B449" t="s">
+        <v>13</v>
+      </c>
+      <c r="C449">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="450" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A450" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B450" t="s">
+        <v>14</v>
+      </c>
+      <c r="C450">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="451" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A451" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B451" t="s">
+        <v>15</v>
+      </c>
+      <c r="C451">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="452" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A452" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B452" t="s">
+        <v>16</v>
+      </c>
+      <c r="C452">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="453" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A453" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B453" t="s">
+        <v>17</v>
+      </c>
+      <c r="C453">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="454" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A454" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B454" t="s">
+        <v>18</v>
+      </c>
+      <c r="C454">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="455" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A455" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B455" t="s">
+        <v>19</v>
+      </c>
+      <c r="C455">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="456" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A456" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B456" t="s">
+        <v>20</v>
+      </c>
+      <c r="C456">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="457" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A457" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B457" t="s">
+        <v>21</v>
+      </c>
+      <c r="C457">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="458" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A458" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B458" t="s">
+        <v>22</v>
+      </c>
+      <c r="C458">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="459" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A459" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B459" t="s">
+        <v>23</v>
+      </c>
+      <c r="C459">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="460" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A460" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B460" t="s">
+        <v>24</v>
+      </c>
+      <c r="C460">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="461" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A461" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B461" t="s">
+        <v>25</v>
+      </c>
+      <c r="C461">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="462" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A462" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B462" t="s">
+        <v>26</v>
+      </c>
+      <c r="C462">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="463" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A463" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B463" t="s">
+        <v>27</v>
+      </c>
+      <c r="C463">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="464" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A464" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B464" t="s">
+        <v>28</v>
+      </c>
+      <c r="C464">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="465" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A465" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B465" t="s">
+        <v>29</v>
+      </c>
+      <c r="C465">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="466" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A466" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B466" t="s">
+        <v>30</v>
+      </c>
+      <c r="C466">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="467" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A467" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B467" t="s">
+        <v>31</v>
+      </c>
+      <c r="C467">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="468" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A468" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B468" t="s">
+        <v>32</v>
+      </c>
+      <c r="C468">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="469" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A469" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B469" t="s">
+        <v>33</v>
+      </c>
+      <c r="C469">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="470" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A470" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B470" t="s">
+        <v>34</v>
+      </c>
+      <c r="C470">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="471" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A471" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B471" t="s">
+        <v>35</v>
+      </c>
+      <c r="C471">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="472" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A472" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B472" t="s">
+        <v>36</v>
+      </c>
+      <c r="C472">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="473" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A473" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B473" t="s">
+        <v>37</v>
+      </c>
+      <c r="C473">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="474" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A474" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B474" t="s">
+        <v>38</v>
+      </c>
+      <c r="C474">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="475" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A475" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B475" t="s">
+        <v>39</v>
+      </c>
+      <c r="C475">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="476" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A476" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B476" t="s">
+        <v>40</v>
+      </c>
+      <c r="C476">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="477" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A477" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B477" t="s">
+        <v>41</v>
+      </c>
+      <c r="C477">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="478" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A478" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B478" t="s">
+        <v>42</v>
+      </c>
+      <c r="C478">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="479" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A479" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B479" t="s">
+        <v>43</v>
+      </c>
+      <c r="C479">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="480" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A480" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B480" t="s">
+        <v>44</v>
+      </c>
+      <c r="C480">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="481" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A481" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B481" t="s">
+        <v>45</v>
+      </c>
+      <c r="C481">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="482" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A482" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B482" t="s">
+        <v>46</v>
+      </c>
+      <c r="C482">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="483" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A483" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B483" t="s">
+        <v>47</v>
+      </c>
+      <c r="C483">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="484" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A484" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B484" t="s">
+        <v>48</v>
+      </c>
+      <c r="C484">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="485" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A485" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B485" t="s">
+        <v>49</v>
+      </c>
+      <c r="C485">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="486" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A486" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B486" t="s">
+        <v>50</v>
+      </c>
+      <c r="C486">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="487" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A487" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B487" t="s">
+        <v>51</v>
+      </c>
+      <c r="C487">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="488" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A488" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B488" t="s">
+        <v>52</v>
+      </c>
+      <c r="C488">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="489" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A489" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B489" t="s">
+        <v>53</v>
+      </c>
+      <c r="C489">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="490" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A490" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B490" t="s">
+        <v>54</v>
+      </c>
+      <c r="C490">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="491" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A491" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B491" t="s">
+        <v>55</v>
+      </c>
+      <c r="C491">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="492" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A492" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B492" t="s">
+        <v>56</v>
+      </c>
+      <c r="C492">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="493" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A493" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B493" t="s">
+        <v>57</v>
+      </c>
+      <c r="C493">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="494" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A494" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B494" t="s">
+        <v>58</v>
+      </c>
+      <c r="C494">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="495" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A495" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B495" t="s">
+        <v>59</v>
+      </c>
+      <c r="C495">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="496" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A496" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B496" t="s">
+        <v>60</v>
+      </c>
+      <c r="C496">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="497" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A497" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B497" t="s">
+        <v>61</v>
+      </c>
+      <c r="C497">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="498" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A498" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B498" t="s">
+        <v>62</v>
+      </c>
+      <c r="C498">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="499" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A499" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B499" t="s">
+        <v>63</v>
+      </c>
+      <c r="C499">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="500" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A500" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B500" t="s">
+        <v>64</v>
+      </c>
+      <c r="C500">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="501" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A501" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B501" t="s">
+        <v>65</v>
+      </c>
+      <c r="C501">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="502" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A502" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B502" t="s">
+        <v>66</v>
+      </c>
+      <c r="C502">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="503" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A503" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B503" t="s">
+        <v>67</v>
+      </c>
+      <c r="C503">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="504" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A504" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B504" t="s">
+        <v>68</v>
+      </c>
+      <c r="C504">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="505" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A505" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B505" t="s">
+        <v>69</v>
+      </c>
+      <c r="C505">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="506" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A506" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B506" t="s">
+        <v>70</v>
+      </c>
+      <c r="C506">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="507" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A507" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B507" t="s">
+        <v>71</v>
+      </c>
+      <c r="C507">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="508" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A508" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B508" t="s">
+        <v>72</v>
+      </c>
+      <c r="C508">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="509" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A509" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B509" t="s">
+        <v>73</v>
+      </c>
+      <c r="C509">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="510" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A510" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B510" t="s">
+        <v>74</v>
+      </c>
+      <c r="C510">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="511" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A511" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B511" t="s">
+        <v>75</v>
+      </c>
+      <c r="C511">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="512" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A512" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B512" t="s">
+        <v>76</v>
+      </c>
+      <c r="C512">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="514" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A514" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="B514" t="s">
+        <v>4</v>
+      </c>
+      <c r="C514">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="515" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A515" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B515" t="s">
+        <v>6</v>
+      </c>
+      <c r="C515">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="516" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A516" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B516" t="s">
+        <v>7</v>
+      </c>
+      <c r="C516">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="517" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A517" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B517" t="s">
+        <v>8</v>
+      </c>
+      <c r="C517">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="518" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A518" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B518" t="s">
+        <v>9</v>
+      </c>
+      <c r="C518">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="519" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A519" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B519" t="s">
+        <v>10</v>
+      </c>
+      <c r="C519">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="520" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A520" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B520" t="s">
+        <v>11</v>
+      </c>
+      <c r="C520">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="521" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A521" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B521" t="s">
+        <v>12</v>
+      </c>
+      <c r="C521">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="522" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A522" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B522" t="s">
+        <v>13</v>
+      </c>
+      <c r="C522">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="523" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A523" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B523" t="s">
+        <v>14</v>
+      </c>
+      <c r="C523">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="524" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A524" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B524" t="s">
+        <v>15</v>
+      </c>
+      <c r="C524">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="525" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A525" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B525" t="s">
+        <v>16</v>
+      </c>
+      <c r="C525">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="526" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A526" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B526" t="s">
+        <v>17</v>
+      </c>
+      <c r="C526">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="527" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A527" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B527" t="s">
+        <v>18</v>
+      </c>
+      <c r="C527">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="528" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A528" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B528" t="s">
+        <v>19</v>
+      </c>
+      <c r="C528">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="529" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A529" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B529" t="s">
+        <v>20</v>
+      </c>
+      <c r="C529">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="530" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A530" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B530" t="s">
+        <v>21</v>
+      </c>
+      <c r="C530">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="531" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A531" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B531" t="s">
+        <v>22</v>
+      </c>
+      <c r="C531">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="532" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A532" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B532" t="s">
+        <v>23</v>
+      </c>
+      <c r="C532">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="533" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A533" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B533" t="s">
+        <v>24</v>
+      </c>
+      <c r="C533">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="534" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A534" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B534" t="s">
+        <v>25</v>
+      </c>
+      <c r="C534">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="535" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A535" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B535" t="s">
+        <v>26</v>
+      </c>
+      <c r="C535">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="536" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A536" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B536" t="s">
+        <v>27</v>
+      </c>
+      <c r="C536">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="537" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A537" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B537" t="s">
+        <v>28</v>
+      </c>
+      <c r="C537">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="538" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A538" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B538" t="s">
+        <v>29</v>
+      </c>
+      <c r="C538">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="539" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A539" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B539" t="s">
+        <v>30</v>
+      </c>
+      <c r="C539">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="540" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A540" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B540" t="s">
+        <v>31</v>
+      </c>
+      <c r="C540">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="541" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A541" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B541" t="s">
+        <v>32</v>
+      </c>
+      <c r="C541">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="542" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A542" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B542" t="s">
+        <v>33</v>
+      </c>
+      <c r="C542">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="543" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A543" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B543" t="s">
+        <v>34</v>
+      </c>
+      <c r="C543">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="544" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A544" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B544" t="s">
+        <v>35</v>
+      </c>
+      <c r="C544">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="545" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A545" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B545" t="s">
+        <v>36</v>
+      </c>
+      <c r="C545">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="546" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A546" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B546" t="s">
+        <v>37</v>
+      </c>
+      <c r="C546">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="547" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A547" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B547" t="s">
+        <v>38</v>
+      </c>
+      <c r="C547">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="548" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A548" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B548" t="s">
+        <v>39</v>
+      </c>
+      <c r="C548">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="549" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A549" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B549" t="s">
+        <v>40</v>
+      </c>
+      <c r="C549">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="550" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A550" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B550" t="s">
+        <v>41</v>
+      </c>
+      <c r="C550">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="551" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A551" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B551" t="s">
+        <v>42</v>
+      </c>
+      <c r="C551">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="552" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A552" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B552" t="s">
+        <v>43</v>
+      </c>
+      <c r="C552">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="553" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A553" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B553" t="s">
+        <v>44</v>
+      </c>
+      <c r="C553">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="554" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A554" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B554" t="s">
+        <v>45</v>
+      </c>
+      <c r="C554">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="555" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A555" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B555" t="s">
+        <v>46</v>
+      </c>
+      <c r="C555">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="556" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A556" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B556" t="s">
+        <v>47</v>
+      </c>
+      <c r="C556">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="557" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A557" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B557" t="s">
+        <v>48</v>
+      </c>
+      <c r="C557">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="558" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A558" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B558" t="s">
+        <v>49</v>
+      </c>
+      <c r="C558">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="559" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A559" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B559" t="s">
+        <v>50</v>
+      </c>
+      <c r="C559">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="560" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A560" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B560" t="s">
+        <v>51</v>
+      </c>
+      <c r="C560">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="561" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A561" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B561" t="s">
+        <v>52</v>
+      </c>
+      <c r="C561">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="562" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A562" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B562" t="s">
+        <v>53</v>
+      </c>
+      <c r="C562">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="563" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A563" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B563" t="s">
+        <v>54</v>
+      </c>
+      <c r="C563">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="564" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A564" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B564" t="s">
+        <v>55</v>
+      </c>
+      <c r="C564">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="565" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A565" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B565" t="s">
+        <v>56</v>
+      </c>
+      <c r="C565">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="566" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A566" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B566" t="s">
+        <v>57</v>
+      </c>
+      <c r="C566">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="567" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A567" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B567" t="s">
+        <v>58</v>
+      </c>
+      <c r="C567">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="568" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A568" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B568" t="s">
+        <v>59</v>
+      </c>
+      <c r="C568">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="569" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A569" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B569" t="s">
+        <v>60</v>
+      </c>
+      <c r="C569">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="570" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A570" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B570" t="s">
+        <v>61</v>
+      </c>
+      <c r="C570">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="571" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A571" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B571" t="s">
+        <v>62</v>
+      </c>
+      <c r="C571">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="572" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A572" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B572" t="s">
+        <v>63</v>
+      </c>
+      <c r="C572">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="573" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A573" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B573" t="s">
+        <v>64</v>
+      </c>
+      <c r="C573">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="574" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A574" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B574" t="s">
+        <v>65</v>
+      </c>
+      <c r="C574">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="575" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A575" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B575" t="s">
+        <v>66</v>
+      </c>
+      <c r="C575">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="576" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A576" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B576" t="s">
+        <v>67</v>
+      </c>
+      <c r="C576">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="577" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A577" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B577" t="s">
+        <v>68</v>
+      </c>
+      <c r="C577">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="578" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A578" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B578" t="s">
+        <v>69</v>
+      </c>
+      <c r="C578">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="579" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A579" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B579" t="s">
+        <v>70</v>
+      </c>
+      <c r="C579">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="580" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A580" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B580" t="s">
+        <v>71</v>
+      </c>
+      <c r="C580">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="581" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A581" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B581" t="s">
+        <v>72</v>
+      </c>
+      <c r="C581">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="582" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A582" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B582" t="s">
+        <v>73</v>
+      </c>
+      <c r="C582">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="583" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A583" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B583" t="s">
+        <v>74</v>
+      </c>
+      <c r="C583">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="584" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A584" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B584" t="s">
+        <v>75</v>
+      </c>
+      <c r="C584">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="585" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A585" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B585" t="s">
+        <v>76</v>
+      </c>
+      <c r="C585">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="587" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A587" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="B587" t="s">
+        <v>4</v>
+      </c>
+      <c r="C587">
+        <v>23676</v>
+      </c>
+    </row>
+    <row r="588" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A588" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B588" t="s">
+        <v>6</v>
+      </c>
+      <c r="C588">
+        <v>23676</v>
+      </c>
+    </row>
+    <row r="589" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A589" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B589" t="s">
+        <v>7</v>
+      </c>
+      <c r="C589">
+        <v>23676</v>
+      </c>
+    </row>
+    <row r="590" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A590" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B590" t="s">
+        <v>8</v>
+      </c>
+      <c r="C590">
+        <v>23676</v>
+      </c>
+    </row>
+    <row r="591" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A591" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B591" t="s">
+        <v>9</v>
+      </c>
+      <c r="C591">
+        <v>23676</v>
+      </c>
+    </row>
+    <row r="592" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A592" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B592" t="s">
+        <v>10</v>
+      </c>
+      <c r="C592">
+        <v>23676</v>
+      </c>
+    </row>
+    <row r="593" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A593" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B593" t="s">
+        <v>11</v>
+      </c>
+      <c r="C593">
+        <v>23676</v>
+      </c>
+    </row>
+    <row r="594" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A594" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B594" t="s">
+        <v>12</v>
+      </c>
+      <c r="C594">
+        <v>23676</v>
+      </c>
+    </row>
+    <row r="595" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A595" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B595" t="s">
+        <v>13</v>
+      </c>
+      <c r="C595">
+        <v>23676</v>
+      </c>
+    </row>
+    <row r="596" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A596" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B596" t="s">
+        <v>14</v>
+      </c>
+      <c r="C596">
+        <v>23676</v>
+      </c>
+    </row>
+    <row r="597" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A597" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B597" t="s">
+        <v>15</v>
+      </c>
+      <c r="C597">
+        <v>23676</v>
+      </c>
+    </row>
+    <row r="598" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A598" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B598" t="s">
+        <v>16</v>
+      </c>
+      <c r="C598">
+        <v>23676</v>
+      </c>
+    </row>
+    <row r="599" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A599" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B599" t="s">
+        <v>17</v>
+      </c>
+      <c r="C599">
+        <v>23676</v>
+      </c>
+    </row>
+    <row r="600" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A600" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B600" t="s">
+        <v>18</v>
+      </c>
+      <c r="C600">
+        <v>23676</v>
+      </c>
+    </row>
+    <row r="601" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A601" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B601" t="s">
+        <v>19</v>
+      </c>
+      <c r="C601">
+        <v>23676</v>
+      </c>
+    </row>
+    <row r="602" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A602" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B602" t="s">
+        <v>20</v>
+      </c>
+      <c r="C602">
+        <v>23676</v>
+      </c>
+    </row>
+    <row r="603" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A603" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B603" t="s">
+        <v>21</v>
+      </c>
+      <c r="C603">
+        <v>23676</v>
+      </c>
+    </row>
+    <row r="604" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A604" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B604" t="s">
+        <v>22</v>
+      </c>
+      <c r="C604">
+        <v>23676</v>
+      </c>
+    </row>
+    <row r="605" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A605" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B605" t="s">
+        <v>23</v>
+      </c>
+      <c r="C605">
+        <v>23676</v>
+      </c>
+    </row>
+    <row r="606" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A606" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B606" t="s">
+        <v>24</v>
+      </c>
+      <c r="C606">
+        <v>23676</v>
+      </c>
+    </row>
+    <row r="607" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A607" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B607" t="s">
+        <v>25</v>
+      </c>
+      <c r="C607">
+        <v>23676</v>
+      </c>
+    </row>
+    <row r="608" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A608" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B608" t="s">
+        <v>26</v>
+      </c>
+      <c r="C608">
+        <v>23676</v>
+      </c>
+    </row>
+    <row r="609" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A609" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B609" t="s">
+        <v>27</v>
+      </c>
+      <c r="C609">
+        <v>23676</v>
+      </c>
+    </row>
+    <row r="610" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A610" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B610" t="s">
+        <v>28</v>
+      </c>
+      <c r="C610">
+        <v>23676</v>
+      </c>
+    </row>
+    <row r="611" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A611" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B611" t="s">
+        <v>29</v>
+      </c>
+      <c r="C611">
+        <v>23676</v>
+      </c>
+    </row>
+    <row r="612" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A612" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B612" t="s">
+        <v>30</v>
+      </c>
+      <c r="C612">
+        <v>23676</v>
+      </c>
+    </row>
+    <row r="613" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A613" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B613" t="s">
+        <v>31</v>
+      </c>
+      <c r="C613">
+        <v>23676</v>
+      </c>
+    </row>
+    <row r="614" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A614" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B614" t="s">
+        <v>32</v>
+      </c>
+      <c r="C614">
+        <v>23676</v>
+      </c>
+    </row>
+    <row r="615" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A615" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B615" t="s">
+        <v>33</v>
+      </c>
+      <c r="C615">
+        <v>23676</v>
+      </c>
+    </row>
+    <row r="616" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A616" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B616" t="s">
+        <v>34</v>
+      </c>
+      <c r="C616">
+        <v>23676</v>
+      </c>
+    </row>
+    <row r="617" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A617" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B617" t="s">
+        <v>35</v>
+      </c>
+      <c r="C617">
+        <v>23676</v>
+      </c>
+    </row>
+    <row r="618" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A618" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B618" t="s">
+        <v>36</v>
+      </c>
+      <c r="C618">
+        <v>23676</v>
+      </c>
+    </row>
+    <row r="619" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A619" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B619" t="s">
+        <v>37</v>
+      </c>
+      <c r="C619">
+        <v>23676</v>
+      </c>
+    </row>
+    <row r="620" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A620" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B620" t="s">
+        <v>38</v>
+      </c>
+      <c r="C620">
+        <v>23676</v>
+      </c>
+    </row>
+    <row r="621" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A621" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B621" t="s">
+        <v>39</v>
+      </c>
+      <c r="C621">
+        <v>23676</v>
+      </c>
+    </row>
+    <row r="622" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A622" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B622" t="s">
+        <v>40</v>
+      </c>
+      <c r="C622">
+        <v>23676</v>
+      </c>
+    </row>
+    <row r="623" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A623" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B623" t="s">
+        <v>41</v>
+      </c>
+      <c r="C623">
+        <v>23676</v>
+      </c>
+    </row>
+    <row r="624" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A624" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B624" t="s">
+        <v>42</v>
+      </c>
+      <c r="C624">
+        <v>23676</v>
+      </c>
+    </row>
+    <row r="625" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A625" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B625" t="s">
+        <v>43</v>
+      </c>
+      <c r="C625">
+        <v>23676</v>
+      </c>
+    </row>
+    <row r="626" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A626" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B626" t="s">
+        <v>44</v>
+      </c>
+      <c r="C626">
+        <v>23676</v>
+      </c>
+    </row>
+    <row r="627" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A627" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B627" t="s">
+        <v>45</v>
+      </c>
+      <c r="C627">
+        <v>23676</v>
+      </c>
+    </row>
+    <row r="628" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A628" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B628" t="s">
+        <v>46</v>
+      </c>
+      <c r="C628">
+        <v>23676</v>
+      </c>
+    </row>
+    <row r="629" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A629" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B629" t="s">
+        <v>47</v>
+      </c>
+      <c r="C629">
+        <v>23676</v>
+      </c>
+    </row>
+    <row r="630" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A630" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B630" t="s">
+        <v>48</v>
+      </c>
+      <c r="C630">
+        <v>23676</v>
+      </c>
+    </row>
+    <row r="631" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A631" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B631" t="s">
+        <v>49</v>
+      </c>
+      <c r="C631">
+        <v>23676</v>
+      </c>
+    </row>
+    <row r="632" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A632" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B632" t="s">
+        <v>50</v>
+      </c>
+      <c r="C632">
+        <v>23676</v>
+      </c>
+    </row>
+    <row r="633" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A633" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B633" t="s">
+        <v>51</v>
+      </c>
+      <c r="C633">
+        <v>23676</v>
+      </c>
+    </row>
+    <row r="634" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A634" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B634" t="s">
+        <v>52</v>
+      </c>
+      <c r="C634">
+        <v>23676</v>
+      </c>
+    </row>
+    <row r="635" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A635" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B635" t="s">
+        <v>53</v>
+      </c>
+      <c r="C635">
+        <v>23676</v>
+      </c>
+    </row>
+    <row r="636" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A636" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B636" t="s">
+        <v>54</v>
+      </c>
+      <c r="C636">
+        <v>23676</v>
+      </c>
+    </row>
+    <row r="637" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A637" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B637" t="s">
+        <v>55</v>
+      </c>
+      <c r="C637">
+        <v>23676</v>
+      </c>
+    </row>
+    <row r="638" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A638" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B638" t="s">
+        <v>56</v>
+      </c>
+      <c r="C638">
+        <v>23676</v>
+      </c>
+    </row>
+    <row r="639" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A639" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B639" t="s">
+        <v>57</v>
+      </c>
+      <c r="C639">
+        <v>23676</v>
+      </c>
+    </row>
+    <row r="640" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A640" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B640" t="s">
+        <v>58</v>
+      </c>
+      <c r="C640">
+        <v>23676</v>
+      </c>
+    </row>
+    <row r="641" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A641" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B641" t="s">
+        <v>59</v>
+      </c>
+      <c r="C641">
+        <v>23676</v>
+      </c>
+    </row>
+    <row r="642" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A642" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B642" t="s">
+        <v>60</v>
+      </c>
+      <c r="C642">
+        <v>23676</v>
+      </c>
+    </row>
+    <row r="643" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A643" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B643" t="s">
+        <v>61</v>
+      </c>
+      <c r="C643">
+        <v>23676</v>
+      </c>
+    </row>
+    <row r="644" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A644" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B644" t="s">
+        <v>62</v>
+      </c>
+      <c r="C644">
+        <v>23676</v>
+      </c>
+    </row>
+    <row r="645" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A645" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B645" t="s">
+        <v>63</v>
+      </c>
+      <c r="C645">
+        <v>23676</v>
+      </c>
+    </row>
+    <row r="646" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A646" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B646" t="s">
+        <v>64</v>
+      </c>
+      <c r="C646">
+        <v>23676</v>
+      </c>
+    </row>
+    <row r="647" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A647" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B647" t="s">
+        <v>65</v>
+      </c>
+      <c r="C647">
+        <v>23676</v>
+      </c>
+    </row>
+    <row r="648" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A648" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B648" t="s">
+        <v>66</v>
+      </c>
+      <c r="C648">
+        <v>23676</v>
+      </c>
+    </row>
+    <row r="649" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A649" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B649" t="s">
+        <v>67</v>
+      </c>
+      <c r="C649">
+        <v>23676</v>
+      </c>
+    </row>
+    <row r="650" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A650" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B650" t="s">
+        <v>68</v>
+      </c>
+      <c r="C650">
+        <v>23676</v>
+      </c>
+    </row>
+    <row r="651" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A651" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B651" t="s">
+        <v>69</v>
+      </c>
+      <c r="C651">
+        <v>23676</v>
+      </c>
+    </row>
+    <row r="652" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A652" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B652" t="s">
+        <v>70</v>
+      </c>
+      <c r="C652">
+        <v>23676</v>
+      </c>
+    </row>
+    <row r="653" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A653" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B653" t="s">
+        <v>71</v>
+      </c>
+      <c r="C653">
+        <v>23676</v>
+      </c>
+    </row>
+    <row r="654" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A654" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B654" t="s">
+        <v>72</v>
+      </c>
+      <c r="C654">
+        <v>23676</v>
+      </c>
+    </row>
+    <row r="655" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A655" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B655" t="s">
+        <v>73</v>
+      </c>
+      <c r="C655">
+        <v>23676</v>
+      </c>
+    </row>
+    <row r="656" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A656" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B656" t="s">
+        <v>74</v>
+      </c>
+      <c r="C656">
+        <v>23676</v>
+      </c>
+    </row>
+    <row r="657" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A657" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B657" t="s">
+        <v>75</v>
+      </c>
+      <c r="C657">
+        <v>23676</v>
+      </c>
+    </row>
+    <row r="658" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A658" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B658" t="s">
+        <v>76</v>
+      </c>
+      <c r="C658">
+        <v>23676</v>
+      </c>
+    </row>
+    <row r="660" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A660" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="B660" t="s">
+        <v>4</v>
+      </c>
+      <c r="C660" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="661" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A661" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B661" t="s">
+        <v>6</v>
+      </c>
+      <c r="C661" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="662" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A662" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B662" t="s">
+        <v>7</v>
+      </c>
+      <c r="C662" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="663" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A663" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B663" t="s">
+        <v>8</v>
+      </c>
+      <c r="C663" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="664" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A664" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B664" t="s">
+        <v>9</v>
+      </c>
+      <c r="C664" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="665" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A665" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B665" t="s">
+        <v>10</v>
+      </c>
+      <c r="C665" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="666" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A666" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B666" t="s">
+        <v>11</v>
+      </c>
+      <c r="C666" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="667" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A667" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B667" t="s">
+        <v>12</v>
+      </c>
+      <c r="C667" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="668" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A668" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B668" t="s">
+        <v>13</v>
+      </c>
+      <c r="C668" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="669" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A669" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B669" t="s">
+        <v>14</v>
+      </c>
+      <c r="C669" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="670" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A670" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B670" t="s">
+        <v>15</v>
+      </c>
+      <c r="C670" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="671" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A671" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B671" t="s">
+        <v>16</v>
+      </c>
+      <c r="C671" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="672" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A672" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B672" t="s">
+        <v>17</v>
+      </c>
+      <c r="C672" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="673" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A673" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B673" t="s">
+        <v>18</v>
+      </c>
+      <c r="C673" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="674" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A674" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B674" t="s">
+        <v>19</v>
+      </c>
+      <c r="C674" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="675" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A675" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B675" t="s">
+        <v>20</v>
+      </c>
+      <c r="C675" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="676" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A676" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B676" t="s">
+        <v>21</v>
+      </c>
+      <c r="C676" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="677" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A677" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B677" t="s">
+        <v>22</v>
+      </c>
+      <c r="C677" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="678" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A678" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B678" t="s">
+        <v>23</v>
+      </c>
+      <c r="C678" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="679" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A679" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B679" t="s">
+        <v>24</v>
+      </c>
+      <c r="C679" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="680" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A680" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B680" t="s">
+        <v>25</v>
+      </c>
+      <c r="C680" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="681" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A681" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B681" t="s">
+        <v>26</v>
+      </c>
+      <c r="C681" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="682" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A682" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B682" t="s">
+        <v>27</v>
+      </c>
+      <c r="C682" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="683" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A683" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B683" t="s">
+        <v>28</v>
+      </c>
+      <c r="C683" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="684" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A684" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B684" t="s">
+        <v>29</v>
+      </c>
+      <c r="C684" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="685" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A685" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B685" t="s">
+        <v>30</v>
+      </c>
+      <c r="C685" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="686" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A686" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B686" t="s">
+        <v>31</v>
+      </c>
+      <c r="C686" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="687" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A687" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B687" t="s">
+        <v>32</v>
+      </c>
+      <c r="C687" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="688" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A688" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B688" t="s">
+        <v>33</v>
+      </c>
+      <c r="C688" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="689" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A689" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B689" t="s">
+        <v>34</v>
+      </c>
+      <c r="C689" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="690" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A690" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B690" t="s">
+        <v>35</v>
+      </c>
+      <c r="C690" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="691" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A691" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B691" t="s">
+        <v>36</v>
+      </c>
+      <c r="C691" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="692" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A692" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B692" t="s">
+        <v>37</v>
+      </c>
+      <c r="C692" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="693" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A693" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B693" t="s">
+        <v>38</v>
+      </c>
+      <c r="C693" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="694" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A694" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B694" t="s">
+        <v>39</v>
+      </c>
+      <c r="C694" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="695" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A695" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B695" t="s">
+        <v>40</v>
+      </c>
+      <c r="C695" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="696" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A696" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B696" t="s">
+        <v>41</v>
+      </c>
+      <c r="C696" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="697" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A697" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B697" t="s">
+        <v>42</v>
+      </c>
+      <c r="C697" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="698" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A698" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B698" t="s">
+        <v>43</v>
+      </c>
+      <c r="C698" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="699" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A699" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B699" t="s">
+        <v>44</v>
+      </c>
+      <c r="C699" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="700" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A700" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B700" t="s">
+        <v>45</v>
+      </c>
+      <c r="C700" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="701" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A701" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B701" t="s">
+        <v>46</v>
+      </c>
+      <c r="C701" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="702" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A702" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B702" t="s">
+        <v>47</v>
+      </c>
+      <c r="C702" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="703" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A703" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B703" t="s">
+        <v>48</v>
+      </c>
+      <c r="C703" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="704" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A704" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B704" t="s">
+        <v>49</v>
+      </c>
+      <c r="C704" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="705" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A705" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B705" t="s">
+        <v>50</v>
+      </c>
+      <c r="C705" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="706" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A706" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B706" t="s">
+        <v>51</v>
+      </c>
+      <c r="C706" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="707" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A707" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B707" t="s">
+        <v>52</v>
+      </c>
+      <c r="C707" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="708" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A708" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B708" t="s">
+        <v>53</v>
+      </c>
+      <c r="C708" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="709" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A709" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B709" t="s">
+        <v>54</v>
+      </c>
+      <c r="C709" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="710" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A710" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B710" t="s">
+        <v>55</v>
+      </c>
+      <c r="C710" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="711" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A711" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B711" t="s">
+        <v>56</v>
+      </c>
+      <c r="C711" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="712" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A712" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B712" t="s">
+        <v>57</v>
+      </c>
+      <c r="C712" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="713" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A713" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B713" t="s">
+        <v>58</v>
+      </c>
+      <c r="C713" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="714" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A714" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B714" t="s">
+        <v>59</v>
+      </c>
+      <c r="C714" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="715" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A715" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B715" t="s">
+        <v>60</v>
+      </c>
+      <c r="C715" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="716" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A716" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B716" t="s">
+        <v>61</v>
+      </c>
+      <c r="C716" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="717" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A717" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B717" t="s">
+        <v>62</v>
+      </c>
+      <c r="C717" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="718" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A718" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B718" t="s">
+        <v>63</v>
+      </c>
+      <c r="C718" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="719" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A719" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B719" t="s">
+        <v>64</v>
+      </c>
+      <c r="C719" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="720" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A720" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B720" t="s">
+        <v>65</v>
+      </c>
+      <c r="C720" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="721" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A721" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B721" t="s">
+        <v>66</v>
+      </c>
+      <c r="C721" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="722" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A722" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B722" t="s">
+        <v>67</v>
+      </c>
+      <c r="C722" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="723" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A723" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B723" t="s">
+        <v>68</v>
+      </c>
+      <c r="C723" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="724" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A724" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B724" t="s">
+        <v>69</v>
+      </c>
+      <c r="C724" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="725" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A725" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B725" t="s">
+        <v>70</v>
+      </c>
+      <c r="C725" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="726" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A726" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B726" t="s">
+        <v>71</v>
+      </c>
+      <c r="C726" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="727" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A727" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B727" t="s">
+        <v>72</v>
+      </c>
+      <c r="C727" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="728" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A728" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B728" t="s">
+        <v>73</v>
+      </c>
+      <c r="C728" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="729" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A729" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B729" t="s">
+        <v>74</v>
+      </c>
+      <c r="C729" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="730" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A730" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B730" t="s">
+        <v>75</v>
+      </c>
+      <c r="C730" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="731" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A731" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B731" t="s">
+        <v>76</v>
+      </c>
+      <c r="C731" t="s">
+        <v>86</v>
       </c>
     </row>
   </sheetData>

--- a/data.xlsx
+++ b/data.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="318" uniqueCount="31">
   <si>
     <t>label</t>
   </si>
@@ -25,55 +25,79 @@
     <t>Об`єм (маса) каналу витрати 1</t>
   </si>
   <si>
+    <t>10:10:2020:0</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
     <t>11:10:2020:0</t>
   </si>
   <si>
+    <t>12:10:2020:0</t>
+  </si>
+  <si>
+    <t>13:10:2020:0</t>
+  </si>
+  <si>
+    <t>14:10:2020:0</t>
+  </si>
+  <si>
+    <t>15:10:2020:0</t>
+  </si>
+  <si>
+    <t>16:10:2020:0</t>
+  </si>
+  <si>
+    <t>17:10:2020:0</t>
+  </si>
+  <si>
+    <t>18:10:2020:0</t>
+  </si>
+  <si>
+    <t>19:10:2020:0</t>
+  </si>
+  <si>
+    <t>20:10:2020:0</t>
+  </si>
+  <si>
+    <t>21:10:2020:0</t>
+  </si>
+  <si>
+    <t>22:10:2020:0</t>
+  </si>
+  <si>
+    <t>23:10:2020:0</t>
+  </si>
+  <si>
+    <t>24:10:2020:0</t>
+  </si>
+  <si>
+    <t>Значення температури ТСП 1 * 100</t>
+  </si>
+  <si>
+    <t>Значення температури ТСП 2 * 100</t>
+  </si>
+  <si>
+    <t>Тепло</t>
+  </si>
+  <si>
+    <t>Час роботи лічильника, год</t>
+  </si>
+  <si>
+    <t>Час помилок</t>
+  </si>
+  <si>
+    <t>Введені користувачем константи тиску * 1000</t>
+  </si>
+  <si>
+    <t>Спожита енергія</t>
+  </si>
+  <si>
+    <t>Температура всередині корпусу</t>
+  </si>
+  <si>
     <t/>
-  </si>
-  <si>
-    <t>12:10:2020:0</t>
-  </si>
-  <si>
-    <t>13:10:2020:0</t>
-  </si>
-  <si>
-    <t>14:10:2020:0</t>
-  </si>
-  <si>
-    <t>15:10:2020:0</t>
-  </si>
-  <si>
-    <t>16:10:2020:0</t>
-  </si>
-  <si>
-    <t>17:10:2020:0</t>
-  </si>
-  <si>
-    <t>18:10:2020:0</t>
-  </si>
-  <si>
-    <t>Значення температури ТСП 1 * 100</t>
-  </si>
-  <si>
-    <t>Значення температури ТСП 2 * 100</t>
-  </si>
-  <si>
-    <t>Тепло</t>
-  </si>
-  <si>
-    <t>Час роботи лічильника, год</t>
-  </si>
-  <si>
-    <t>Час помилок</t>
-  </si>
-  <si>
-    <t>Введені користувачем константи тиску * 1000</t>
-  </si>
-  <si>
-    <t>Спожита енергія</t>
-  </si>
-  <si>
-    <t>Температура всередині корпусу</t>
   </si>
   <si>
     <t/>
@@ -460,7 +484,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C91"/>
+  <dimension ref="A1:C161"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <cols>
     <col min="1" max="1" width="64" style="1" customWidth="1"/>
@@ -567,15 +591,26 @@
         <v>0</v>
       </c>
     </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B11" t="s">
+        <v>13</v>
+      </c>
+      <c r="C11">
+        <v>0</v>
+      </c>
+    </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="B12" t="s">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="C12">
-        <v>22.1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
@@ -583,10 +618,10 @@
         <v>5</v>
       </c>
       <c r="B13" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="C13">
-        <v>21.85</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
@@ -594,10 +629,10 @@
         <v>5</v>
       </c>
       <c r="B14" t="s">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="C14">
-        <v>21.68</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
@@ -605,10 +640,10 @@
         <v>5</v>
       </c>
       <c r="B15" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="C15">
-        <v>21.73</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
@@ -616,10 +651,10 @@
         <v>5</v>
       </c>
       <c r="B16" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="C16">
-        <v>21.74</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
@@ -627,43 +662,43 @@
         <v>5</v>
       </c>
       <c r="B17" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="C17">
-        <v>21.4</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B18" t="s">
-        <v>11</v>
-      </c>
-      <c r="C18">
-        <v>20.85</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="B19" t="s">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="C19">
-        <v>20.84</v>
+        <v>22.72</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B20" t="s">
+        <v>6</v>
+      </c>
+      <c r="C20">
+        <v>22.1</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="B21" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C21">
-        <v>22.13</v>
+        <v>21.85</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
@@ -671,10 +706,10 @@
         <v>5</v>
       </c>
       <c r="B22" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C22">
-        <v>21.84</v>
+        <v>21.68</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
@@ -682,7 +717,7 @@
         <v>5</v>
       </c>
       <c r="B23" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C23">
         <v>21.73</v>
@@ -693,10 +728,10 @@
         <v>5</v>
       </c>
       <c r="B24" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C24">
-        <v>21.77</v>
+        <v>21.74</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
@@ -704,10 +739,10 @@
         <v>5</v>
       </c>
       <c r="B25" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C25">
-        <v>21.78</v>
+        <v>21.4</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
@@ -715,10 +750,10 @@
         <v>5</v>
       </c>
       <c r="B26" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C26">
-        <v>21.42</v>
+        <v>20.85</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
@@ -726,10 +761,10 @@
         <v>5</v>
       </c>
       <c r="B27" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C27">
-        <v>20.88</v>
+        <v>20.84</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
@@ -737,21 +772,32 @@
         <v>5</v>
       </c>
       <c r="B28" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C28">
-        <v>20.87</v>
+        <v>20.81</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A29" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B29" t="s">
+        <v>15</v>
+      </c>
+      <c r="C29">
+        <v>20.74</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="B30" t="s">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="C30">
-        <v>0</v>
+        <v>20.79</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
@@ -759,10 +805,10 @@
         <v>5</v>
       </c>
       <c r="B31" t="s">
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="C31">
-        <v>0</v>
+        <v>20.67</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
@@ -770,10 +816,10 @@
         <v>5</v>
       </c>
       <c r="B32" t="s">
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="C32">
-        <v>0</v>
+        <v>20.81</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
@@ -781,32 +827,21 @@
         <v>5</v>
       </c>
       <c r="B33" t="s">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="C33">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A34" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B34" t="s">
-        <v>9</v>
-      </c>
-      <c r="C34">
-        <v>0</v>
+        <v>21.03</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
-        <v>5</v>
+        <v>21</v>
       </c>
       <c r="B35" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="C35">
-        <v>0</v>
+        <v>22.73</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
@@ -814,10 +849,10 @@
         <v>5</v>
       </c>
       <c r="B36" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="C36">
-        <v>0</v>
+        <v>22.13</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
@@ -825,21 +860,32 @@
         <v>5</v>
       </c>
       <c r="B37" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="C37">
-        <v>0</v>
+        <v>21.84</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A38" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B38" t="s">
+        <v>8</v>
+      </c>
+      <c r="C38">
+        <v>21.73</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
-        <v>16</v>
+        <v>5</v>
       </c>
       <c r="B39" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="C39">
-        <v>9.13861111111111</v>
+        <v>21.77</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
@@ -847,10 +893,10 @@
         <v>5</v>
       </c>
       <c r="B40" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="C40">
-        <v>9.13861111111111</v>
+        <v>21.78</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
@@ -858,10 +904,10 @@
         <v>5</v>
       </c>
       <c r="B41" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="C41">
-        <v>9.13861111111111</v>
+        <v>21.42</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">
@@ -869,10 +915,10 @@
         <v>5</v>
       </c>
       <c r="B42" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="C42">
-        <v>9.13861111111111</v>
+        <v>20.88</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.25">
@@ -880,10 +926,10 @@
         <v>5</v>
       </c>
       <c r="B43" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C43">
-        <v>9.13861111111111</v>
+        <v>20.87</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.25">
@@ -891,10 +937,10 @@
         <v>5</v>
       </c>
       <c r="B44" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="C44">
-        <v>9.13861111111111</v>
+        <v>20.81</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.25">
@@ -902,10 +948,10 @@
         <v>5</v>
       </c>
       <c r="B45" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="C45">
-        <v>9.13861111111111</v>
+        <v>20.77</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.25">
@@ -913,21 +959,32 @@
         <v>5</v>
       </c>
       <c r="B46" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="C46">
-        <v>9.13861111111111</v>
+        <v>20.82</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A47" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B47" t="s">
+        <v>17</v>
+      </c>
+      <c r="C47">
+        <v>20.68</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="B48" t="s">
-        <v>4</v>
+        <v>18</v>
       </c>
       <c r="C48">
-        <v>9.13861111111111</v>
+        <v>20.83</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.25">
@@ -935,32 +992,21 @@
         <v>5</v>
       </c>
       <c r="B49" t="s">
-        <v>6</v>
+        <v>19</v>
       </c>
       <c r="C49">
-        <v>9.13861111111111</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A50" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B50" t="s">
-        <v>7</v>
-      </c>
-      <c r="C50">
-        <v>9.13861111111111</v>
+        <v>21.05</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
-        <v>5</v>
+        <v>22</v>
       </c>
       <c r="B51" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="C51">
-        <v>9.0675</v>
+        <v>0</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.25">
@@ -968,10 +1014,10 @@
         <v>5</v>
       </c>
       <c r="B52" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C52">
-        <v>9.13861111111111</v>
+        <v>0</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.25">
@@ -979,10 +1025,10 @@
         <v>5</v>
       </c>
       <c r="B53" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C53">
-        <v>9.13861111111111</v>
+        <v>0</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.25">
@@ -990,10 +1036,10 @@
         <v>5</v>
       </c>
       <c r="B54" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="C54">
-        <v>9.13861111111111</v>
+        <v>0</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.25">
@@ -1001,21 +1047,32 @@
         <v>5</v>
       </c>
       <c r="B55" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C55">
-        <v>9.13861111111111</v>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A56" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B56" t="s">
+        <v>10</v>
+      </c>
+      <c r="C56">
+        <v>0</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A57" s="1" t="s">
-        <v>18</v>
+        <v>5</v>
       </c>
       <c r="B57" t="s">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="C57">
-        <v>0.5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.25">
@@ -1023,10 +1080,10 @@
         <v>5</v>
       </c>
       <c r="B58" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="C58">
-        <v>0.5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.25">
@@ -1034,10 +1091,10 @@
         <v>5</v>
       </c>
       <c r="B59" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="C59">
-        <v>0.5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.25">
@@ -1045,10 +1102,10 @@
         <v>5</v>
       </c>
       <c r="B60" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="C60">
-        <v>0.5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.25">
@@ -1056,10 +1113,10 @@
         <v>5</v>
       </c>
       <c r="B61" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="C61">
-        <v>0.5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.25">
@@ -1067,10 +1124,10 @@
         <v>5</v>
       </c>
       <c r="B62" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="C62">
-        <v>0.5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.25">
@@ -1078,10 +1135,10 @@
         <v>5</v>
       </c>
       <c r="B63" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="C63">
-        <v>0.5</v>
+        <v>0</v>
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.25">
@@ -1089,32 +1146,32 @@
         <v>5</v>
       </c>
       <c r="B64" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="C64">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A66" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B66" t="s">
-        <v>4</v>
-      </c>
-      <c r="C66">
-        <v>0.4</v>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A65" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B65" t="s">
+        <v>19</v>
+      </c>
+      <c r="C65">
+        <v>0</v>
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A67" s="1" t="s">
-        <v>5</v>
+        <v>23</v>
       </c>
       <c r="B67" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C67">
-        <v>0.4</v>
+        <v>9.13861111111111</v>
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.25">
@@ -1122,10 +1179,10 @@
         <v>5</v>
       </c>
       <c r="B68" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C68">
-        <v>0.4</v>
+        <v>9.13861111111111</v>
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.25">
@@ -1133,10 +1190,10 @@
         <v>5</v>
       </c>
       <c r="B69" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C69">
-        <v>0.4</v>
+        <v>9.13861111111111</v>
       </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.25">
@@ -1144,10 +1201,10 @@
         <v>5</v>
       </c>
       <c r="B70" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C70">
-        <v>0.4</v>
+        <v>9.13861111111111</v>
       </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.25">
@@ -1155,10 +1212,10 @@
         <v>5</v>
       </c>
       <c r="B71" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C71">
-        <v>0.4</v>
+        <v>9.13861111111111</v>
       </c>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.25">
@@ -1166,10 +1223,10 @@
         <v>5</v>
       </c>
       <c r="B72" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C72">
-        <v>0.4</v>
+        <v>9.13861111111111</v>
       </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.25">
@@ -1177,21 +1234,32 @@
         <v>5</v>
       </c>
       <c r="B73" t="s">
+        <v>11</v>
+      </c>
+      <c r="C73">
+        <v>9.13861111111111</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A74" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B74" t="s">
         <v>12</v>
       </c>
-      <c r="C73">
-        <v>0.4</v>
+      <c r="C74">
+        <v>9.13861111111111</v>
       </c>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A75" s="1" t="s">
-        <v>19</v>
+        <v>5</v>
       </c>
       <c r="B75" t="s">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="C75">
-        <v>8833</v>
+        <v>9.13861111111111</v>
       </c>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.25">
@@ -1199,10 +1267,10 @@
         <v>5</v>
       </c>
       <c r="B76" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="C76">
-        <v>8833</v>
+        <v>9.13861111111111</v>
       </c>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.25">
@@ -1210,10 +1278,10 @@
         <v>5</v>
       </c>
       <c r="B77" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="C77">
-        <v>8577</v>
+        <v>9.13861111111111</v>
       </c>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.25">
@@ -1221,10 +1289,10 @@
         <v>5</v>
       </c>
       <c r="B78" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="C78">
-        <v>1921</v>
+        <v>9.13861111111111</v>
       </c>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.25">
@@ -1232,10 +1300,10 @@
         <v>5</v>
       </c>
       <c r="B79" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="C79">
-        <v>897</v>
+        <v>9.13861111111111</v>
       </c>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.25">
@@ -1243,10 +1311,10 @@
         <v>5</v>
       </c>
       <c r="B80" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="C80">
-        <v>8577</v>
+        <v>9.13861111111111</v>
       </c>
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.25">
@@ -1254,32 +1322,32 @@
         <v>5</v>
       </c>
       <c r="B81" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="C81">
-        <v>8321</v>
-      </c>
-    </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A82" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B82" t="s">
-        <v>12</v>
-      </c>
-      <c r="C82">
-        <v>8321</v>
+        <v>9.13861111111111</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A83" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B83" t="s">
+        <v>4</v>
+      </c>
+      <c r="C83">
+        <v>9.13861111111111</v>
       </c>
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A84" s="1" t="s">
-        <v>20</v>
+        <v>5</v>
       </c>
       <c r="B84" t="s">
-        <v>4</v>
-      </c>
-      <c r="C84" t="s">
-        <v>21</v>
+        <v>6</v>
+      </c>
+      <c r="C84">
+        <v>9.13861111111111</v>
       </c>
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.25">
@@ -1287,10 +1355,10 @@
         <v>5</v>
       </c>
       <c r="B85" t="s">
-        <v>6</v>
-      </c>
-      <c r="C85" t="s">
-        <v>21</v>
+        <v>7</v>
+      </c>
+      <c r="C85">
+        <v>9.13861111111111</v>
       </c>
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.25">
@@ -1298,10 +1366,10 @@
         <v>5</v>
       </c>
       <c r="B86" t="s">
-        <v>7</v>
-      </c>
-      <c r="C86" t="s">
-        <v>21</v>
+        <v>8</v>
+      </c>
+      <c r="C86">
+        <v>9.13861111111111</v>
       </c>
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.25">
@@ -1309,10 +1377,10 @@
         <v>5</v>
       </c>
       <c r="B87" t="s">
-        <v>8</v>
-      </c>
-      <c r="C87" t="s">
-        <v>21</v>
+        <v>9</v>
+      </c>
+      <c r="C87">
+        <v>9.0675</v>
       </c>
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.25">
@@ -1320,10 +1388,10 @@
         <v>5</v>
       </c>
       <c r="B88" t="s">
-        <v>9</v>
-      </c>
-      <c r="C88" t="s">
-        <v>21</v>
+        <v>10</v>
+      </c>
+      <c r="C88">
+        <v>9.13861111111111</v>
       </c>
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.25">
@@ -1331,10 +1399,10 @@
         <v>5</v>
       </c>
       <c r="B89" t="s">
-        <v>10</v>
-      </c>
-      <c r="C89" t="s">
-        <v>21</v>
+        <v>11</v>
+      </c>
+      <c r="C89">
+        <v>9.13861111111111</v>
       </c>
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.25">
@@ -1342,10 +1410,10 @@
         <v>5</v>
       </c>
       <c r="B90" t="s">
-        <v>11</v>
-      </c>
-      <c r="C90" t="s">
-        <v>22</v>
+        <v>12</v>
+      </c>
+      <c r="C90">
+        <v>9.13861111111111</v>
       </c>
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.25">
@@ -1353,10 +1421,736 @@
         <v>5</v>
       </c>
       <c r="B91" t="s">
+        <v>13</v>
+      </c>
+      <c r="C91">
+        <v>9.13861111111111</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A92" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B92" t="s">
+        <v>14</v>
+      </c>
+      <c r="C92">
+        <v>9.13861111111111</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A93" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B93" t="s">
+        <v>15</v>
+      </c>
+      <c r="C93">
+        <v>9.13861111111111</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A94" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B94" t="s">
+        <v>16</v>
+      </c>
+      <c r="C94">
+        <v>9.13861111111111</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A95" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B95" t="s">
+        <v>17</v>
+      </c>
+      <c r="C95">
+        <v>9.13861111111111</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A96" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B96" t="s">
+        <v>18</v>
+      </c>
+      <c r="C96">
+        <v>9.13861111111111</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A97" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B97" t="s">
+        <v>19</v>
+      </c>
+      <c r="C97">
+        <v>9.13861111111111</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A99" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B99" t="s">
+        <v>4</v>
+      </c>
+      <c r="C99">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A100" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B100" t="s">
+        <v>6</v>
+      </c>
+      <c r="C100">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A101" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B101" t="s">
+        <v>7</v>
+      </c>
+      <c r="C101">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A102" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B102" t="s">
+        <v>8</v>
+      </c>
+      <c r="C102">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A103" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B103" t="s">
+        <v>9</v>
+      </c>
+      <c r="C103">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A104" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B104" t="s">
+        <v>10</v>
+      </c>
+      <c r="C104">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A105" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B105" t="s">
+        <v>11</v>
+      </c>
+      <c r="C105">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A106" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B106" t="s">
         <v>12</v>
       </c>
-      <c r="C91" t="s">
-        <v>22</v>
+      <c r="C106">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A107" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B107" t="s">
+        <v>13</v>
+      </c>
+      <c r="C107">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="108" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A108" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B108" t="s">
+        <v>14</v>
+      </c>
+      <c r="C108">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="109" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A109" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B109" t="s">
+        <v>15</v>
+      </c>
+      <c r="C109">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="110" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A110" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B110" t="s">
+        <v>16</v>
+      </c>
+      <c r="C110">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="111" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A111" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B111" t="s">
+        <v>17</v>
+      </c>
+      <c r="C111">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="112" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A112" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B112" t="s">
+        <v>18</v>
+      </c>
+      <c r="C112">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="113" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A113" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B113" t="s">
+        <v>19</v>
+      </c>
+      <c r="C113">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="115" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A115" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B115" t="s">
+        <v>4</v>
+      </c>
+      <c r="C115">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="116" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A116" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B116" t="s">
+        <v>6</v>
+      </c>
+      <c r="C116">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="117" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A117" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B117" t="s">
+        <v>7</v>
+      </c>
+      <c r="C117">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="118" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A118" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B118" t="s">
+        <v>8</v>
+      </c>
+      <c r="C118">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="119" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A119" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B119" t="s">
+        <v>9</v>
+      </c>
+      <c r="C119">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="120" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A120" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B120" t="s">
+        <v>10</v>
+      </c>
+      <c r="C120">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="121" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A121" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B121" t="s">
+        <v>11</v>
+      </c>
+      <c r="C121">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="122" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A122" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B122" t="s">
+        <v>12</v>
+      </c>
+      <c r="C122">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="123" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A123" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B123" t="s">
+        <v>13</v>
+      </c>
+      <c r="C123">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="124" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A124" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B124" t="s">
+        <v>14</v>
+      </c>
+      <c r="C124">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="125" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A125" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B125" t="s">
+        <v>15</v>
+      </c>
+      <c r="C125">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="126" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A126" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B126" t="s">
+        <v>16</v>
+      </c>
+      <c r="C126">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="127" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A127" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B127" t="s">
+        <v>17</v>
+      </c>
+      <c r="C127">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="128" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A128" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B128" t="s">
+        <v>18</v>
+      </c>
+      <c r="C128">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="129" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A129" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B129" t="s">
+        <v>19</v>
+      </c>
+      <c r="C129">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="131" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A131" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B131" t="s">
+        <v>4</v>
+      </c>
+      <c r="C131">
+        <v>8833</v>
+      </c>
+    </row>
+    <row r="132" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A132" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B132" t="s">
+        <v>6</v>
+      </c>
+      <c r="C132">
+        <v>8833</v>
+      </c>
+    </row>
+    <row r="133" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A133" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B133" t="s">
+        <v>7</v>
+      </c>
+      <c r="C133">
+        <v>8833</v>
+      </c>
+    </row>
+    <row r="134" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A134" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B134" t="s">
+        <v>8</v>
+      </c>
+      <c r="C134">
+        <v>8577</v>
+      </c>
+    </row>
+    <row r="135" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A135" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B135" t="s">
+        <v>9</v>
+      </c>
+      <c r="C135">
+        <v>1921</v>
+      </c>
+    </row>
+    <row r="136" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A136" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B136" t="s">
+        <v>10</v>
+      </c>
+      <c r="C136">
+        <v>897</v>
+      </c>
+    </row>
+    <row r="137" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A137" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B137" t="s">
+        <v>11</v>
+      </c>
+      <c r="C137">
+        <v>8577</v>
+      </c>
+    </row>
+    <row r="138" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A138" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B138" t="s">
+        <v>12</v>
+      </c>
+      <c r="C138">
+        <v>8321</v>
+      </c>
+    </row>
+    <row r="139" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A139" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B139" t="s">
+        <v>13</v>
+      </c>
+      <c r="C139">
+        <v>8321</v>
+      </c>
+    </row>
+    <row r="140" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A140" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B140" t="s">
+        <v>14</v>
+      </c>
+      <c r="C140">
+        <v>8577</v>
+      </c>
+    </row>
+    <row r="141" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A141" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B141" t="s">
+        <v>15</v>
+      </c>
+      <c r="C141">
+        <v>8321</v>
+      </c>
+    </row>
+    <row r="142" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A142" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B142" t="s">
+        <v>16</v>
+      </c>
+      <c r="C142">
+        <v>37504</v>
+      </c>
+    </row>
+    <row r="143" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A143" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B143" t="s">
+        <v>17</v>
+      </c>
+      <c r="C143">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="144" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A144" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B144" t="s">
+        <v>18</v>
+      </c>
+      <c r="C144">
+        <v>57472</v>
+      </c>
+    </row>
+    <row r="145" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A145" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B145" t="s">
+        <v>19</v>
+      </c>
+      <c r="C145">
+        <v>23168</v>
+      </c>
+    </row>
+    <row r="147" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A147" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B147" t="s">
+        <v>4</v>
+      </c>
+      <c r="C147" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="148" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A148" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B148" t="s">
+        <v>6</v>
+      </c>
+      <c r="C148" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="149" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A149" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B149" t="s">
+        <v>7</v>
+      </c>
+      <c r="C149" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="150" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A150" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B150" t="s">
+        <v>8</v>
+      </c>
+      <c r="C150" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="151" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A151" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B151" t="s">
+        <v>9</v>
+      </c>
+      <c r="C151" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="152" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A152" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B152" t="s">
+        <v>10</v>
+      </c>
+      <c r="C152" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="153" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A153" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B153" t="s">
+        <v>11</v>
+      </c>
+      <c r="C153" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="154" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A154" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B154" t="s">
+        <v>12</v>
+      </c>
+      <c r="C154" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="155" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A155" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B155" t="s">
+        <v>13</v>
+      </c>
+      <c r="C155" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="156" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A156" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B156" t="s">
+        <v>14</v>
+      </c>
+      <c r="C156" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="157" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A157" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B157" t="s">
+        <v>15</v>
+      </c>
+      <c r="C157" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="158" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A158" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B158" t="s">
+        <v>16</v>
+      </c>
+      <c r="C158" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="159" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A159" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B159" t="s">
+        <v>17</v>
+      </c>
+      <c r="C159" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="160" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A160" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B160" t="s">
+        <v>18</v>
+      </c>
+      <c r="C160" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="161" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A161" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B161" t="s">
+        <v>19</v>
+      </c>
+      <c r="C161" t="s">
+        <v>30</v>
       </c>
     </row>
   </sheetData>

--- a/data.xlsx
+++ b/data.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="17">
   <si>
     <t>label</t>
   </si>
@@ -25,12 +25,15 @@
     <t>Об`єм (маса) каналу витрати 1</t>
   </si>
   <si>
+    <t>10:10:2020:0</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
     <t>11:10:2020:0</t>
   </si>
   <si>
-    <t/>
-  </si>
-  <si>
     <t>12:10:2020:0</t>
   </si>
   <si>
@@ -40,18 +43,6 @@
     <t>14:10:2020:0</t>
   </si>
   <si>
-    <t>15:10:2020:0</t>
-  </si>
-  <si>
-    <t>16:10:2020:0</t>
-  </si>
-  <si>
-    <t>17:10:2020:0</t>
-  </si>
-  <si>
-    <t>18:10:2020:0</t>
-  </si>
-  <si>
     <t>Значення температури ТСП 1 * 100</t>
   </si>
   <si>
@@ -71,15 +62,6 @@
   </si>
   <si>
     <t>Спожита енергія</t>
-  </si>
-  <si>
-    <t>Температура всередині корпусу</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t/>
   </si>
 </sst>
 </file>
@@ -460,7 +442,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C91"/>
+  <dimension ref="A1:C55"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <cols>
     <col min="1" max="1" width="64" style="1" customWidth="1"/>
@@ -534,26 +516,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B8" t="s">
-        <v>10</v>
-      </c>
-      <c r="C8">
-        <v>0</v>
-      </c>
-    </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="B9" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="C9">
-        <v>0</v>
+        <v>22.72</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
@@ -561,21 +532,32 @@
         <v>5</v>
       </c>
       <c r="B10" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="C10">
-        <v>0</v>
+        <v>22.1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B11" t="s">
+        <v>7</v>
+      </c>
+      <c r="C11">
+        <v>21.85</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="B12" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="C12">
-        <v>22.1</v>
+        <v>21.68</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
@@ -583,32 +565,21 @@
         <v>5</v>
       </c>
       <c r="B13" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C13">
-        <v>21.85</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A14" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B14" t="s">
-        <v>7</v>
-      </c>
-      <c r="C14">
-        <v>21.68</v>
+        <v>21.73</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="B15" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="C15">
-        <v>21.73</v>
+        <v>22.73</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
@@ -616,10 +587,10 @@
         <v>5</v>
       </c>
       <c r="B16" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C16">
-        <v>21.74</v>
+        <v>22.13</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
@@ -627,10 +598,10 @@
         <v>5</v>
       </c>
       <c r="B17" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C17">
-        <v>21.4</v>
+        <v>21.84</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
@@ -638,10 +609,10 @@
         <v>5</v>
       </c>
       <c r="B18" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="C18">
-        <v>20.85</v>
+        <v>21.73</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
@@ -649,21 +620,21 @@
         <v>5</v>
       </c>
       <c r="B19" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C19">
-        <v>20.84</v>
+        <v>21.77</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B21" t="s">
         <v>4</v>
       </c>
       <c r="C21">
-        <v>22.13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
@@ -674,7 +645,7 @@
         <v>6</v>
       </c>
       <c r="C22">
-        <v>21.84</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
@@ -685,7 +656,7 @@
         <v>7</v>
       </c>
       <c r="C23">
-        <v>21.73</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
@@ -696,7 +667,7 @@
         <v>8</v>
       </c>
       <c r="C24">
-        <v>21.77</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
@@ -707,29 +678,18 @@
         <v>9</v>
       </c>
       <c r="C25">
-        <v>21.78</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A26" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B26" t="s">
-        <v>10</v>
-      </c>
-      <c r="C26">
-        <v>21.42</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="B27" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="C27">
-        <v>20.88</v>
+        <v>9.13861111111111</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
@@ -737,21 +697,32 @@
         <v>5</v>
       </c>
       <c r="B28" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="C28">
-        <v>20.87</v>
+        <v>9.13861111111111</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A29" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B29" t="s">
+        <v>7</v>
+      </c>
+      <c r="C29">
+        <v>9.13861111111111</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="B30" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="C30">
-        <v>0</v>
+        <v>9.13861111111111</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
@@ -759,32 +730,21 @@
         <v>5</v>
       </c>
       <c r="B31" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C31">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A32" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B32" t="s">
-        <v>7</v>
-      </c>
-      <c r="C32">
-        <v>0</v>
+        <v>9.13861111111111</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="B33" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="C33">
-        <v>0</v>
+        <v>9.13861111111111</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
@@ -792,10 +752,10 @@
         <v>5</v>
       </c>
       <c r="B34" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C34">
-        <v>0</v>
+        <v>9.13861111111111</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
@@ -803,10 +763,10 @@
         <v>5</v>
       </c>
       <c r="B35" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C35">
-        <v>0</v>
+        <v>9.13861111111111</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
@@ -814,10 +774,10 @@
         <v>5</v>
       </c>
       <c r="B36" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="C36">
-        <v>0</v>
+        <v>9.13861111111111</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
@@ -825,21 +785,21 @@
         <v>5</v>
       </c>
       <c r="B37" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C37">
-        <v>0</v>
+        <v>9.0675</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B39" t="s">
         <v>4</v>
       </c>
       <c r="C39">
-        <v>9.13861111111111</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
@@ -850,7 +810,7 @@
         <v>6</v>
       </c>
       <c r="C40">
-        <v>9.13861111111111</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
@@ -861,7 +821,7 @@
         <v>7</v>
       </c>
       <c r="C41">
-        <v>9.13861111111111</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">
@@ -872,7 +832,7 @@
         <v>8</v>
       </c>
       <c r="C42">
-        <v>9.13861111111111</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.25">
@@ -883,29 +843,18 @@
         <v>9</v>
       </c>
       <c r="C43">
-        <v>9.13861111111111</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A44" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B44" t="s">
-        <v>10</v>
-      </c>
-      <c r="C44">
-        <v>9.13861111111111</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="B45" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="C45">
-        <v>9.13861111111111</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.25">
@@ -913,21 +862,32 @@
         <v>5</v>
       </c>
       <c r="B46" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="C46">
-        <v>9.13861111111111</v>
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A47" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B47" t="s">
+        <v>7</v>
+      </c>
+      <c r="C47">
+        <v>0.4</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="B48" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="C48">
-        <v>9.13861111111111</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.25">
@@ -935,32 +895,21 @@
         <v>5</v>
       </c>
       <c r="B49" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C49">
-        <v>9.13861111111111</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A50" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B50" t="s">
-        <v>7</v>
-      </c>
-      <c r="C50">
-        <v>9.13861111111111</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="B51" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="C51">
-        <v>9.0675</v>
+        <v>8833</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.25">
@@ -968,10 +917,10 @@
         <v>5</v>
       </c>
       <c r="B52" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C52">
-        <v>9.13861111111111</v>
+        <v>8833</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.25">
@@ -979,10 +928,10 @@
         <v>5</v>
       </c>
       <c r="B53" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C53">
-        <v>9.13861111111111</v>
+        <v>8833</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.25">
@@ -990,10 +939,10 @@
         <v>5</v>
       </c>
       <c r="B54" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="C54">
-        <v>9.13861111111111</v>
+        <v>8577</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.25">
@@ -1001,362 +950,10 @@
         <v>5</v>
       </c>
       <c r="B55" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C55">
-        <v>9.13861111111111</v>
-      </c>
-    </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A57" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B57" t="s">
-        <v>4</v>
-      </c>
-      <c r="C57">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A58" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B58" t="s">
-        <v>6</v>
-      </c>
-      <c r="C58">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A59" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B59" t="s">
-        <v>7</v>
-      </c>
-      <c r="C59">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A60" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B60" t="s">
-        <v>8</v>
-      </c>
-      <c r="C60">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A61" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B61" t="s">
-        <v>9</v>
-      </c>
-      <c r="C61">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A62" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B62" t="s">
-        <v>10</v>
-      </c>
-      <c r="C62">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A63" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B63" t="s">
-        <v>11</v>
-      </c>
-      <c r="C63">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A64" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B64" t="s">
-        <v>12</v>
-      </c>
-      <c r="C64">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A66" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B66" t="s">
-        <v>4</v>
-      </c>
-      <c r="C66">
-        <v>0.4</v>
-      </c>
-    </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A67" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B67" t="s">
-        <v>6</v>
-      </c>
-      <c r="C67">
-        <v>0.4</v>
-      </c>
-    </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A68" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B68" t="s">
-        <v>7</v>
-      </c>
-      <c r="C68">
-        <v>0.4</v>
-      </c>
-    </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A69" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B69" t="s">
-        <v>8</v>
-      </c>
-      <c r="C69">
-        <v>0.4</v>
-      </c>
-    </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A70" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B70" t="s">
-        <v>9</v>
-      </c>
-      <c r="C70">
-        <v>0.4</v>
-      </c>
-    </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A71" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B71" t="s">
-        <v>10</v>
-      </c>
-      <c r="C71">
-        <v>0.4</v>
-      </c>
-    </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A72" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B72" t="s">
-        <v>11</v>
-      </c>
-      <c r="C72">
-        <v>0.4</v>
-      </c>
-    </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A73" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B73" t="s">
-        <v>12</v>
-      </c>
-      <c r="C73">
-        <v>0.4</v>
-      </c>
-    </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A75" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B75" t="s">
-        <v>4</v>
-      </c>
-      <c r="C75">
-        <v>8833</v>
-      </c>
-    </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A76" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B76" t="s">
-        <v>6</v>
-      </c>
-      <c r="C76">
-        <v>8833</v>
-      </c>
-    </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A77" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B77" t="s">
-        <v>7</v>
-      </c>
-      <c r="C77">
-        <v>8577</v>
-      </c>
-    </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A78" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B78" t="s">
-        <v>8</v>
-      </c>
-      <c r="C78">
         <v>1921</v>
-      </c>
-    </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A79" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B79" t="s">
-        <v>9</v>
-      </c>
-      <c r="C79">
-        <v>897</v>
-      </c>
-    </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A80" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B80" t="s">
-        <v>10</v>
-      </c>
-      <c r="C80">
-        <v>8577</v>
-      </c>
-    </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A81" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B81" t="s">
-        <v>11</v>
-      </c>
-      <c r="C81">
-        <v>8321</v>
-      </c>
-    </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A82" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B82" t="s">
-        <v>12</v>
-      </c>
-      <c r="C82">
-        <v>8321</v>
-      </c>
-    </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A84" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B84" t="s">
-        <v>4</v>
-      </c>
-      <c r="C84" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A85" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B85" t="s">
-        <v>6</v>
-      </c>
-      <c r="C85" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A86" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B86" t="s">
-        <v>7</v>
-      </c>
-      <c r="C86" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A87" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B87" t="s">
-        <v>8</v>
-      </c>
-      <c r="C87" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A88" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B88" t="s">
-        <v>9</v>
-      </c>
-      <c r="C88" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A89" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B89" t="s">
-        <v>10</v>
-      </c>
-      <c r="C89" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A90" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B90" t="s">
-        <v>11</v>
-      </c>
-      <c r="C90" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A91" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B91" t="s">
-        <v>12</v>
-      </c>
-      <c r="C91" t="s">
-        <v>22</v>
       </c>
     </row>
   </sheetData>

--- a/data.xlsx
+++ b/data.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="318" uniqueCount="32">
   <si>
     <t>label</t>
   </si>
@@ -25,22 +25,52 @@
     <t>Об`єм (маса) каналу витрати 1</t>
   </si>
   <si>
-    <t>10:10:2020:0</t>
+    <t>13:9:2020:1</t>
   </si>
   <si>
     <t/>
   </si>
   <si>
-    <t>11:10:2020:0</t>
-  </si>
-  <si>
-    <t>12:10:2020:0</t>
-  </si>
-  <si>
-    <t>13:10:2020:0</t>
-  </si>
-  <si>
-    <t>14:10:2020:0</t>
+    <t>14:9:2020:1</t>
+  </si>
+  <si>
+    <t>15:9:2020:1</t>
+  </si>
+  <si>
+    <t>16:9:2020:1</t>
+  </si>
+  <si>
+    <t>17:9:2020:1</t>
+  </si>
+  <si>
+    <t>18:9:2020:1</t>
+  </si>
+  <si>
+    <t>19:9:2020:1</t>
+  </si>
+  <si>
+    <t>20:9:2020:1</t>
+  </si>
+  <si>
+    <t>21:9:2020:1</t>
+  </si>
+  <si>
+    <t>22:9:2020:1</t>
+  </si>
+  <si>
+    <t>23:9:2020:1</t>
+  </si>
+  <si>
+    <t>24:9:2020:1</t>
+  </si>
+  <si>
+    <t>25:9:2020:1</t>
+  </si>
+  <si>
+    <t>26:9:2020:0</t>
+  </si>
+  <si>
+    <t>27:9:2020:0</t>
   </si>
   <si>
     <t>Значення температури ТСП 1 * 100</t>
@@ -62,6 +92,21 @@
   </si>
   <si>
     <t>Спожита енергія</t>
+  </si>
+  <si>
+    <t>Температура всередині корпусу</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t/>
   </si>
 </sst>
 </file>
@@ -442,7 +487,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C55"/>
+  <dimension ref="A1:C161"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <cols>
     <col min="1" max="1" width="64" style="1" customWidth="1"/>
@@ -516,15 +561,26 @@
         <v>0</v>
       </c>
     </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B8" t="s">
+        <v>10</v>
+      </c>
+      <c r="C8">
+        <v>0</v>
+      </c>
+    </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="B9" t="s">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="C9">
-        <v>22.72</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
@@ -532,10 +588,10 @@
         <v>5</v>
       </c>
       <c r="B10" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="C10">
-        <v>22.1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
@@ -543,10 +599,10 @@
         <v>5</v>
       </c>
       <c r="B11" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="C11">
-        <v>21.85</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
@@ -554,10 +610,10 @@
         <v>5</v>
       </c>
       <c r="B12" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="C12">
-        <v>21.68</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
@@ -565,21 +621,32 @@
         <v>5</v>
       </c>
       <c r="B13" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="C13">
-        <v>21.73</v>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B14" t="s">
+        <v>16</v>
+      </c>
+      <c r="C14">
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="B15" t="s">
-        <v>4</v>
+        <v>17</v>
       </c>
       <c r="C15">
-        <v>22.73</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
@@ -587,10 +654,10 @@
         <v>5</v>
       </c>
       <c r="B16" t="s">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="C16">
-        <v>22.13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
@@ -598,43 +665,43 @@
         <v>5</v>
       </c>
       <c r="B17" t="s">
-        <v>7</v>
+        <v>19</v>
       </c>
       <c r="C17">
-        <v>21.84</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B18" t="s">
-        <v>8</v>
-      </c>
-      <c r="C18">
-        <v>21.73</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="B19" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="C19">
-        <v>21.77</v>
+        <v>22.7</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B20" t="s">
+        <v>6</v>
+      </c>
+      <c r="C20">
+        <v>-50</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="B21" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C21">
-        <v>0</v>
+        <v>-50</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
@@ -642,10 +709,10 @@
         <v>5</v>
       </c>
       <c r="B22" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C22">
-        <v>0</v>
+        <v>-50</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
@@ -653,10 +720,10 @@
         <v>5</v>
       </c>
       <c r="B23" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C23">
-        <v>0</v>
+        <v>-50</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
@@ -664,10 +731,10 @@
         <v>5</v>
       </c>
       <c r="B24" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C24">
-        <v>0</v>
+        <v>-50</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
@@ -675,21 +742,32 @@
         <v>5</v>
       </c>
       <c r="B25" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C25">
-        <v>0</v>
+        <v>-50</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A26" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B26" t="s">
+        <v>12</v>
+      </c>
+      <c r="C26">
+        <v>-50</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B27" t="s">
         <v>13</v>
       </c>
-      <c r="B27" t="s">
-        <v>4</v>
-      </c>
       <c r="C27">
-        <v>9.13861111111111</v>
+        <v>-50</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
@@ -697,10 +775,10 @@
         <v>5</v>
       </c>
       <c r="B28" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="C28">
-        <v>9.13861111111111</v>
+        <v>-50</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
@@ -708,10 +786,10 @@
         <v>5</v>
       </c>
       <c r="B29" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="C29">
-        <v>9.13861111111111</v>
+        <v>-50</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
@@ -719,10 +797,10 @@
         <v>5</v>
       </c>
       <c r="B30" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="C30">
-        <v>9.13861111111111</v>
+        <v>-50</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
@@ -730,43 +808,43 @@
         <v>5</v>
       </c>
       <c r="B31" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="C31">
-        <v>9.13861111111111</v>
+        <v>-50</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A32" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B32" t="s">
+        <v>18</v>
+      </c>
+      <c r="C32">
+        <v>-50</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="B33" t="s">
-        <v>4</v>
+        <v>19</v>
       </c>
       <c r="C33">
-        <v>9.13861111111111</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A34" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B34" t="s">
-        <v>6</v>
-      </c>
-      <c r="C34">
-        <v>9.13861111111111</v>
+        <v>-50</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
-        <v>5</v>
+        <v>21</v>
       </c>
       <c r="B35" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C35">
-        <v>9.13861111111111</v>
+        <v>22.85</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
@@ -774,10 +852,10 @@
         <v>5</v>
       </c>
       <c r="B36" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C36">
-        <v>9.13861111111111</v>
+        <v>-50</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
@@ -785,21 +863,32 @@
         <v>5</v>
       </c>
       <c r="B37" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C37">
-        <v>9.0675</v>
+        <v>-50</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A38" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B38" t="s">
+        <v>8</v>
+      </c>
+      <c r="C38">
+        <v>-50</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="B39" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="C39">
-        <v>0.5</v>
+        <v>-50</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
@@ -807,10 +896,10 @@
         <v>5</v>
       </c>
       <c r="B40" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="C40">
-        <v>0.5</v>
+        <v>-50</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
@@ -818,10 +907,10 @@
         <v>5</v>
       </c>
       <c r="B41" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="C41">
-        <v>0.5</v>
+        <v>-50</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">
@@ -829,10 +918,10 @@
         <v>5</v>
       </c>
       <c r="B42" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="C42">
-        <v>0.5</v>
+        <v>-50</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.25">
@@ -840,21 +929,32 @@
         <v>5</v>
       </c>
       <c r="B43" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C43">
-        <v>0.5</v>
+        <v>-50</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A44" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B44" t="s">
+        <v>14</v>
+      </c>
+      <c r="C44">
+        <v>-50</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B45" t="s">
         <v>15</v>
       </c>
-      <c r="B45" t="s">
-        <v>4</v>
-      </c>
       <c r="C45">
-        <v>0.4</v>
+        <v>-50</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.25">
@@ -862,10 +962,10 @@
         <v>5</v>
       </c>
       <c r="B46" t="s">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="C46">
-        <v>0.4</v>
+        <v>-50</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.25">
@@ -873,10 +973,10 @@
         <v>5</v>
       </c>
       <c r="B47" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="C47">
-        <v>0.4</v>
+        <v>-50</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.25">
@@ -884,10 +984,10 @@
         <v>5</v>
       </c>
       <c r="B48" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="C48">
-        <v>0.4</v>
+        <v>-50</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.25">
@@ -895,21 +995,21 @@
         <v>5</v>
       </c>
       <c r="B49" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="C49">
-        <v>0.4</v>
+        <v>-50</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="B51" t="s">
         <v>4</v>
       </c>
       <c r="C51">
-        <v>8833</v>
+        <v>0</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.25">
@@ -920,7 +1020,7 @@
         <v>6</v>
       </c>
       <c r="C52">
-        <v>8833</v>
+        <v>0</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.25">
@@ -931,7 +1031,7 @@
         <v>7</v>
       </c>
       <c r="C53">
-        <v>8833</v>
+        <v>0</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.25">
@@ -942,7 +1042,7 @@
         <v>8</v>
       </c>
       <c r="C54">
-        <v>8577</v>
+        <v>0</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.25">
@@ -953,7 +1053,1107 @@
         <v>9</v>
       </c>
       <c r="C55">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A56" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B56" t="s">
+        <v>10</v>
+      </c>
+      <c r="C56">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A57" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B57" t="s">
+        <v>11</v>
+      </c>
+      <c r="C57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A58" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B58" t="s">
+        <v>12</v>
+      </c>
+      <c r="C58">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A59" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B59" t="s">
+        <v>13</v>
+      </c>
+      <c r="C59">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A60" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B60" t="s">
+        <v>14</v>
+      </c>
+      <c r="C60">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A61" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B61" t="s">
+        <v>15</v>
+      </c>
+      <c r="C61">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A62" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B62" t="s">
+        <v>16</v>
+      </c>
+      <c r="C62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A63" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B63" t="s">
+        <v>17</v>
+      </c>
+      <c r="C63">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A64" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B64" t="s">
+        <v>18</v>
+      </c>
+      <c r="C64">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A65" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B65" t="s">
+        <v>19</v>
+      </c>
+      <c r="C65">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A67" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B67" t="s">
+        <v>4</v>
+      </c>
+      <c r="C67">
+        <v>9.13861111111111</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A68" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B68" t="s">
+        <v>6</v>
+      </c>
+      <c r="C68">
+        <v>9.13861111111111</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A69" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B69" t="s">
+        <v>7</v>
+      </c>
+      <c r="C69">
+        <v>9.13861111111111</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A70" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B70" t="s">
+        <v>8</v>
+      </c>
+      <c r="C70">
+        <v>9.13861111111111</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A71" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B71" t="s">
+        <v>9</v>
+      </c>
+      <c r="C71">
+        <v>9.13861111111111</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A72" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B72" t="s">
+        <v>10</v>
+      </c>
+      <c r="C72">
+        <v>9.13861111111111</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A73" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B73" t="s">
+        <v>11</v>
+      </c>
+      <c r="C73">
+        <v>9.13861111111111</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A74" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B74" t="s">
+        <v>12</v>
+      </c>
+      <c r="C74">
+        <v>9.13861111111111</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A75" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B75" t="s">
+        <v>13</v>
+      </c>
+      <c r="C75">
+        <v>9.13861111111111</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A76" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B76" t="s">
+        <v>14</v>
+      </c>
+      <c r="C76">
+        <v>9.13861111111111</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A77" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B77" t="s">
+        <v>15</v>
+      </c>
+      <c r="C77">
+        <v>9.13861111111111</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A78" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B78" t="s">
+        <v>16</v>
+      </c>
+      <c r="C78">
+        <v>9.13861111111111</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A79" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B79" t="s">
+        <v>17</v>
+      </c>
+      <c r="C79">
+        <v>9.13861111111111</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A80" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B80" t="s">
+        <v>18</v>
+      </c>
+      <c r="C80">
+        <v>9.13861111111111</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A81" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B81" t="s">
+        <v>19</v>
+      </c>
+      <c r="C81">
+        <v>9.13861111111111</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A83" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B83" t="s">
+        <v>4</v>
+      </c>
+      <c r="C83">
+        <v>9.13861111111111</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A84" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B84" t="s">
+        <v>6</v>
+      </c>
+      <c r="C84">
+        <v>9.13861111111111</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A85" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B85" t="s">
+        <v>7</v>
+      </c>
+      <c r="C85">
+        <v>9.13861111111111</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A86" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B86" t="s">
+        <v>8</v>
+      </c>
+      <c r="C86">
+        <v>9.13861111111111</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A87" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B87" t="s">
+        <v>9</v>
+      </c>
+      <c r="C87">
+        <v>9.13861111111111</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A88" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B88" t="s">
+        <v>10</v>
+      </c>
+      <c r="C88">
+        <v>9.13861111111111</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A89" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B89" t="s">
+        <v>11</v>
+      </c>
+      <c r="C89">
+        <v>9.13861111111111</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A90" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B90" t="s">
+        <v>12</v>
+      </c>
+      <c r="C90">
+        <v>9.13861111111111</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A91" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B91" t="s">
+        <v>13</v>
+      </c>
+      <c r="C91">
+        <v>9.13861111111111</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A92" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B92" t="s">
+        <v>14</v>
+      </c>
+      <c r="C92">
+        <v>9.13861111111111</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A93" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B93" t="s">
+        <v>15</v>
+      </c>
+      <c r="C93">
+        <v>9.13861111111111</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A94" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B94" t="s">
+        <v>16</v>
+      </c>
+      <c r="C94">
+        <v>9.13861111111111</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A95" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B95" t="s">
+        <v>17</v>
+      </c>
+      <c r="C95">
+        <v>9.13861111111111</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A96" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B96" t="s">
+        <v>18</v>
+      </c>
+      <c r="C96">
+        <v>9.13861111111111</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A97" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B97" t="s">
+        <v>19</v>
+      </c>
+      <c r="C97">
+        <v>9.13861111111111</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A99" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B99" t="s">
+        <v>4</v>
+      </c>
+      <c r="C99">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A100" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B100" t="s">
+        <v>6</v>
+      </c>
+      <c r="C100">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A101" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B101" t="s">
+        <v>7</v>
+      </c>
+      <c r="C101">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A102" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B102" t="s">
+        <v>8</v>
+      </c>
+      <c r="C102">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A103" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B103" t="s">
+        <v>9</v>
+      </c>
+      <c r="C103">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A104" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B104" t="s">
+        <v>10</v>
+      </c>
+      <c r="C104">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A105" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B105" t="s">
+        <v>11</v>
+      </c>
+      <c r="C105">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A106" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B106" t="s">
+        <v>12</v>
+      </c>
+      <c r="C106">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A107" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B107" t="s">
+        <v>13</v>
+      </c>
+      <c r="C107">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="108" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A108" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B108" t="s">
+        <v>14</v>
+      </c>
+      <c r="C108">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="109" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A109" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B109" t="s">
+        <v>15</v>
+      </c>
+      <c r="C109">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="110" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A110" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B110" t="s">
+        <v>16</v>
+      </c>
+      <c r="C110">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="111" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A111" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B111" t="s">
+        <v>17</v>
+      </c>
+      <c r="C111">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="112" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A112" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B112" t="s">
+        <v>18</v>
+      </c>
+      <c r="C112">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="113" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A113" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B113" t="s">
+        <v>19</v>
+      </c>
+      <c r="C113">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="115" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A115" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B115" t="s">
+        <v>4</v>
+      </c>
+      <c r="C115">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="116" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A116" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B116" t="s">
+        <v>6</v>
+      </c>
+      <c r="C116">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="117" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A117" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B117" t="s">
+        <v>7</v>
+      </c>
+      <c r="C117">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="118" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A118" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B118" t="s">
+        <v>8</v>
+      </c>
+      <c r="C118">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="119" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A119" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B119" t="s">
+        <v>9</v>
+      </c>
+      <c r="C119">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="120" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A120" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B120" t="s">
+        <v>10</v>
+      </c>
+      <c r="C120">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="121" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A121" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B121" t="s">
+        <v>11</v>
+      </c>
+      <c r="C121">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="122" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A122" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B122" t="s">
+        <v>12</v>
+      </c>
+      <c r="C122">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="123" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A123" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B123" t="s">
+        <v>13</v>
+      </c>
+      <c r="C123">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="124" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A124" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B124" t="s">
+        <v>14</v>
+      </c>
+      <c r="C124">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="125" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A125" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B125" t="s">
+        <v>15</v>
+      </c>
+      <c r="C125">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="126" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A126" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B126" t="s">
+        <v>16</v>
+      </c>
+      <c r="C126">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="127" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A127" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B127" t="s">
+        <v>17</v>
+      </c>
+      <c r="C127">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="128" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A128" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B128" t="s">
+        <v>18</v>
+      </c>
+      <c r="C128">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="129" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A129" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B129" t="s">
+        <v>19</v>
+      </c>
+      <c r="C129">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="131" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A131" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B131" t="s">
+        <v>4</v>
+      </c>
+      <c r="C131">
+        <v>2177</v>
+      </c>
+    </row>
+    <row r="132" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A132" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B132" t="s">
+        <v>6</v>
+      </c>
+      <c r="C132">
+        <v>1665</v>
+      </c>
+    </row>
+    <row r="133" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A133" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B133" t="s">
+        <v>7</v>
+      </c>
+      <c r="C133">
+        <v>1409</v>
+      </c>
+    </row>
+    <row r="134" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A134" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B134" t="s">
+        <v>8</v>
+      </c>
+      <c r="C134">
+        <v>1409</v>
+      </c>
+    </row>
+    <row r="135" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A135" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B135" t="s">
+        <v>9</v>
+      </c>
+      <c r="C135">
+        <v>1409</v>
+      </c>
+    </row>
+    <row r="136" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A136" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B136" t="s">
+        <v>10</v>
+      </c>
+      <c r="C136">
+        <v>1665</v>
+      </c>
+    </row>
+    <row r="137" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A137" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B137" t="s">
+        <v>11</v>
+      </c>
+      <c r="C137">
+        <v>1665</v>
+      </c>
+    </row>
+    <row r="138" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A138" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B138" t="s">
+        <v>12</v>
+      </c>
+      <c r="C138">
+        <v>1665</v>
+      </c>
+    </row>
+    <row r="139" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A139" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B139" t="s">
+        <v>13</v>
+      </c>
+      <c r="C139">
+        <v>1665</v>
+      </c>
+    </row>
+    <row r="140" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A140" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B140" t="s">
+        <v>14</v>
+      </c>
+      <c r="C140">
+        <v>1665</v>
+      </c>
+    </row>
+    <row r="141" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A141" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B141" t="s">
+        <v>15</v>
+      </c>
+      <c r="C141">
         <v>1921</v>
+      </c>
+    </row>
+    <row r="142" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A142" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B142" t="s">
+        <v>16</v>
+      </c>
+      <c r="C142">
+        <v>1921</v>
+      </c>
+    </row>
+    <row r="143" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A143" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B143" t="s">
+        <v>17</v>
+      </c>
+      <c r="C143">
+        <v>4737</v>
+      </c>
+    </row>
+    <row r="144" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A144" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B144" t="s">
+        <v>18</v>
+      </c>
+      <c r="C144">
+        <v>1921</v>
+      </c>
+    </row>
+    <row r="145" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A145" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B145" t="s">
+        <v>19</v>
+      </c>
+      <c r="C145">
+        <v>1921</v>
+      </c>
+    </row>
+    <row r="147" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A147" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B147" t="s">
+        <v>4</v>
+      </c>
+      <c r="C147" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="148" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A148" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B148" t="s">
+        <v>6</v>
+      </c>
+      <c r="C148" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="149" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A149" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B149" t="s">
+        <v>7</v>
+      </c>
+      <c r="C149" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="150" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A150" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B150" t="s">
+        <v>8</v>
+      </c>
+      <c r="C150" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="151" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A151" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B151" t="s">
+        <v>9</v>
+      </c>
+      <c r="C151" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="152" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A152" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B152" t="s">
+        <v>10</v>
+      </c>
+      <c r="C152" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="153" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A153" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B153" t="s">
+        <v>11</v>
+      </c>
+      <c r="C153" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="154" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A154" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B154" t="s">
+        <v>12</v>
+      </c>
+      <c r="C154" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="155" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A155" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B155" t="s">
+        <v>13</v>
+      </c>
+      <c r="C155" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="156" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A156" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B156" t="s">
+        <v>14</v>
+      </c>
+      <c r="C156" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="157" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A157" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B157" t="s">
+        <v>15</v>
+      </c>
+      <c r="C157" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="158" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A158" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B158" t="s">
+        <v>16</v>
+      </c>
+      <c r="C158" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="159" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A159" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B159" t="s">
+        <v>17</v>
+      </c>
+      <c r="C159" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="160" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A160" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B160" t="s">
+        <v>18</v>
+      </c>
+      <c r="C160" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="161" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A161" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B161" t="s">
+        <v>19</v>
+      </c>
+      <c r="C161" t="s">
+        <v>31</v>
       </c>
     </row>
   </sheetData>

--- a/data.xlsx
+++ b/data.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="234" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="17">
   <si>
     <t>label</t>
   </si>
@@ -43,24 +43,6 @@
     <t>14:10:2020:0</t>
   </si>
   <si>
-    <t>15:10:2020:0</t>
-  </si>
-  <si>
-    <t>16:10:2020:0</t>
-  </si>
-  <si>
-    <t>17:10:2020:0</t>
-  </si>
-  <si>
-    <t>18:10:2020:0</t>
-  </si>
-  <si>
-    <t>19:10:2020:0</t>
-  </si>
-  <si>
-    <t>20:10:2020:0</t>
-  </si>
-  <si>
     <t>Значення температури ТСП 1 * 100</t>
   </si>
   <si>
@@ -80,18 +62,6 @@
   </si>
   <si>
     <t>Спожита енергія</t>
-  </si>
-  <si>
-    <t>Температура всередині корпусу</t>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t/>
-  </si>
-  <si>
-    <t/>
   </si>
 </sst>
 </file>
@@ -472,7 +442,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C121"/>
+  <dimension ref="A1:C55"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <cols>
     <col min="1" max="1" width="64" style="1" customWidth="1"/>
@@ -546,26 +516,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B8" t="s">
-        <v>10</v>
-      </c>
-      <c r="C8">
-        <v>0</v>
-      </c>
-    </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="B9" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="C9">
-        <v>0</v>
+        <v>22.72</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
@@ -573,10 +532,10 @@
         <v>5</v>
       </c>
       <c r="B10" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="C10">
-        <v>0</v>
+        <v>22.1</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
@@ -584,10 +543,10 @@
         <v>5</v>
       </c>
       <c r="B11" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="C11">
-        <v>0</v>
+        <v>21.85</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
@@ -595,10 +554,10 @@
         <v>5</v>
       </c>
       <c r="B12" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="C12">
-        <v>0</v>
+        <v>21.68</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
@@ -606,21 +565,21 @@
         <v>5</v>
       </c>
       <c r="B13" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="C13">
-        <v>0</v>
+        <v>21.73</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="B15" t="s">
         <v>4</v>
       </c>
       <c r="C15">
-        <v>22.72</v>
+        <v>22.73</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
@@ -631,7 +590,7 @@
         <v>6</v>
       </c>
       <c r="C16">
-        <v>22.1</v>
+        <v>22.13</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
@@ -642,7 +601,7 @@
         <v>7</v>
       </c>
       <c r="C17">
-        <v>21.85</v>
+        <v>21.84</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
@@ -653,7 +612,7 @@
         <v>8</v>
       </c>
       <c r="C18">
-        <v>21.68</v>
+        <v>21.73</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
@@ -664,29 +623,18 @@
         <v>9</v>
       </c>
       <c r="C19">
-        <v>21.73</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A20" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B20" t="s">
-        <v>10</v>
-      </c>
-      <c r="C20">
-        <v>21.74</v>
+        <v>21.77</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="B21" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="C21">
-        <v>21.4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
@@ -694,10 +642,10 @@
         <v>5</v>
       </c>
       <c r="B22" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="C22">
-        <v>20.85</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
@@ -705,10 +653,10 @@
         <v>5</v>
       </c>
       <c r="B23" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="C23">
-        <v>20.84</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
@@ -716,10 +664,10 @@
         <v>5</v>
       </c>
       <c r="B24" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="C24">
-        <v>20.81</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
@@ -727,21 +675,21 @@
         <v>5</v>
       </c>
       <c r="B25" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="C25">
-        <v>20.74</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="B27" t="s">
         <v>4</v>
       </c>
       <c r="C27">
-        <v>22.73</v>
+        <v>9.13861111111111</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
@@ -752,7 +700,7 @@
         <v>6</v>
       </c>
       <c r="C28">
-        <v>22.13</v>
+        <v>9.13861111111111</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
@@ -763,7 +711,7 @@
         <v>7</v>
       </c>
       <c r="C29">
-        <v>21.84</v>
+        <v>9.13861111111111</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
@@ -774,7 +722,7 @@
         <v>8</v>
       </c>
       <c r="C30">
-        <v>21.73</v>
+        <v>9.13861111111111</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
@@ -785,29 +733,18 @@
         <v>9</v>
       </c>
       <c r="C31">
-        <v>21.77</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A32" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B32" t="s">
-        <v>10</v>
-      </c>
-      <c r="C32">
-        <v>21.78</v>
+        <v>9.13861111111111</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="B33" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="C33">
-        <v>21.42</v>
+        <v>9.13861111111111</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
@@ -815,10 +752,10 @@
         <v>5</v>
       </c>
       <c r="B34" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="C34">
-        <v>20.88</v>
+        <v>9.13861111111111</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
@@ -826,10 +763,10 @@
         <v>5</v>
       </c>
       <c r="B35" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="C35">
-        <v>20.87</v>
+        <v>9.13861111111111</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
@@ -837,10 +774,10 @@
         <v>5</v>
       </c>
       <c r="B36" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="C36">
-        <v>20.81</v>
+        <v>9.13861111111111</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
@@ -848,21 +785,21 @@
         <v>5</v>
       </c>
       <c r="B37" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="C37">
-        <v>20.77</v>
+        <v>9.0675</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="B39" t="s">
         <v>4</v>
       </c>
       <c r="C39">
-        <v>0</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
@@ -873,7 +810,7 @@
         <v>6</v>
       </c>
       <c r="C40">
-        <v>0</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
@@ -884,7 +821,7 @@
         <v>7</v>
       </c>
       <c r="C41">
-        <v>0</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">
@@ -895,7 +832,7 @@
         <v>8</v>
       </c>
       <c r="C42">
-        <v>0</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.25">
@@ -906,29 +843,18 @@
         <v>9</v>
       </c>
       <c r="C43">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A44" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B44" t="s">
-        <v>10</v>
-      </c>
-      <c r="C44">
-        <v>0</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="B45" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="C45">
-        <v>0</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.25">
@@ -936,10 +862,10 @@
         <v>5</v>
       </c>
       <c r="B46" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="C46">
-        <v>0</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.25">
@@ -947,10 +873,10 @@
         <v>5</v>
       </c>
       <c r="B47" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="C47">
-        <v>0</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.25">
@@ -958,10 +884,10 @@
         <v>5</v>
       </c>
       <c r="B48" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="C48">
-        <v>0</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.25">
@@ -969,21 +895,21 @@
         <v>5</v>
       </c>
       <c r="B49" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="C49">
-        <v>0</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="B51" t="s">
         <v>4</v>
       </c>
       <c r="C51">
-        <v>9.13861111111111</v>
+        <v>8833</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.25">
@@ -994,7 +920,7 @@
         <v>6</v>
       </c>
       <c r="C52">
-        <v>9.13861111111111</v>
+        <v>8833</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.25">
@@ -1005,7 +931,7 @@
         <v>7</v>
       </c>
       <c r="C53">
-        <v>9.13861111111111</v>
+        <v>8833</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.25">
@@ -1016,7 +942,7 @@
         <v>8</v>
       </c>
       <c r="C54">
-        <v>9.13861111111111</v>
+        <v>8577</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.25">
@@ -1027,678 +953,7 @@
         <v>9</v>
       </c>
       <c r="C55">
-        <v>9.13861111111111</v>
-      </c>
-    </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A56" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B56" t="s">
-        <v>10</v>
-      </c>
-      <c r="C56">
-        <v>9.13861111111111</v>
-      </c>
-    </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A57" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B57" t="s">
-        <v>11</v>
-      </c>
-      <c r="C57">
-        <v>9.13861111111111</v>
-      </c>
-    </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A58" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B58" t="s">
-        <v>12</v>
-      </c>
-      <c r="C58">
-        <v>9.13861111111111</v>
-      </c>
-    </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A59" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B59" t="s">
-        <v>13</v>
-      </c>
-      <c r="C59">
-        <v>9.13861111111111</v>
-      </c>
-    </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A60" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B60" t="s">
-        <v>14</v>
-      </c>
-      <c r="C60">
-        <v>9.13861111111111</v>
-      </c>
-    </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A61" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B61" t="s">
-        <v>15</v>
-      </c>
-      <c r="C61">
-        <v>9.13861111111111</v>
-      </c>
-    </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A63" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B63" t="s">
-        <v>4</v>
-      </c>
-      <c r="C63">
-        <v>9.13861111111111</v>
-      </c>
-    </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A64" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B64" t="s">
-        <v>6</v>
-      </c>
-      <c r="C64">
-        <v>9.13861111111111</v>
-      </c>
-    </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A65" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B65" t="s">
-        <v>7</v>
-      </c>
-      <c r="C65">
-        <v>9.13861111111111</v>
-      </c>
-    </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A66" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B66" t="s">
-        <v>8</v>
-      </c>
-      <c r="C66">
-        <v>9.13861111111111</v>
-      </c>
-    </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A67" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B67" t="s">
-        <v>9</v>
-      </c>
-      <c r="C67">
-        <v>9.0675</v>
-      </c>
-    </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A68" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B68" t="s">
-        <v>10</v>
-      </c>
-      <c r="C68">
-        <v>9.13861111111111</v>
-      </c>
-    </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A69" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B69" t="s">
-        <v>11</v>
-      </c>
-      <c r="C69">
-        <v>9.13861111111111</v>
-      </c>
-    </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A70" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B70" t="s">
-        <v>12</v>
-      </c>
-      <c r="C70">
-        <v>9.13861111111111</v>
-      </c>
-    </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A71" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B71" t="s">
-        <v>13</v>
-      </c>
-      <c r="C71">
-        <v>9.13861111111111</v>
-      </c>
-    </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A72" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B72" t="s">
-        <v>14</v>
-      </c>
-      <c r="C72">
-        <v>9.13861111111111</v>
-      </c>
-    </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A73" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B73" t="s">
-        <v>15</v>
-      </c>
-      <c r="C73">
-        <v>9.13861111111111</v>
-      </c>
-    </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A75" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="B75" t="s">
-        <v>4</v>
-      </c>
-      <c r="C75">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A76" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B76" t="s">
-        <v>6</v>
-      </c>
-      <c r="C76">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A77" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B77" t="s">
-        <v>7</v>
-      </c>
-      <c r="C77">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A78" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B78" t="s">
-        <v>8</v>
-      </c>
-      <c r="C78">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A79" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B79" t="s">
-        <v>9</v>
-      </c>
-      <c r="C79">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A80" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B80" t="s">
-        <v>10</v>
-      </c>
-      <c r="C80">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A81" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B81" t="s">
-        <v>11</v>
-      </c>
-      <c r="C81">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A82" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B82" t="s">
-        <v>12</v>
-      </c>
-      <c r="C82">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A83" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B83" t="s">
-        <v>13</v>
-      </c>
-      <c r="C83">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A84" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B84" t="s">
-        <v>14</v>
-      </c>
-      <c r="C84">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A85" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B85" t="s">
-        <v>15</v>
-      </c>
-      <c r="C85">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A87" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="B87" t="s">
-        <v>4</v>
-      </c>
-      <c r="C87">
-        <v>0.4</v>
-      </c>
-    </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A88" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B88" t="s">
-        <v>6</v>
-      </c>
-      <c r="C88">
-        <v>0.4</v>
-      </c>
-    </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A89" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B89" t="s">
-        <v>7</v>
-      </c>
-      <c r="C89">
-        <v>0.4</v>
-      </c>
-    </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A90" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B90" t="s">
-        <v>8</v>
-      </c>
-      <c r="C90">
-        <v>0.4</v>
-      </c>
-    </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A91" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B91" t="s">
-        <v>9</v>
-      </c>
-      <c r="C91">
-        <v>0.4</v>
-      </c>
-    </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A92" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B92" t="s">
-        <v>10</v>
-      </c>
-      <c r="C92">
-        <v>0.4</v>
-      </c>
-    </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A93" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B93" t="s">
-        <v>11</v>
-      </c>
-      <c r="C93">
-        <v>0.4</v>
-      </c>
-    </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A94" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B94" t="s">
-        <v>12</v>
-      </c>
-      <c r="C94">
-        <v>0.4</v>
-      </c>
-    </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A95" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B95" t="s">
-        <v>13</v>
-      </c>
-      <c r="C95">
-        <v>0.4</v>
-      </c>
-    </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A96" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B96" t="s">
-        <v>14</v>
-      </c>
-      <c r="C96">
-        <v>0.4</v>
-      </c>
-    </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A97" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B97" t="s">
-        <v>15</v>
-      </c>
-      <c r="C97">
-        <v>0.4</v>
-      </c>
-    </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A99" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B99" t="s">
-        <v>4</v>
-      </c>
-      <c r="C99">
-        <v>8833</v>
-      </c>
-    </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A100" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B100" t="s">
-        <v>6</v>
-      </c>
-      <c r="C100">
-        <v>8833</v>
-      </c>
-    </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A101" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B101" t="s">
-        <v>7</v>
-      </c>
-      <c r="C101">
-        <v>8833</v>
-      </c>
-    </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A102" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B102" t="s">
-        <v>8</v>
-      </c>
-      <c r="C102">
-        <v>8577</v>
-      </c>
-    </row>
-    <row r="103" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A103" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B103" t="s">
-        <v>9</v>
-      </c>
-      <c r="C103">
         <v>1921</v>
-      </c>
-    </row>
-    <row r="104" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A104" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B104" t="s">
-        <v>10</v>
-      </c>
-      <c r="C104">
-        <v>897</v>
-      </c>
-    </row>
-    <row r="105" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A105" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B105" t="s">
-        <v>11</v>
-      </c>
-      <c r="C105">
-        <v>8577</v>
-      </c>
-    </row>
-    <row r="106" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A106" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B106" t="s">
-        <v>12</v>
-      </c>
-      <c r="C106">
-        <v>8321</v>
-      </c>
-    </row>
-    <row r="107" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A107" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B107" t="s">
-        <v>13</v>
-      </c>
-      <c r="C107">
-        <v>8321</v>
-      </c>
-    </row>
-    <row r="108" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A108" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B108" t="s">
-        <v>14</v>
-      </c>
-      <c r="C108">
-        <v>8577</v>
-      </c>
-    </row>
-    <row r="109" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A109" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B109" t="s">
-        <v>15</v>
-      </c>
-      <c r="C109">
-        <v>8321</v>
-      </c>
-    </row>
-    <row r="111" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A111" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="B111" t="s">
-        <v>4</v>
-      </c>
-      <c r="C111" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="112" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A112" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B112" t="s">
-        <v>6</v>
-      </c>
-      <c r="C112" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="113" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A113" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B113" t="s">
-        <v>7</v>
-      </c>
-      <c r="C113" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="114" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A114" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B114" t="s">
-        <v>8</v>
-      </c>
-      <c r="C114" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="115" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A115" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B115" t="s">
-        <v>9</v>
-      </c>
-      <c r="C115" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="116" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A116" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B116" t="s">
-        <v>10</v>
-      </c>
-      <c r="C116" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="117" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A117" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B117" t="s">
-        <v>11</v>
-      </c>
-      <c r="C117" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="118" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A118" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B118" t="s">
-        <v>12</v>
-      </c>
-      <c r="C118" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="119" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A119" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B119" t="s">
-        <v>13</v>
-      </c>
-      <c r="C119" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="120" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A120" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B120" t="s">
-        <v>14</v>
-      </c>
-      <c r="C120" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="121" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A121" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B121" t="s">
-        <v>15</v>
-      </c>
-      <c r="C121" t="s">
-        <v>26</v>
       </c>
     </row>
   </sheetData>

--- a/data.xlsx
+++ b/data.xlsx
@@ -11,123 +11,57 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="17">
   <si>
     <t>label</t>
   </si>
   <si>
+    <t>time</t>
+  </si>
+  <si>
     <t>data</t>
   </si>
   <si>
-    <t>Номер лічильника</t>
-  </si>
-  <si>
-    <t>Результат вимірювання ДТ1</t>
-  </si>
-  <si>
-    <t>Результат вимірювання ДТ2</t>
-  </si>
-  <si>
-    <t>Результат вимірювання ДТ3</t>
-  </si>
-  <si>
-    <t>Результат вимірювання ДД1</t>
-  </si>
-  <si>
-    <t>Результат вимірюбвання ДД2</t>
-  </si>
-  <si>
-    <t>Значення витрати каналу 1</t>
-  </si>
-  <si>
-    <t>Массова витрата каналу 1</t>
-  </si>
-  <si>
-    <t>Обьэм каналу 1</t>
-  </si>
-  <si>
-    <t>Маса каналу 1</t>
-  </si>
-  <si>
-    <t>Значення витрати каналу 2</t>
-  </si>
-  <si>
-    <t>Массова витрата каналу 2</t>
-  </si>
-  <si>
-    <t>Обьэм каналу 2</t>
-  </si>
-  <si>
-    <t>Маса каналу 2</t>
+    <t>Об`єм (маса) каналу витрати 1</t>
+  </si>
+  <si>
+    <t>10:10:2020:0</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>11:10:2020:0</t>
+  </si>
+  <si>
+    <t>12:10:2020:0</t>
+  </si>
+  <si>
+    <t>13:10:2020:0</t>
+  </si>
+  <si>
+    <t>14:10:2020:0</t>
+  </si>
+  <si>
+    <t>Значення температури ТСП 1 * 100</t>
+  </si>
+  <si>
+    <t>Значення температури ТСП 2 * 100</t>
   </si>
   <si>
     <t>Тепло</t>
   </si>
   <si>
-    <t>Теплова потужність</t>
-  </si>
-  <si>
-    <t>Сумарний час корректної роботи</t>
-  </si>
-  <si>
-    <t>Вариант поставки</t>
-  </si>
-  <si>
-    <t>Модифікація варіанту поставки</t>
-  </si>
-  <si>
-    <t>Сумарний час роботи лічильника</t>
-  </si>
-  <si>
-    <t>Сумарний час відключення лічильника</t>
-  </si>
-  <si>
-    <t>Поточна календарна дата (з урахуванням переходу зима / літо)</t>
-  </si>
-  <si>
-    <t>Астрономічна поточна дата</t>
-  </si>
-  <si>
-    <t>Кількість ультразвукових каналів виміру витрати</t>
-  </si>
-  <si>
-    <t>Кількість використовуваних ТСП</t>
-  </si>
-  <si>
-    <t>Кількість датчиків тиску</t>
-  </si>
-  <si>
-    <t>Тривалість, в секундах, 1-го типу помилок</t>
-  </si>
-  <si>
-    <t>Код помилки 1-го типов</t>
-  </si>
-  <si>
-    <t>Тривалість, в секундах, 2-го типу помилок</t>
-  </si>
-  <si>
-    <t>Код помилки 2-го типов</t>
-  </si>
-  <si>
-    <t>Тривалість, в секундах, 3-го типу помилок</t>
-  </si>
-  <si>
-    <t>Код помилки 3-го типов</t>
-  </si>
-  <si>
-    <t>Лічильник входжень в «Установку»</t>
-  </si>
-  <si>
-    <t>Лічильник входжень в «Перевірку»</t>
-  </si>
-  <si>
-    <t>Дата останньої зміни режиму роботи лічильника</t>
-  </si>
-  <si>
-    <t>Поточний режим роботи лічильника. 0 - «Не в обліку», 1 - «В обліку», 2 - «Зупинка-льон»</t>
-  </si>
-  <si>
-    <t>Залишок часу роботи батареї, добу</t>
+    <t>Час роботи лічильника, год</t>
+  </si>
+  <si>
+    <t>Час помилок</t>
+  </si>
+  <si>
+    <t>Введені користувачем константи тиску * 1000</t>
+  </si>
+  <si>
+    <t>Спожита енергія</t>
   </si>
 </sst>
 </file>
@@ -166,10 +100,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -509,315 +442,518 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B38"/>
+  <dimension ref="A1:C55"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <cols>
     <col min="1" max="1" width="64" style="1" customWidth="1"/>
-    <col min="2" max="2" width="16" customWidth="1"/>
+    <col min="2" max="2" width="32" customWidth="1"/>
+    <col min="3" max="3" width="16" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
+      <c r="C1" t="s">
         <v>2</v>
       </c>
-      <c r="B2">
-        <v>5289</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B3">
-        <v>21.530284881591797</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B9" t="s">
         <v>4</v>
       </c>
-      <c r="B4">
-        <v>21.55850601196289</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B5">
-        <v>-50</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
+      <c r="C9">
+        <v>22.72</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B10" t="s">
         <v>6</v>
       </c>
-      <c r="B6">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
+      <c r="C10">
+        <v>22.1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B11" t="s">
         <v>7</v>
       </c>
-      <c r="B7">
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" s="1" t="s">
+      <c r="C11">
+        <v>21.85</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B12" t="s">
         <v>8</v>
       </c>
-      <c r="B8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" s="1" t="s">
+      <c r="C12">
+        <v>21.68</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B13" t="s">
         <v>9</v>
       </c>
-      <c r="B9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" s="1" t="s">
+      <c r="C13">
+        <v>21.73</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12" s="1" t="s">
+      <c r="B15" t="s">
+        <v>4</v>
+      </c>
+      <c r="C15">
+        <v>22.73</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B16" t="s">
+        <v>6</v>
+      </c>
+      <c r="C16">
+        <v>22.13</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B17" t="s">
+        <v>7</v>
+      </c>
+      <c r="C17">
+        <v>21.84</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B18" t="s">
+        <v>8</v>
+      </c>
+      <c r="C18">
+        <v>21.73</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B19" t="s">
+        <v>9</v>
+      </c>
+      <c r="C19">
+        <v>21.77</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13" s="1" t="s">
+      <c r="B21" t="s">
+        <v>4</v>
+      </c>
+      <c r="C21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B22" t="s">
+        <v>6</v>
+      </c>
+      <c r="C22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B23" t="s">
+        <v>7</v>
+      </c>
+      <c r="C23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B24" t="s">
+        <v>8</v>
+      </c>
+      <c r="C24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A25" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B25" t="s">
+        <v>9</v>
+      </c>
+      <c r="C25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A27" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14" s="1" t="s">
+      <c r="B27" t="s">
+        <v>4</v>
+      </c>
+      <c r="C27">
+        <v>9.13861111111111</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A28" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B28" t="s">
+        <v>6</v>
+      </c>
+      <c r="C28">
+        <v>9.13861111111111</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A29" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B29" t="s">
+        <v>7</v>
+      </c>
+      <c r="C29">
+        <v>9.13861111111111</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A30" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B30" t="s">
+        <v>8</v>
+      </c>
+      <c r="C30">
+        <v>9.13861111111111</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A31" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B31" t="s">
+        <v>9</v>
+      </c>
+      <c r="C31">
+        <v>9.13861111111111</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A33" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A15" s="1" t="s">
+      <c r="B33" t="s">
+        <v>4</v>
+      </c>
+      <c r="C33">
+        <v>9.13861111111111</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A34" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B34" t="s">
+        <v>6</v>
+      </c>
+      <c r="C34">
+        <v>9.13861111111111</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A35" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B35" t="s">
+        <v>7</v>
+      </c>
+      <c r="C35">
+        <v>9.13861111111111</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A36" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B36" t="s">
+        <v>8</v>
+      </c>
+      <c r="C36">
+        <v>9.13861111111111</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A37" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B37" t="s">
+        <v>9</v>
+      </c>
+      <c r="C37">
+        <v>9.0675</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A39" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="B15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A16" s="1" t="s">
+      <c r="B39" t="s">
+        <v>4</v>
+      </c>
+      <c r="C39">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A40" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B40" t="s">
+        <v>6</v>
+      </c>
+      <c r="C40">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A41" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B41" t="s">
+        <v>7</v>
+      </c>
+      <c r="C41">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A42" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B42" t="s">
+        <v>8</v>
+      </c>
+      <c r="C42">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A43" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B43" t="s">
+        <v>9</v>
+      </c>
+      <c r="C43">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A45" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B45" t="s">
+        <v>4</v>
+      </c>
+      <c r="C45">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A46" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B46" t="s">
+        <v>6</v>
+      </c>
+      <c r="C46">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A47" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B47" t="s">
+        <v>7</v>
+      </c>
+      <c r="C47">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A48" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B48" t="s">
+        <v>8</v>
+      </c>
+      <c r="C48">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A49" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B49" t="s">
+        <v>9</v>
+      </c>
+      <c r="C49">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A51" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A18" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A19" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B19">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A20" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A21" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="B21">
-        <v>7113.148172717076</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A22" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B22">
-        <v>0.08361111581325531</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A23" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="B23" s="2">
-        <v>44163.86418981482</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A24" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="B24" s="2">
-        <v>44163.86418981482</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A25" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="B25">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A26" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="B26">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A27" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="B27">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A28" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="B28">
-        <v>2665</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A29" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="B29">
-        <v>17936</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A30" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="B30">
-        <v>2665</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A31" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="B31">
-        <v>18448</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A32" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="B32">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A33" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="B33">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A34" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="B34">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A35" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="B35">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A36" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="B36" s="2">
-        <v>36525.916666666664</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A37" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="B37">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A38" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="B38">
-        <v>3143</v>
+      <c r="B51" t="s">
+        <v>4</v>
+      </c>
+      <c r="C51">
+        <v>8833</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A52" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B52" t="s">
+        <v>6</v>
+      </c>
+      <c r="C52">
+        <v>8833</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A53" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B53" t="s">
+        <v>7</v>
+      </c>
+      <c r="C53">
+        <v>8833</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A54" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B54" t="s">
+        <v>8</v>
+      </c>
+      <c r="C54">
+        <v>8577</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A55" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B55" t="s">
+        <v>9</v>
+      </c>
+      <c r="C55">
+        <v>1921</v>
       </c>
     </row>
   </sheetData>
